--- a/project.xlsx
+++ b/project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="API清單" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="514">
   <si>
     <t>流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1322,35 +1322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>成功|
-產品圖檔路徑(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>~/product/檔名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1432,35 +1403,6 @@
   </si>
   <si>
     <t>香菜:加香菜、不加香菜</t>
-  </si>
-  <si>
-    <r>
-      <t>成功
-產品圖檔路徑(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>~/BannerImg/檔名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>優惠卷內容確認</t>
@@ -2175,14 +2117,6 @@
   </si>
   <si>
     <t>以訂單編號透過編號13及14取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://lay-order.rocket-coding.com/Order/CancelOrder/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://lay-order.rocket-coding.com/Order/CheckOrder/9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2316,11 +2250,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://lay-order.rocket-coding.com/Order/ShowOrderList?type=togo&amp;status=done&amp;page=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>連江縣</t>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Counter/CheckOrder/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Counter/ShowOrderList?type=togo&amp;status=done&amp;page=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送餐完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單品狀態改成已送餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Counter/CancelOrder/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Counter/Orderdelivered/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單品編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功|
+產品圖檔路徑(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://lay-order.rocket-coding.com/Img/product/檔名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功
+產品圖檔路徑(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://lay-order.rocket-coding.com/Img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BannerImg/檔名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2330,7 +2365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2392,6 +2427,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -2541,7 +2584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2773,134 +2816,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3188,13 +3237,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="K98" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M102" sqref="M102"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3214,14 +3263,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="100"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3234,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3262,27 +3311,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="88">
+      <c r="D3" s="79">
         <v>1</v>
       </c>
-      <c r="E3" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="91" t="s">
+      <c r="E3" s="93" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="104" t="s">
-        <v>327</v>
+      <c r="G3" s="93"/>
+      <c r="H3" s="89" t="s">
+        <v>325</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>189</v>
@@ -3295,14 +3344,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="106"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="91"/>
       <c r="K4" s="1" t="s">
         <v>278</v>
       </c>
@@ -3311,264 +3360,264 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="79">
         <v>2</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="104" t="s">
-        <v>503</v>
+      <c r="G5" s="79"/>
+      <c r="H5" s="89" t="s">
+        <v>499</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="K5" s="101" t="s">
-        <v>291</v>
+        <v>501</v>
+      </c>
+      <c r="K5" s="92" t="s">
+        <v>512</v>
       </c>
       <c r="L5" s="40" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="105"/>
-      <c r="K6" s="89"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="90"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="31" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="105"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="89"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="105"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
-      <c r="K8" s="89"/>
+      <c r="K8" s="88"/>
       <c r="L8" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="106"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
-      <c r="K9" s="90"/>
+      <c r="K9" s="80"/>
       <c r="L9" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="79">
         <v>3</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="104" t="s">
-        <v>398</v>
+      <c r="G10" s="79"/>
+      <c r="H10" s="89" t="s">
+        <v>396</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="L10" s="51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="105"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="90"/>
       <c r="L11" s="49" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="105"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="90"/>
       <c r="L12" s="49" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="105"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="90"/>
       <c r="L13" s="49" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="105"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="90"/>
       <c r="L14" s="49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="105"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="90"/>
       <c r="L15" s="49" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="105"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="90"/>
       <c r="L16" s="49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="90"/>
+      <c r="L17" s="49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="90"/>
+      <c r="L18" s="49" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="105"/>
-      <c r="L17" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="105"/>
-      <c r="L18" s="49" t="s">
-        <v>339</v>
-      </c>
-    </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="106"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="91"/>
       <c r="I19" s="5"/>
       <c r="L19" s="49" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91" t="s">
+      <c r="A20" s="88"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="79">
         <v>4</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="104" t="s">
-        <v>328</v>
+      <c r="G20" s="79"/>
+      <c r="H20" s="89" t="s">
+        <v>326</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>257</v>
@@ -3584,14 +3633,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="106"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="91"/>
       <c r="K21" s="1" t="s">
         <v>263</v>
       </c>
@@ -3599,9 +3648,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="91"/>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
@@ -3615,7 +3664,7 @@
         <v>58</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>257</v>
@@ -3624,15 +3673,15 @@
         <v>257</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>319</v>
+        <v>513</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="91"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
@@ -3646,7 +3695,7 @@
         <v>58</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>257</v>
@@ -3658,29 +3707,29 @@
         <v>275</v>
       </c>
       <c r="L23" s="76" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="88" t="s">
+      <c r="A24" s="88"/>
+      <c r="B24" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="79">
         <v>7</v>
       </c>
-      <c r="E24" s="114" t="s">
+      <c r="E24" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="116" t="s">
-        <v>322</v>
+      <c r="G24" s="79"/>
+      <c r="H24" s="81" t="s">
+        <v>320</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>281</v>
@@ -3696,14 +3745,14 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="103"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="82"/>
       <c r="K25" s="1" t="s">
         <v>284</v>
       </c>
@@ -3712,8 +3761,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
@@ -3727,7 +3776,7 @@
         <v>58</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>257</v>
@@ -3743,149 +3792,149 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="91" t="s">
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D27" s="79">
         <v>9</v>
       </c>
-      <c r="E27" s="91" t="s">
+      <c r="E27" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="91" t="s">
+      <c r="F27" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="101" t="s">
+      <c r="G27" s="92" t="s">
+        <v>339</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="K27" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="J28" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="H27" s="116" t="s">
-        <v>399</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="K28" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="J29" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="J27" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="K27" s="49" t="s">
+      <c r="K29" s="49"/>
+    </row>
+    <row r="30" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="J30" s="49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="J31" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="K31" s="49"/>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="79">
+        <v>10</v>
+      </c>
+      <c r="E32" s="93" t="s">
         <v>358</v>
       </c>
-      <c r="L27" s="49" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="J28" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="J29" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="K29" s="49"/>
-    </row>
-    <row r="30" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="J30" s="49" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="J31" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="K31" s="49"/>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="88">
-        <v>10</v>
-      </c>
-      <c r="E32" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="F32" s="91" t="s">
+      <c r="F32" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="101" t="s">
+      <c r="G32" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="H32" s="101" t="s">
-        <v>379</v>
+      <c r="H32" s="92" t="s">
+        <v>377</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="49"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
       <c r="J33" s="49"/>
       <c r="K33" s="49"/>
     </row>
     <row r="34" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88">
+      <c r="A34" s="88"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79">
         <v>11</v>
       </c>
-      <c r="E34" s="88" t="s">
+      <c r="E34" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="88" t="s">
+      <c r="F34" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="G34" s="88"/>
-      <c r="H34" s="104" t="s">
-        <v>378</v>
+      <c r="G34" s="79"/>
+      <c r="H34" s="89" t="s">
+        <v>376</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>256</v>
@@ -3901,14 +3950,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="106"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="91"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49" t="s">
         <v>259</v>
@@ -3918,309 +3967,309 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="91" t="s">
+      <c r="A36" s="88"/>
+      <c r="B36" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="88">
+      <c r="D36" s="79">
         <v>12</v>
       </c>
-      <c r="E36" s="91" t="s">
+      <c r="E36" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="91" t="s">
+      <c r="F36" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="88"/>
-      <c r="H36" s="116" t="s">
+      <c r="G36" s="79"/>
+      <c r="H36" s="81" t="s">
+        <v>399</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="L36" s="54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="88"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="87"/>
+      <c r="L37" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="53" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A38" s="88"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="87"/>
+      <c r="L38" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="88"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="87"/>
+      <c r="L39" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="88"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="82"/>
+      <c r="L40" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A41" s="88"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="79">
+        <v>13</v>
+      </c>
+      <c r="E41" s="93" t="s">
+        <v>378</v>
+      </c>
+      <c r="F41" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="79"/>
+      <c r="H41" s="81" t="s">
         <v>402</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="I41" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L41" s="54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="88"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="87"/>
+      <c r="L42" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="88"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="87"/>
+      <c r="L43" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="88"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="87"/>
+      <c r="L44" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="88"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="87"/>
+      <c r="L45" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="88"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="87"/>
+      <c r="L46" s="55" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="88"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="82"/>
+      <c r="L47" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="88"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="79">
+        <v>14</v>
+      </c>
+      <c r="E48" s="93" t="s">
+        <v>404</v>
+      </c>
+      <c r="F48" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="79"/>
+      <c r="H48" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="L36" s="54" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="102"/>
-      <c r="L37" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="53" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="102"/>
-      <c r="L38" s="54" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="102"/>
-      <c r="L39" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="103"/>
-      <c r="L40" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="88">
-        <v>13</v>
-      </c>
-      <c r="E41" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="F41" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="88"/>
-      <c r="H41" s="116" t="s">
-        <v>404</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="I48" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="J48" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" s="54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="88"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="87"/>
+      <c r="L49" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="J41" s="1" t="s">
+    </row>
+    <row r="50" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="88"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="87"/>
+      <c r="L50" s="61" t="s">
         <v>388</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L41" s="54" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="102"/>
-      <c r="L42" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="102"/>
-      <c r="L43" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="102"/>
-      <c r="L44" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="102"/>
-      <c r="L45" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="102"/>
-      <c r="L46" s="55" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="89"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="103"/>
-      <c r="L47" s="1" t="s">
+    </row>
+    <row r="51" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="88"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="87"/>
+      <c r="L51" s="61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="88"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="87"/>
+      <c r="L52" s="54" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="88">
-        <v>14</v>
-      </c>
-      <c r="E48" s="91" t="s">
-        <v>406</v>
-      </c>
-      <c r="F48" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="88"/>
-      <c r="H48" s="116" t="s">
-        <v>405</v>
-      </c>
-      <c r="I48" s="53" t="s">
-        <v>387</v>
-      </c>
-      <c r="J48" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="L48" s="54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="102"/>
-      <c r="L49" s="54" t="s">
+    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="88"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="87"/>
+      <c r="L53" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="102"/>
-      <c r="L50" s="61" t="s">
+    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="88"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="82"/>
+      <c r="L54" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="89"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="102"/>
-      <c r="L51" s="61" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="89"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="102"/>
-      <c r="L52" s="54" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="89"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="102"/>
-      <c r="L53" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="103"/>
-      <c r="L54" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
     <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="89"/>
-      <c r="B55" s="91"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="93"/>
       <c r="C55" s="1" t="s">
         <v>17</v>
       </c>
@@ -4231,8 +4280,8 @@
       <c r="H55" s="33"/>
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A56" s="89"/>
-      <c r="B56" s="91"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="93"/>
       <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
@@ -4240,34 +4289,34 @@
         <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H56" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="89"/>
-      <c r="B57" s="91" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="93" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D57" s="43">
         <v>16</v>
@@ -4280,7 +4329,7 @@
       </c>
       <c r="G57" s="30"/>
       <c r="H57" s="50" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>236</v>
@@ -4296,8 +4345,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="89"/>
-      <c r="B58" s="91"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="93"/>
       <c r="C58" s="31" t="s">
         <v>20</v>
       </c>
@@ -4312,7 +4361,7 @@
       </c>
       <c r="G58" s="32"/>
       <c r="H58" s="46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>266</v>
@@ -4324,29 +4373,29 @@
         <v>267</v>
       </c>
       <c r="L58" s="37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="88">
+      <c r="D59" s="79">
         <v>18</v>
       </c>
-      <c r="E59" s="98" t="s">
+      <c r="E59" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="97" t="s">
+      <c r="F59" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="108" t="s">
+      <c r="G59" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="H59" s="104" t="s">
-        <v>332</v>
+      <c r="H59" s="89" t="s">
+        <v>330</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>217</v>
@@ -4358,23 +4407,23 @@
         <v>219</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="89"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="105"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="90"/>
       <c r="I60" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>221</v>
@@ -4384,14 +4433,14 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="89"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="106"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="91"/>
       <c r="K61" s="1" t="s">
         <v>223</v>
       </c>
@@ -4400,29 +4449,29 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="89"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="88" t="s">
+      <c r="A62" s="88"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="88">
+      <c r="D62" s="79">
         <v>19</v>
       </c>
-      <c r="E62" s="108" t="s">
+      <c r="E62" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="111" t="s">
+      <c r="F62" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="G62" s="108"/>
-      <c r="H62" s="104" t="s">
-        <v>468</v>
+      <c r="G62" s="96"/>
+      <c r="H62" s="89" t="s">
+        <v>466</v>
       </c>
       <c r="I62" s="65" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J62" s="65" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>219</v>
@@ -4432,14 +4481,14 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="109"/>
-      <c r="H63" s="105"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="90"/>
       <c r="K63" s="1" t="s">
         <v>226</v>
       </c>
@@ -4448,14 +4497,14 @@
       </c>
     </row>
     <row r="64" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="106"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="91"/>
       <c r="K64" s="1" t="s">
         <v>228</v>
       </c>
@@ -4464,25 +4513,25 @@
       </c>
     </row>
     <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91" t="s">
+      <c r="A65" s="88"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="88">
+      <c r="D65" s="79">
         <v>20</v>
       </c>
-      <c r="E65" s="91" t="s">
+      <c r="E65" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="91" t="s">
+      <c r="F65" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="107" t="s">
+      <c r="G65" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="H65" s="104" t="s">
-        <v>333</v>
+      <c r="H65" s="89" t="s">
+        <v>331</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>79</v>
@@ -4498,14 +4547,14 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="89"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="105"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="90"/>
       <c r="I66" s="1" t="s">
         <v>201</v>
       </c>
@@ -4513,21 +4562,21 @@
         <v>206</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="91"/>
-      <c r="F67" s="91"/>
-      <c r="G67" s="107"/>
-      <c r="H67" s="105"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="90"/>
       <c r="I67" s="1" t="s">
         <v>202</v>
       </c>
@@ -4542,14 +4591,14 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="105"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="90"/>
       <c r="I68" s="1" t="s">
         <v>203</v>
       </c>
@@ -4564,14 +4613,14 @@
       </c>
     </row>
     <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="105"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="90"/>
       <c r="I69" s="1" t="s">
         <v>204</v>
       </c>
@@ -4580,14 +4629,14 @@
       </c>
     </row>
     <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="89"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="107"/>
-      <c r="H70" s="106"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="91"/>
       <c r="I70" s="1" t="s">
         <v>80</v>
       </c>
@@ -4596,9 +4645,9 @@
       </c>
     </row>
     <row r="71" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="89"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="91" t="s">
+      <c r="A71" s="88"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93" t="s">
         <v>145</v>
       </c>
       <c r="D71" s="43">
@@ -4607,12 +4656,12 @@
       <c r="E71" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="F71" s="91" t="s">
+      <c r="F71" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="G71" s="88"/>
+      <c r="G71" s="79"/>
       <c r="H71" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>236</v>
@@ -4628,19 +4677,19 @@
       </c>
     </row>
     <row r="72" spans="1:12" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A72" s="89"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
+      <c r="A72" s="88"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
       <c r="D72" s="43">
         <v>22</v>
       </c>
       <c r="E72" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="91"/>
-      <c r="G72" s="90"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="80"/>
       <c r="H72" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>238</v>
@@ -4656,23 +4705,23 @@
       </c>
     </row>
     <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="89"/>
-      <c r="B73" s="91"/>
-      <c r="C73" s="91" t="s">
+      <c r="A73" s="88"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="88">
+      <c r="D73" s="79">
         <v>23</v>
       </c>
-      <c r="E73" s="91" t="s">
+      <c r="E73" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="91" t="s">
+      <c r="F73" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="88"/>
-      <c r="H73" s="104" t="s">
-        <v>334</v>
+      <c r="G73" s="79"/>
+      <c r="H73" s="89" t="s">
+        <v>332</v>
       </c>
       <c r="I73" s="31" t="s">
         <v>94</v>
@@ -4688,14 +4737,14 @@
       </c>
     </row>
     <row r="74" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="89"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="105"/>
+      <c r="A74" s="88"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="90"/>
       <c r="I74" s="31" t="s">
         <v>81</v>
       </c>
@@ -4710,14 +4759,14 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="89"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="91"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="105"/>
+      <c r="A75" s="88"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="90"/>
       <c r="I75" s="31" t="s">
         <v>151</v>
       </c>
@@ -4726,14 +4775,14 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="89"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="91"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="105"/>
+      <c r="A76" s="88"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="90"/>
       <c r="I76" s="31" t="s">
         <v>80</v>
       </c>
@@ -4742,14 +4791,14 @@
       </c>
     </row>
     <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="89"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="105"/>
+      <c r="A77" s="88"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="90"/>
       <c r="I77" s="1" t="s">
         <v>268</v>
       </c>
@@ -4758,8 +4807,8 @@
       </c>
     </row>
     <row r="78" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="89"/>
-      <c r="B78" s="91" t="s">
+      <c r="A78" s="88"/>
+      <c r="B78" s="93" t="s">
         <v>65</v>
       </c>
       <c r="C78" s="65" t="s">
@@ -4769,19 +4818,19 @@
         <v>24</v>
       </c>
       <c r="E78" s="67" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F78" s="65" t="s">
         <v>147</v>
       </c>
       <c r="G78" s="62"/>
       <c r="H78" s="63" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="89"/>
-      <c r="B79" s="91"/>
+      <c r="A79" s="88"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="65" t="s">
         <v>67</v>
       </c>
@@ -4796,67 +4845,67 @@
       </c>
       <c r="G79" s="75"/>
       <c r="H79" s="63" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="89"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="91" t="s">
+      <c r="A80" s="88"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="88">
+      <c r="D80" s="79">
         <v>26</v>
       </c>
-      <c r="E80" s="91" t="s">
+      <c r="E80" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="F80" s="91" t="s">
+      <c r="F80" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="G80" s="88"/>
-      <c r="H80" s="116" t="s">
-        <v>486</v>
+      <c r="G80" s="79"/>
+      <c r="H80" s="81" t="s">
+        <v>484</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J80" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>478</v>
-      </c>
     </row>
     <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="89"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="91"/>
-      <c r="G81" s="90"/>
-      <c r="H81" s="103"/>
+      <c r="A81" s="88"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="82"/>
       <c r="I81" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>479</v>
-      </c>
     </row>
     <row r="82" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="89"/>
-      <c r="B82" s="91" t="s">
+      <c r="A82" s="88"/>
+      <c r="B82" s="93" t="s">
         <v>233</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4869,25 +4918,25 @@
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="89"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91" t="s">
+      <c r="A83" s="88"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="88">
+      <c r="D83" s="79">
         <v>27</v>
       </c>
-      <c r="E83" s="91" t="s">
+      <c r="E83" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="91" t="s">
+      <c r="F83" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="101" t="s">
+      <c r="G83" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="H83" s="104" t="s">
-        <v>480</v>
+      <c r="H83" s="89" t="s">
+        <v>478</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>246</v>
@@ -4903,14 +4952,14 @@
       </c>
     </row>
     <row r="84" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="89"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="102"/>
-      <c r="H84" s="105"/>
+      <c r="A84" s="88"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="87"/>
+      <c r="H84" s="90"/>
       <c r="I84" s="31" t="s">
         <v>247</v>
       </c>
@@ -4925,14 +4974,14 @@
       </c>
     </row>
     <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
-      <c r="B85" s="91"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="106"/>
+      <c r="A85" s="88"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="91"/>
       <c r="K85" s="1" t="s">
         <v>253</v>
       </c>
@@ -4941,815 +4990,951 @@
       </c>
     </row>
     <row r="86" spans="1:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="89"/>
-      <c r="B86" s="91" t="s">
+      <c r="A86" s="88"/>
+      <c r="B86" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="88">
+      <c r="D86" s="79">
         <v>28</v>
       </c>
-      <c r="E86" s="91" t="s">
+      <c r="E86" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="91" t="s">
+      <c r="F86" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="G86" s="88"/>
-      <c r="H86" s="116" t="s">
-        <v>463</v>
+      <c r="G86" s="79"/>
+      <c r="H86" s="81" t="s">
+        <v>461</v>
       </c>
       <c r="I86" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="L86" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L86" s="54" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="89"/>
-      <c r="H87" s="102"/>
+      <c r="A87" s="88"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="88"/>
+      <c r="H87" s="87"/>
       <c r="I87" s="53"/>
       <c r="L87" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="89"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="102"/>
+      <c r="A88" s="88"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="87"/>
       <c r="I88" s="53"/>
       <c r="L88" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="89"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="89"/>
-      <c r="H89" s="102"/>
+      <c r="A89" s="88"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="88"/>
+      <c r="H89" s="87"/>
       <c r="I89" s="53"/>
       <c r="L89" s="59" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="89"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="91"/>
-      <c r="F90" s="91"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="102"/>
+      <c r="A90" s="88"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="87"/>
       <c r="I90" s="53"/>
       <c r="L90" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="89"/>
-      <c r="B91" s="96" t="s">
+      <c r="A91" s="88"/>
+      <c r="B91" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="88">
+      <c r="D91" s="79">
         <v>29</v>
       </c>
-      <c r="E91" s="91" t="s">
+      <c r="E91" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="91" t="s">
+      <c r="F91" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="G91" s="88"/>
-      <c r="H91" s="116" t="s">
-        <v>488</v>
+      <c r="G91" s="79"/>
+      <c r="H91" s="81" t="s">
+        <v>486</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J91" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="K91" s="1" t="s">
+    </row>
+    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="80"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="80"/>
+      <c r="H92" s="82"/>
+      <c r="K92" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
-      <c r="B92" s="96"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="91"/>
-      <c r="G92" s="90"/>
-      <c r="H92" s="103"/>
-      <c r="K92" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="L92" s="65" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:12" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A93" s="92" t="s">
+      <c r="A93" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="92" t="s">
+      <c r="B93" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="92" t="s">
-        <v>422</v>
-      </c>
-      <c r="D93" s="84">
+      <c r="C93" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="D93" s="107">
         <v>30</v>
       </c>
-      <c r="E93" s="95" t="s">
-        <v>421</v>
-      </c>
-      <c r="F93" s="92" t="s">
+      <c r="E93" s="115" t="s">
+        <v>419</v>
+      </c>
+      <c r="F93" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="G93" s="84"/>
-      <c r="H93" s="81" t="s">
-        <v>506</v>
+      <c r="G93" s="107"/>
+      <c r="H93" s="112" t="s">
+        <v>504</v>
       </c>
       <c r="I93" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="L93" s="71" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A94" s="106"/>
+      <c r="B94" s="106"/>
+      <c r="C94" s="106"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="115"/>
+      <c r="F94" s="106"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="113"/>
+      <c r="I94" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J94" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="106"/>
+      <c r="B95" s="106"/>
+      <c r="C95" s="106"/>
+      <c r="D95" s="111"/>
+      <c r="E95" s="115"/>
+      <c r="F95" s="106"/>
+      <c r="G95" s="111"/>
+      <c r="H95" s="113"/>
+      <c r="L95" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="L93" s="71" t="s">
+    </row>
+    <row r="96" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="106"/>
+      <c r="B96" s="106"/>
+      <c r="C96" s="106"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="115"/>
+      <c r="F96" s="106"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="113"/>
+      <c r="L96" s="72" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="106"/>
+      <c r="B97" s="106"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="115"/>
+      <c r="F97" s="106"/>
+      <c r="G97" s="111"/>
+      <c r="H97" s="113"/>
+      <c r="L97" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="106"/>
+      <c r="B98" s="106"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="111"/>
+      <c r="E98" s="115"/>
+      <c r="F98" s="106"/>
+      <c r="G98" s="111"/>
+      <c r="H98" s="113"/>
+      <c r="L98" s="56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="106"/>
+      <c r="B99" s="106"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="115"/>
+      <c r="F99" s="106"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="113"/>
+      <c r="L99" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="106"/>
+      <c r="B100" s="106"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="111"/>
+      <c r="E100" s="115"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="111"/>
+      <c r="H100" s="113"/>
+      <c r="L100" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A94" s="92"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="94"/>
-      <c r="I94" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="J94" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="92"/>
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="93"/>
-      <c r="E95" s="95"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="93"/>
-      <c r="H95" s="94"/>
-      <c r="L95" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="92"/>
-      <c r="B96" s="92"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="93"/>
-      <c r="E96" s="95"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="93"/>
-      <c r="H96" s="94"/>
-      <c r="L96" s="72" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="92"/>
-      <c r="B97" s="92"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="93"/>
-      <c r="E97" s="95"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="93"/>
-      <c r="H97" s="94"/>
-      <c r="L97" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="92"/>
-      <c r="B98" s="92"/>
-      <c r="C98" s="92"/>
-      <c r="D98" s="93"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="93"/>
-      <c r="H98" s="94"/>
-      <c r="L98" s="56" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="92"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="93"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="93"/>
-      <c r="H99" s="94"/>
-      <c r="L99" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="92"/>
-      <c r="B100" s="92"/>
-      <c r="C100" s="92"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="93"/>
-      <c r="H100" s="94"/>
-      <c r="L100" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
     <row r="101" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A101" s="92"/>
-      <c r="B101" s="92"/>
+      <c r="A101" s="106"/>
+      <c r="B101" s="106"/>
       <c r="C101" s="58" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D101" s="58">
         <v>31</v>
       </c>
       <c r="E101" s="58" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F101" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H101" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="106"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="107" t="s">
+        <v>505</v>
+      </c>
+      <c r="D102" s="107">
+        <v>32</v>
+      </c>
+      <c r="E102" s="107" t="s">
+        <v>506</v>
+      </c>
+      <c r="F102" s="107" t="s">
+        <v>507</v>
+      </c>
+      <c r="G102" s="107"/>
+      <c r="H102" s="112" t="s">
+        <v>509</v>
+      </c>
+      <c r="I102" s="77" t="s">
+        <v>510</v>
+      </c>
+      <c r="J102" s="77" t="s">
+        <v>511</v>
+      </c>
+      <c r="K102" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="L102" s="77" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="106"/>
+      <c r="B103" s="106"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="121"/>
+      <c r="K103" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="L103" s="77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="106"/>
+      <c r="B104" s="106"/>
+      <c r="C104" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="107">
+        <v>33</v>
+      </c>
+      <c r="E104" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="F104" s="107" t="s">
+        <v>427</v>
+      </c>
+      <c r="G104" s="107"/>
+      <c r="H104" s="112" t="s">
+        <v>508</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K104" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="L104" s="56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="106"/>
+      <c r="B105" s="106"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="114"/>
+      <c r="K105" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="106"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="107">
+        <v>34</v>
+      </c>
+      <c r="E106" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="G106" s="107"/>
+      <c r="H106" s="112" t="s">
+        <v>503</v>
+      </c>
+      <c r="I106" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="J106" s="66" t="s">
+        <v>421</v>
+      </c>
+      <c r="K106" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="L106" s="56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="106"/>
+      <c r="B107" s="106"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
+      <c r="E107" s="108"/>
+      <c r="F107" s="108"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="114"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
+      <c r="K107" s="56" t="s">
+        <v>430</v>
+      </c>
+      <c r="L107" s="56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108" s="119">
+        <v>35</v>
+      </c>
+      <c r="E108" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="G108" s="83"/>
+      <c r="H108" s="81" t="s">
+        <v>489</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="92"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" s="84">
-        <v>32</v>
-      </c>
-      <c r="E102" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="F102" s="84" t="s">
+      <c r="J108" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" s="65" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="104"/>
+      <c r="B109" s="104"/>
+      <c r="C109" s="105"/>
+      <c r="D109" s="120"/>
+      <c r="E109" s="104"/>
+      <c r="F109" s="104"/>
+      <c r="G109" s="84"/>
+      <c r="H109" s="86"/>
+      <c r="I109" s="68" t="s">
+        <v>491</v>
+      </c>
+      <c r="J109" s="69" t="s">
+        <v>492</v>
+      </c>
+      <c r="K109" s="65" t="s">
+        <v>462</v>
+      </c>
+      <c r="L109" s="65" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="104"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="120"/>
+      <c r="E110" s="104"/>
+      <c r="F110" s="104"/>
+      <c r="G110" s="84"/>
+      <c r="H110" s="87"/>
+      <c r="I110" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="J110" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="104"/>
+      <c r="B111" s="104"/>
+      <c r="C111" s="105"/>
+      <c r="D111" s="120"/>
+      <c r="E111" s="104"/>
+      <c r="F111" s="104"/>
+      <c r="G111" s="84"/>
+      <c r="H111" s="87"/>
+      <c r="L111" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="104"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="120"/>
+      <c r="E112" s="104"/>
+      <c r="F112" s="104"/>
+      <c r="G112" s="84"/>
+      <c r="H112" s="87"/>
+      <c r="L112" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="104"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="105"/>
+      <c r="D113" s="120"/>
+      <c r="E113" s="104"/>
+      <c r="F113" s="104"/>
+      <c r="G113" s="84"/>
+      <c r="H113" s="87"/>
+      <c r="L113" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="104"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="105"/>
+      <c r="D114" s="120"/>
+      <c r="E114" s="104"/>
+      <c r="F114" s="104"/>
+      <c r="G114" s="84"/>
+      <c r="H114" s="87"/>
+      <c r="L114" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="104"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="105"/>
+      <c r="D115" s="120"/>
+      <c r="E115" s="104"/>
+      <c r="F115" s="104"/>
+      <c r="G115" s="84"/>
+      <c r="H115" s="87"/>
+      <c r="L115" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="104"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="120"/>
+      <c r="E116" s="104"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="84"/>
+      <c r="H116" s="87"/>
+      <c r="L116" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="104"/>
+      <c r="B117" s="104"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="120"/>
+      <c r="E117" s="104"/>
+      <c r="F117" s="104"/>
+      <c r="G117" s="84"/>
+      <c r="H117" s="87"/>
+      <c r="L117" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="104"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="120"/>
+      <c r="E118" s="104"/>
+      <c r="F118" s="104"/>
+      <c r="G118" s="84"/>
+      <c r="H118" s="87"/>
+      <c r="L118" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="104"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="105"/>
+      <c r="D119" s="120"/>
+      <c r="E119" s="104"/>
+      <c r="F119" s="104"/>
+      <c r="G119" s="84"/>
+      <c r="H119" s="87"/>
+      <c r="L119" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="104"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="105"/>
+      <c r="D120" s="120"/>
+      <c r="E120" s="104"/>
+      <c r="F120" s="104"/>
+      <c r="G120" s="84"/>
+      <c r="H120" s="87"/>
+      <c r="L120" s="68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="104"/>
+      <c r="B121" s="104"/>
+      <c r="C121" s="105"/>
+      <c r="D121" s="118"/>
+      <c r="E121" s="104"/>
+      <c r="F121" s="104"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="82"/>
+      <c r="L121" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="104"/>
+      <c r="B122" s="104"/>
+      <c r="C122" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122" s="83">
+        <v>36</v>
+      </c>
+      <c r="E122" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="G122" s="83"/>
+      <c r="H122" s="117" t="s">
+        <v>493</v>
+      </c>
+      <c r="I122" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="J122" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="K122" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="L122" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="G102" s="84"/>
-      <c r="H102" s="81" t="s">
-        <v>491</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="K102" s="56" t="s">
+    </row>
+    <row r="123" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="104"/>
+      <c r="B123" s="104"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="118"/>
+      <c r="K123" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="L102" s="56" t="s">
+      <c r="L123" s="55" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="92"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="82"/>
-      <c r="K103" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="92"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="84">
-        <v>33</v>
-      </c>
-      <c r="E104" s="84" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="104"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124" s="83">
         <v>37</v>
       </c>
-      <c r="F104" s="84" t="s">
-        <v>435</v>
-      </c>
-      <c r="G104" s="84"/>
-      <c r="H104" s="81" t="s">
-        <v>492</v>
-      </c>
-      <c r="I104" s="74" t="s">
-        <v>402</v>
-      </c>
-      <c r="J104" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="K104" s="56" t="s">
+      <c r="E124" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="104" t="s">
+        <v>434</v>
+      </c>
+      <c r="G124" s="83"/>
+      <c r="H124" s="117" t="s">
+        <v>494</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K124" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="L124" s="55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="104"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="104"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="104"/>
+      <c r="F125" s="104"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="118"/>
+      <c r="K125" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="L104" s="56" t="s">
+      <c r="L125" s="55" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="92"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="73"/>
-      <c r="J105" s="73"/>
-      <c r="K105" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="L105" s="56" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="86" t="s">
+    <row r="126" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="B126" s="119" t="s">
+        <v>392</v>
+      </c>
+      <c r="C126" s="83" t="s">
+        <v>437</v>
+      </c>
+      <c r="D126" s="83">
         <v>38</v>
       </c>
-      <c r="B106" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="C106" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="D106" s="83">
-        <v>34</v>
-      </c>
-      <c r="E106" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="F106" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="G106" s="77"/>
-      <c r="H106" s="116" t="s">
-        <v>493</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J106" s="64" t="s">
-        <v>447</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" s="65" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="86"/>
-      <c r="B107" s="86"/>
-      <c r="C107" s="99"/>
-      <c r="D107" s="87"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="86"/>
-      <c r="G107" s="117"/>
-      <c r="H107" s="118"/>
-      <c r="I107" s="68" t="s">
+      <c r="E126" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="F126" s="83" t="s">
+        <v>394</v>
+      </c>
+      <c r="G126" s="83"/>
+      <c r="H126" s="117" t="s">
         <v>495</v>
       </c>
-      <c r="J107" s="69" t="s">
+      <c r="I126" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="K107" s="65" t="s">
-        <v>464</v>
-      </c>
-      <c r="L107" s="65" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="86"/>
-      <c r="B108" s="86"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="87"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="117"/>
-      <c r="H108" s="102"/>
-      <c r="I108" s="68" t="s">
-        <v>445</v>
-      </c>
-      <c r="J108" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="86"/>
-      <c r="B109" s="86"/>
-      <c r="C109" s="99"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="117"/>
-      <c r="H109" s="102"/>
-      <c r="L109" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="86"/>
-      <c r="B110" s="86"/>
-      <c r="C110" s="99"/>
-      <c r="D110" s="87"/>
-      <c r="E110" s="86"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="117"/>
-      <c r="H110" s="102"/>
-      <c r="L110" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="86"/>
-      <c r="B111" s="86"/>
-      <c r="C111" s="99"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="117"/>
-      <c r="H111" s="102"/>
-      <c r="L111" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="86"/>
-      <c r="B112" s="86"/>
-      <c r="C112" s="99"/>
-      <c r="D112" s="87"/>
-      <c r="E112" s="86"/>
-      <c r="F112" s="86"/>
-      <c r="G112" s="117"/>
-      <c r="H112" s="102"/>
-      <c r="L112" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="86"/>
-      <c r="B113" s="86"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="87"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="117"/>
-      <c r="H113" s="102"/>
-      <c r="L113" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="86"/>
-      <c r="B114" s="86"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="87"/>
-      <c r="E114" s="86"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="117"/>
-      <c r="H114" s="102"/>
-      <c r="L114" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="86"/>
-      <c r="B115" s="86"/>
-      <c r="C115" s="99"/>
-      <c r="D115" s="87"/>
-      <c r="E115" s="86"/>
-      <c r="F115" s="86"/>
-      <c r="G115" s="117"/>
-      <c r="H115" s="102"/>
-      <c r="L115" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="86"/>
-      <c r="B116" s="86"/>
-      <c r="C116" s="99"/>
-      <c r="D116" s="87"/>
-      <c r="E116" s="86"/>
-      <c r="F116" s="86"/>
-      <c r="G116" s="117"/>
-      <c r="H116" s="102"/>
-      <c r="L116" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="86"/>
-      <c r="B117" s="86"/>
-      <c r="C117" s="99"/>
-      <c r="D117" s="87"/>
-      <c r="E117" s="86"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="117"/>
-      <c r="H117" s="102"/>
-      <c r="L117" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="86"/>
-      <c r="B118" s="86"/>
-      <c r="C118" s="99"/>
-      <c r="D118" s="87"/>
-      <c r="E118" s="86"/>
-      <c r="F118" s="86"/>
-      <c r="G118" s="117"/>
-      <c r="H118" s="102"/>
-      <c r="L118" s="68" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="86"/>
-      <c r="B119" s="86"/>
-      <c r="C119" s="99"/>
-      <c r="D119" s="80"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="86"/>
-      <c r="G119" s="78"/>
-      <c r="H119" s="103"/>
-      <c r="L119" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="86"/>
-      <c r="B120" s="86"/>
-      <c r="C120" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D120" s="77">
-        <v>35</v>
-      </c>
-      <c r="E120" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="F120" s="77" t="s">
+      <c r="J126" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="K126" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="L126" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="G120" s="77"/>
-      <c r="H120" s="79" t="s">
+    </row>
+    <row r="127" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="85"/>
+      <c r="B127" s="118"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="118"/>
+      <c r="I127" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="I120" s="57" t="s">
-        <v>403</v>
-      </c>
-      <c r="J120" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="K120" s="55" t="s">
+      <c r="J127" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="K127" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="L120" s="55" t="s">
+      <c r="L127" s="55" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="86"/>
-      <c r="B121" s="86"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="78"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="78"/>
-      <c r="G121" s="78"/>
-      <c r="H121" s="80"/>
-      <c r="K121" s="55" t="s">
-        <v>432</v>
-      </c>
-      <c r="L121" s="55" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="86"/>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="D122" s="77">
-        <v>36</v>
-      </c>
-      <c r="E122" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="F122" s="86" t="s">
-        <v>436</v>
-      </c>
-      <c r="G122" s="77"/>
-      <c r="H122" s="79" t="s">
-        <v>498</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="K122" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="L122" s="55" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="86"/>
-      <c r="B123" s="86"/>
-      <c r="C123" s="86"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="86"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="80"/>
-      <c r="K123" s="55" t="s">
-        <v>432</v>
-      </c>
-      <c r="L123" s="55" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="77" t="s">
-        <v>393</v>
-      </c>
-      <c r="B124" s="83" t="s">
-        <v>394</v>
-      </c>
-      <c r="C124" s="77" t="s">
-        <v>439</v>
-      </c>
-      <c r="D124" s="77">
-        <v>37</v>
-      </c>
-      <c r="E124" s="77" t="s">
-        <v>395</v>
-      </c>
-      <c r="F124" s="77" t="s">
-        <v>396</v>
-      </c>
-      <c r="G124" s="77"/>
-      <c r="H124" s="79" t="s">
-        <v>499</v>
-      </c>
-      <c r="I124" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="J124" s="57" t="s">
-        <v>440</v>
-      </c>
-      <c r="K124" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="L124" s="55" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="78"/>
-      <c r="B125" s="80"/>
-      <c r="C125" s="78"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="78"/>
-      <c r="H125" s="80"/>
-      <c r="I125" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="K125" s="55" t="s">
-        <v>432</v>
-      </c>
-      <c r="L125" s="55" t="s">
-        <v>433</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="176">
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="G106:G119"/>
-    <mergeCell ref="H106:H119"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="A3:A92"/>
-    <mergeCell ref="G86:G90"/>
-    <mergeCell ref="H86:H90"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="H41:H47"/>
-    <mergeCell ref="G48:G54"/>
-    <mergeCell ref="H48:H54"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F10:F19"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E32:E33"/>
+  <mergeCells count="182">
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D108:D121"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B36:B56"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="G93:G100"/>
+    <mergeCell ref="H93:H100"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E93:E100"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="F48:F54"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C54"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="A108:A125"/>
+    <mergeCell ref="B108:B125"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="C108:C121"/>
+    <mergeCell ref="E108:E121"/>
+    <mergeCell ref="F108:F121"/>
+    <mergeCell ref="F86:F90"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E86:E90"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F93:F100"/>
+    <mergeCell ref="B93:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="C65:C70"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="G65:G70"/>
     <mergeCell ref="C62:C64"/>
@@ -5774,123 +5959,41 @@
     <mergeCell ref="H5:H9"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="A106:A123"/>
-    <mergeCell ref="B106:B123"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="C106:C119"/>
-    <mergeCell ref="E106:E119"/>
-    <mergeCell ref="F106:F119"/>
-    <mergeCell ref="F86:F90"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A93:A105"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E86:E90"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F93:F100"/>
-    <mergeCell ref="B93:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C54"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B36:B56"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="G93:G100"/>
-    <mergeCell ref="H93:H100"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E93:E100"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="F48:F54"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="D106:D119"/>
-    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F10:F19"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="G108:G121"/>
+    <mergeCell ref="H108:H121"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="A3:A92"/>
+    <mergeCell ref="G86:G90"/>
+    <mergeCell ref="H86:H90"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="G48:G54"/>
+    <mergeCell ref="H48:H54"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G27:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5922,17 +6025,18 @@
     <hyperlink ref="H48" r:id="rId26"/>
     <hyperlink ref="H93" r:id="rId27"/>
     <hyperlink ref="L96" r:id="rId28"/>
-    <hyperlink ref="H102" r:id="rId29"/>
-    <hyperlink ref="H120" r:id="rId30"/>
-    <hyperlink ref="H104" r:id="rId31"/>
-    <hyperlink ref="H122" r:id="rId32"/>
-    <hyperlink ref="H124" r:id="rId33"/>
-    <hyperlink ref="H106" r:id="rId34"/>
+    <hyperlink ref="H104" r:id="rId29"/>
+    <hyperlink ref="H122" r:id="rId30"/>
+    <hyperlink ref="H106" r:id="rId31"/>
+    <hyperlink ref="H124" r:id="rId32"/>
+    <hyperlink ref="H126" r:id="rId33"/>
+    <hyperlink ref="H108" r:id="rId34"/>
     <hyperlink ref="H80" r:id="rId35"/>
     <hyperlink ref="H91" r:id="rId36"/>
+    <hyperlink ref="H102" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -5940,8 +6044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
@@ -6255,10 +6359,10 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="79" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6274,8 +6378,8 @@
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
@@ -6289,8 +6393,8 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
@@ -6304,8 +6408,8 @@
       <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -6321,8 +6425,8 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
@@ -6335,8 +6439,8 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
@@ -6350,8 +6454,8 @@
       <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89" t="s">
+      <c r="A15" s="88"/>
+      <c r="B15" s="88" t="s">
         <v>273</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -6367,8 +6471,8 @@
       <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
@@ -6382,8 +6486,8 @@
       <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="52" t="s">
         <v>12</v>
       </c>
@@ -6397,10 +6501,10 @@
       <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="52" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
@@ -6412,8 +6516,8 @@
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="79" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -6428,10 +6532,10 @@
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="52" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
@@ -6442,10 +6546,10 @@
       <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="52" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -6456,10 +6560,10 @@
       <c r="S21" s="22"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -6470,8 +6574,8 @@
       <c r="S22" s="22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="88" t="s">
+      <c r="A23" s="88"/>
+      <c r="B23" s="79" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -6480,135 +6584,135 @@
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="24" t="s">
         <v>231</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="24" t="s">
         <v>232</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="9" t="s">
         <v>145</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="88" t="s">
+      <c r="A32" s="88"/>
+      <c r="B32" s="79" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -6619,8 +6723,8 @@
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="9" t="s">
         <v>67</v>
       </c>
@@ -6629,8 +6733,8 @@
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="9" t="s">
         <v>68</v>
       </c>
@@ -6639,8 +6743,8 @@
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="88" t="s">
+      <c r="A35" s="88"/>
+      <c r="B35" s="79" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6651,8 +6755,8 @@
       <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="9" t="s">
         <v>28</v>
       </c>
@@ -6668,7 +6772,7 @@
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
+      <c r="A37" s="88"/>
       <c r="B37" s="9" t="s">
         <v>46</v>
       </c>
@@ -6684,7 +6788,7 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="10" t="s">
         <v>148</v>
       </c>
@@ -6693,14 +6797,14 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="107" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
@@ -6711,10 +6815,10 @@
       <c r="W39" s="22"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
@@ -6725,8 +6829,8 @@
       <c r="W40" s="22"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
-      <c r="B41" s="93"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="2" t="s">
         <v>35</v>
       </c>
@@ -6739,8 +6843,8 @@
       <c r="W41" s="22"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="93"/>
-      <c r="B42" s="85"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="108"/>
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
@@ -6753,10 +6857,10 @@
       <c r="W42" s="22"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="83" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -6771,8 +6875,8 @@
       <c r="W43" s="22"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="117"/>
-      <c r="B44" s="117"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
@@ -6785,8 +6889,8 @@
       <c r="W44" s="22"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="117"/>
-      <c r="B45" s="117"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="8" t="s">
         <v>51</v>
       </c>
@@ -6800,13 +6904,13 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
@@ -6852,17 +6956,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A9:A38"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A9:A38"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6885,28 +6989,28 @@
         <v>2</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="41">
         <v>299</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1" s="41">
         <v>1</v>
       </c>
       <c r="F1" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="41" t="s">
-        <v>297</v>
-      </c>
       <c r="H1" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.25">
@@ -6914,28 +7018,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" s="41">
         <v>150</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E2" s="41">
         <v>1</v>
       </c>
       <c r="F2" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="41" t="s">
-        <v>302</v>
-      </c>
       <c r="I2" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -6943,28 +7047,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="41">
         <v>499</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="41">
         <v>2</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -6972,28 +7076,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" s="41">
         <v>99</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E4" s="41">
         <v>2</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
@@ -7001,28 +7105,28 @@
         <v>7</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="41">
         <v>139</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E5" s="41">
         <v>4</v>
       </c>
       <c r="F5" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="G5" s="41" t="s">
-        <v>311</v>
-      </c>
       <c r="H5" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
@@ -7030,28 +7134,28 @@
         <v>8</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" s="41">
         <v>55</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E6" s="41">
         <v>4</v>
       </c>
       <c r="F6" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>311</v>
-      </c>
       <c r="H6" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -7059,28 +7163,28 @@
         <v>9</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7" s="41">
         <v>55</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E7" s="41">
         <v>2</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
@@ -7088,57 +7192,57 @@
         <v>10</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" s="41">
         <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" s="41">
         <v>3</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7168,7 +7272,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">

--- a/project.xlsx
+++ b/project.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="534">
   <si>
     <t>流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2137,14 +2137,6 @@
   </si>
   <si>
     <t>https://lay-order.rocket-coding.com/Kitchen/CompleteOrder/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://lay-order.rocket-coding.com/Kitchen/CompleteOrderItem/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://lay-order.rocket-coding.com/Accounts/EmployeeLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2277,10 +2269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://lay-order.rocket-coding.com/Counter/Orderdelivered/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2355,6 +2343,98 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>櫃台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廚房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總頁數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計算總頁數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成整張訂單送餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成整張訂單送餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Accounts/EmployeeLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Kitchen/TotalPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Counter/TotalPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Counter/OrderDelivered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Counter/ItemDelivered?Oid=1&amp;id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Kitchen/CompleteOrderItem?Oid=1&amp;id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回傳同13的內容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2584,7 +2664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2822,133 +2902,148 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3237,13 +3332,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3263,14 +3358,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="94"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3311,26 +3406,26 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="95">
         <v>1</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="89" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="111" t="s">
         <v>325</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -3344,14 +3439,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="91"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="113"/>
       <c r="K4" s="1" t="s">
         <v>278</v>
       </c>
@@ -3360,116 +3455,116 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="95">
         <v>2</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="89" t="s">
+      <c r="G5" s="95"/>
+      <c r="H5" s="111" t="s">
+        <v>497</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="K5" s="92" t="s">
-        <v>512</v>
+      <c r="K5" s="108" t="s">
+        <v>509</v>
       </c>
       <c r="L5" s="40" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="90"/>
-      <c r="K6" s="88"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="112"/>
+      <c r="K6" s="96"/>
       <c r="L6" s="31" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="90"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="88"/>
+      <c r="K7" s="96"/>
       <c r="L7" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="90"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
-      <c r="K8" s="88"/>
+      <c r="K8" s="96"/>
       <c r="L8" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="91"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="113"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
-      <c r="K9" s="80"/>
+      <c r="K9" s="97"/>
       <c r="L9" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93" t="s">
+      <c r="A10" s="96"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="95">
         <v>3</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="89" t="s">
+      <c r="G10" s="95"/>
+      <c r="H10" s="111" t="s">
         <v>396</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -3483,140 +3578,140 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="90"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="112"/>
       <c r="L11" s="49" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="90"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="112"/>
       <c r="L12" s="49" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="90"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="112"/>
       <c r="L13" s="49" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="90"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="112"/>
       <c r="L14" s="49" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="90"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="112"/>
       <c r="L15" s="49" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="90"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="112"/>
       <c r="L16" s="49" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="90"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="112"/>
       <c r="L17" s="49" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="90"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="112"/>
       <c r="L18" s="49" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="91"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="113"/>
       <c r="I19" s="5"/>
       <c r="L19" s="49" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93" t="s">
+      <c r="A20" s="96"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="95">
         <v>4</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="89" t="s">
+      <c r="G20" s="95"/>
+      <c r="H20" s="111" t="s">
         <v>326</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -3633,14 +3728,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="91"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="113"/>
       <c r="K21" s="1" t="s">
         <v>263</v>
       </c>
@@ -3649,8 +3744,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
@@ -3673,15 +3768,15 @@
         <v>257</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
@@ -3707,28 +3802,28 @@
         <v>275</v>
       </c>
       <c r="L23" s="76" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="79" t="s">
+      <c r="A24" s="96"/>
+      <c r="B24" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="95">
         <v>7</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="81" t="s">
+      <c r="G24" s="95"/>
+      <c r="H24" s="123" t="s">
         <v>320</v>
       </c>
       <c r="I24" s="31" t="s">
@@ -3745,14 +3840,14 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="82"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="110"/>
       <c r="K25" s="1" t="s">
         <v>284</v>
       </c>
@@ -3761,8 +3856,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
@@ -3792,24 +3887,24 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="93" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="95">
         <v>9</v>
       </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="93" t="s">
+      <c r="F27" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="108" t="s">
         <v>339</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="123" t="s">
         <v>397</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -3826,14 +3921,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
       <c r="J28" s="49" t="s">
         <v>341</v>
       </c>
@@ -3845,95 +3940,95 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
       <c r="J29" s="49" t="s">
         <v>342</v>
       </c>
       <c r="K29" s="49"/>
     </row>
     <row r="30" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
       <c r="J30" s="49" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
       <c r="J31" s="49" t="s">
         <v>346</v>
       </c>
       <c r="K31" s="49"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="79">
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="95">
         <v>10</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="98" t="s">
         <v>358</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="92" t="s">
+      <c r="G32" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="H32" s="92" t="s">
+      <c r="H32" s="108" t="s">
         <v>377</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="49"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
       <c r="J33" s="49"/>
       <c r="K33" s="49"/>
     </row>
     <row r="34" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79">
+      <c r="A34" s="96"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95">
         <v>11</v>
       </c>
-      <c r="E34" s="79" t="s">
+      <c r="E34" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="79" t="s">
+      <c r="F34" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="G34" s="79"/>
-      <c r="H34" s="89" t="s">
+      <c r="G34" s="95"/>
+      <c r="H34" s="111" t="s">
         <v>376</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -3950,14 +4045,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="91"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="113"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49" t="s">
         <v>259</v>
@@ -3967,24 +4062,24 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="93" t="s">
+      <c r="A36" s="96"/>
+      <c r="B36" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="79">
+      <c r="D36" s="95">
         <v>12</v>
       </c>
-      <c r="E36" s="93" t="s">
+      <c r="E36" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="93" t="s">
+      <c r="F36" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="81" t="s">
+      <c r="G36" s="95"/>
+      <c r="H36" s="123" t="s">
         <v>399</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -4001,74 +4096,74 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="87"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="109"/>
       <c r="L37" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="53" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="87"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="109"/>
       <c r="L38" s="54" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="88"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="87"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="109"/>
       <c r="L39" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="88"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="82"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="110"/>
       <c r="L40" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A41" s="88"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93" t="s">
+      <c r="A41" s="96"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="79">
+      <c r="D41" s="95">
         <v>13</v>
       </c>
-      <c r="E41" s="93" t="s">
+      <c r="E41" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="F41" s="93" t="s">
+      <c r="F41" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="79"/>
-      <c r="H41" s="81" t="s">
+      <c r="G41" s="95"/>
+      <c r="H41" s="123" t="s">
         <v>402</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -4085,98 +4180,98 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="88"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="87"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="109"/>
       <c r="L42" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="87"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="109"/>
       <c r="L43" s="1" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="88"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="87"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="109"/>
       <c r="L44" s="1" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="88"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="87"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="109"/>
       <c r="L45" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="88"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="87"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="109"/>
       <c r="L46" s="55" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="88"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="82"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="110"/>
       <c r="L47" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="88"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="79">
+      <c r="A48" s="96"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="95">
         <v>14</v>
       </c>
-      <c r="E48" s="93" t="s">
+      <c r="E48" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="F48" s="93" t="s">
+      <c r="F48" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="79"/>
-      <c r="H48" s="81" t="s">
+      <c r="G48" s="95"/>
+      <c r="H48" s="123" t="s">
         <v>403</v>
       </c>
       <c r="I48" s="53" t="s">
@@ -4190,86 +4285,86 @@
       </c>
     </row>
     <row r="49" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="88"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="87"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="109"/>
       <c r="L49" s="54" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="88"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="87"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="109"/>
       <c r="L50" s="61" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="88"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="87"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="109"/>
       <c r="L51" s="61" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="88"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="87"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="109"/>
       <c r="L52" s="54" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="88"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="87"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="109"/>
       <c r="L53" s="1" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="88"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="82"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="110"/>
       <c r="L54" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="88"/>
-      <c r="B55" s="93"/>
+      <c r="A55" s="96"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="1" t="s">
         <v>17</v>
       </c>
@@ -4280,8 +4375,8 @@
       <c r="H55" s="33"/>
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A56" s="88"/>
-      <c r="B56" s="93"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="98"/>
       <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
@@ -4311,8 +4406,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="88"/>
-      <c r="B57" s="93" t="s">
+      <c r="A57" s="96"/>
+      <c r="B57" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="27" t="s">
@@ -4345,8 +4440,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="88"/>
-      <c r="B58" s="93"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="31" t="s">
         <v>20</v>
       </c>
@@ -4377,24 +4472,24 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="88"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93" t="s">
+      <c r="A59" s="96"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="79">
+      <c r="D59" s="95">
         <v>18</v>
       </c>
-      <c r="E59" s="116" t="s">
+      <c r="E59" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="110" t="s">
+      <c r="F59" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="96" t="s">
+      <c r="G59" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="H59" s="89" t="s">
+      <c r="H59" s="111" t="s">
         <v>330</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -4411,14 +4506,14 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="88"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="90"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="112"/>
       <c r="I60" s="1" t="s">
         <v>464</v>
       </c>
@@ -4433,14 +4528,14 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="88"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="110"/>
-      <c r="F61" s="110"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="91"/>
+      <c r="A61" s="96"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="113"/>
       <c r="K61" s="1" t="s">
         <v>223</v>
       </c>
@@ -4449,22 +4544,22 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="88"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="79" t="s">
+      <c r="A62" s="96"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="79">
+      <c r="D62" s="95">
         <v>19</v>
       </c>
-      <c r="E62" s="96" t="s">
+      <c r="E62" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="99" t="s">
+      <c r="F62" s="118" t="s">
         <v>243</v>
       </c>
-      <c r="G62" s="96"/>
-      <c r="H62" s="89" t="s">
+      <c r="G62" s="115"/>
+      <c r="H62" s="111" t="s">
         <v>466</v>
       </c>
       <c r="I62" s="65" t="s">
@@ -4481,14 +4576,14 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="88"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="90"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="112"/>
       <c r="K63" s="1" t="s">
         <v>226</v>
       </c>
@@ -4497,14 +4592,14 @@
       </c>
     </row>
     <row r="64" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A64" s="88"/>
-      <c r="B64" s="93"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="91"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="113"/>
       <c r="K64" s="1" t="s">
         <v>228</v>
       </c>
@@ -4513,24 +4608,24 @@
       </c>
     </row>
     <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="88"/>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93" t="s">
+      <c r="A65" s="96"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="79">
+      <c r="D65" s="95">
         <v>20</v>
       </c>
-      <c r="E65" s="93" t="s">
+      <c r="E65" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="93" t="s">
+      <c r="F65" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="95" t="s">
+      <c r="G65" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="H65" s="89" t="s">
+      <c r="H65" s="111" t="s">
         <v>331</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -4547,14 +4642,14 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="88"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="90"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="112"/>
       <c r="I66" s="1" t="s">
         <v>201</v>
       </c>
@@ -4569,14 +4664,14 @@
       </c>
     </row>
     <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="88"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="90"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="112"/>
       <c r="I67" s="1" t="s">
         <v>202</v>
       </c>
@@ -4591,14 +4686,14 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="88"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="90"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="112"/>
       <c r="I68" s="1" t="s">
         <v>203</v>
       </c>
@@ -4613,14 +4708,14 @@
       </c>
     </row>
     <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="88"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="93"/>
-      <c r="F69" s="93"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="90"/>
+      <c r="A69" s="96"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="112"/>
       <c r="I69" s="1" t="s">
         <v>204</v>
       </c>
@@ -4629,14 +4724,14 @@
       </c>
     </row>
     <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="88"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="93"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="91"/>
+      <c r="A70" s="96"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="113"/>
       <c r="I70" s="1" t="s">
         <v>80</v>
       </c>
@@ -4645,9 +4740,9 @@
       </c>
     </row>
     <row r="71" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="88"/>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93" t="s">
+      <c r="A71" s="96"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="98" t="s">
         <v>145</v>
       </c>
       <c r="D71" s="43">
@@ -4656,10 +4751,10 @@
       <c r="E71" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="F71" s="93" t="s">
+      <c r="F71" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="G71" s="79"/>
+      <c r="G71" s="95"/>
       <c r="H71" s="48" t="s">
         <v>321</v>
       </c>
@@ -4677,17 +4772,17 @@
       </c>
     </row>
     <row r="72" spans="1:12" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A72" s="88"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
       <c r="D72" s="43">
         <v>22</v>
       </c>
       <c r="E72" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="93"/>
-      <c r="G72" s="80"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="97"/>
       <c r="H72" s="48" t="s">
         <v>322</v>
       </c>
@@ -4705,22 +4800,22 @@
       </c>
     </row>
     <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="88"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93" t="s">
+      <c r="A73" s="96"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="79">
+      <c r="D73" s="95">
         <v>23</v>
       </c>
-      <c r="E73" s="93" t="s">
+      <c r="E73" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="93" t="s">
+      <c r="F73" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="79"/>
-      <c r="H73" s="89" t="s">
+      <c r="G73" s="95"/>
+      <c r="H73" s="111" t="s">
         <v>332</v>
       </c>
       <c r="I73" s="31" t="s">
@@ -4737,14 +4832,14 @@
       </c>
     </row>
     <row r="74" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="88"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="90"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="112"/>
       <c r="I74" s="31" t="s">
         <v>81</v>
       </c>
@@ -4759,14 +4854,14 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="88"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="90"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="112"/>
       <c r="I75" s="31" t="s">
         <v>151</v>
       </c>
@@ -4775,14 +4870,14 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="88"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="90"/>
+      <c r="A76" s="96"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="96"/>
+      <c r="H76" s="112"/>
       <c r="I76" s="31" t="s">
         <v>80</v>
       </c>
@@ -4791,14 +4886,14 @@
       </c>
     </row>
     <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="88"/>
-      <c r="B77" s="93"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="90"/>
+      <c r="A77" s="96"/>
+      <c r="B77" s="98"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="112"/>
       <c r="I77" s="1" t="s">
         <v>268</v>
       </c>
@@ -4807,8 +4902,8 @@
       </c>
     </row>
     <row r="78" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="88"/>
-      <c r="B78" s="93" t="s">
+      <c r="A78" s="96"/>
+      <c r="B78" s="98" t="s">
         <v>65</v>
       </c>
       <c r="C78" s="65" t="s">
@@ -4829,8 +4924,8 @@
       </c>
     </row>
     <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="88"/>
-      <c r="B79" s="93"/>
+      <c r="A79" s="96"/>
+      <c r="B79" s="98"/>
       <c r="C79" s="65" t="s">
         <v>67</v>
       </c>
@@ -4850,22 +4945,22 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="88"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93" t="s">
+      <c r="A80" s="96"/>
+      <c r="B80" s="98"/>
+      <c r="C80" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="79">
+      <c r="D80" s="95">
         <v>26</v>
       </c>
-      <c r="E80" s="93" t="s">
+      <c r="E80" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="F80" s="93" t="s">
+      <c r="F80" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="G80" s="79"/>
-      <c r="H80" s="81" t="s">
+      <c r="G80" s="95"/>
+      <c r="H80" s="123" t="s">
         <v>484</v>
       </c>
       <c r="I80" s="1" t="s">
@@ -4882,14 +4977,14 @@
       </c>
     </row>
     <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="88"/>
-      <c r="B81" s="93"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="93"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="82"/>
+      <c r="A81" s="96"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="110"/>
       <c r="I81" s="1" t="s">
         <v>144</v>
       </c>
@@ -4904,8 +4999,8 @@
       </c>
     </row>
     <row r="82" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="88"/>
-      <c r="B82" s="93" t="s">
+      <c r="A82" s="96"/>
+      <c r="B82" s="98" t="s">
         <v>233</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4918,24 +5013,24 @@
       <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="88"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93" t="s">
+      <c r="A83" s="96"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="79">
+      <c r="D83" s="95">
         <v>27</v>
       </c>
-      <c r="E83" s="93" t="s">
+      <c r="E83" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="93" t="s">
+      <c r="F83" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="92" t="s">
+      <c r="G83" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="H83" s="89" t="s">
+      <c r="H83" s="111" t="s">
         <v>478</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -4952,14 +5047,14 @@
       </c>
     </row>
     <row r="84" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="88"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="93"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="87"/>
-      <c r="H84" s="90"/>
+      <c r="A84" s="96"/>
+      <c r="B84" s="98"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="109"/>
+      <c r="H84" s="112"/>
       <c r="I84" s="31" t="s">
         <v>247</v>
       </c>
@@ -4974,14 +5069,14 @@
       </c>
     </row>
     <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="88"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="91"/>
+      <c r="A85" s="96"/>
+      <c r="B85" s="98"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="110"/>
+      <c r="H85" s="113"/>
       <c r="K85" s="1" t="s">
         <v>253</v>
       </c>
@@ -4990,24 +5085,24 @@
       </c>
     </row>
     <row r="86" spans="1:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="88"/>
-      <c r="B86" s="93" t="s">
+      <c r="A86" s="96"/>
+      <c r="B86" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="93" t="s">
+      <c r="C86" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="79">
+      <c r="D86" s="95">
         <v>28</v>
       </c>
-      <c r="E86" s="93" t="s">
+      <c r="E86" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="93" t="s">
+      <c r="F86" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="G86" s="79"/>
-      <c r="H86" s="81" t="s">
+      <c r="G86" s="95"/>
+      <c r="H86" s="123" t="s">
         <v>461</v>
       </c>
       <c r="I86" s="53" t="s">
@@ -5024,80 +5119,80 @@
       </c>
     </row>
     <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="88"/>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="88"/>
-      <c r="H87" s="87"/>
+      <c r="A87" s="96"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="96"/>
+      <c r="H87" s="109"/>
       <c r="I87" s="53"/>
       <c r="L87" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="88"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="93"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="93"/>
-      <c r="F88" s="93"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="87"/>
+      <c r="A88" s="96"/>
+      <c r="B88" s="98"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="96"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="96"/>
+      <c r="H88" s="109"/>
       <c r="I88" s="53"/>
       <c r="L88" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="88"/>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="87"/>
+      <c r="A89" s="96"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="96"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="96"/>
+      <c r="H89" s="109"/>
       <c r="I89" s="53"/>
       <c r="L89" s="59" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="88"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="93"/>
-      <c r="F90" s="93"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="87"/>
+      <c r="A90" s="96"/>
+      <c r="B90" s="98"/>
+      <c r="C90" s="98"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="98"/>
+      <c r="F90" s="98"/>
+      <c r="G90" s="96"/>
+      <c r="H90" s="109"/>
       <c r="I90" s="53"/>
       <c r="L90" s="1" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="88"/>
-      <c r="B91" s="109" t="s">
+      <c r="A91" s="96"/>
+      <c r="B91" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="93" t="s">
+      <c r="C91" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="79">
+      <c r="D91" s="95">
         <v>29</v>
       </c>
-      <c r="E91" s="93" t="s">
+      <c r="E91" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="93" t="s">
+      <c r="F91" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="G91" s="79"/>
-      <c r="H91" s="81" t="s">
+      <c r="G91" s="95"/>
+      <c r="H91" s="123" t="s">
         <v>486</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -5114,14 +5209,14 @@
       </c>
     </row>
     <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="80"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="93"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="82"/>
+      <c r="A92" s="97"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="98"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="98"/>
+      <c r="F92" s="98"/>
+      <c r="G92" s="97"/>
+      <c r="H92" s="110"/>
       <c r="K92" s="1" t="s">
         <v>482</v>
       </c>
@@ -5130,27 +5225,27 @@
       </c>
     </row>
     <row r="93" spans="1:12" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A93" s="106" t="s">
+      <c r="A93" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="106" t="s">
+      <c r="B93" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="106" t="s">
+      <c r="C93" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="D93" s="107">
+      <c r="D93" s="83">
         <v>30</v>
       </c>
-      <c r="E93" s="115" t="s">
+      <c r="E93" s="102" t="s">
         <v>419</v>
       </c>
-      <c r="F93" s="106" t="s">
+      <c r="F93" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="G93" s="107"/>
-      <c r="H93" s="112" t="s">
-        <v>504</v>
+      <c r="G93" s="83"/>
+      <c r="H93" s="85" t="s">
+        <v>502</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>406</v>
@@ -5166,14 +5261,14 @@
       </c>
     </row>
     <row r="94" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A94" s="106"/>
-      <c r="B94" s="106"/>
-      <c r="C94" s="106"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="115"/>
-      <c r="F94" s="106"/>
-      <c r="G94" s="111"/>
-      <c r="H94" s="113"/>
+      <c r="A94" s="99"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="100"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="100"/>
+      <c r="H94" s="101"/>
       <c r="I94" s="2" t="s">
         <v>407</v>
       </c>
@@ -5185,86 +5280,86 @@
       </c>
     </row>
     <row r="95" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="106"/>
-      <c r="B95" s="106"/>
-      <c r="C95" s="106"/>
-      <c r="D95" s="111"/>
-      <c r="E95" s="115"/>
-      <c r="F95" s="106"/>
-      <c r="G95" s="111"/>
-      <c r="H95" s="113"/>
+      <c r="A95" s="99"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="100"/>
+      <c r="E95" s="102"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="100"/>
+      <c r="H95" s="101"/>
       <c r="L95" s="2" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="106"/>
-      <c r="B96" s="106"/>
-      <c r="C96" s="106"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="115"/>
-      <c r="F96" s="106"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="113"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="100"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="100"/>
+      <c r="H96" s="101"/>
       <c r="L96" s="72" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="106"/>
-      <c r="B97" s="106"/>
-      <c r="C97" s="106"/>
-      <c r="D97" s="111"/>
-      <c r="E97" s="115"/>
-      <c r="F97" s="106"/>
-      <c r="G97" s="111"/>
-      <c r="H97" s="113"/>
+      <c r="A97" s="99"/>
+      <c r="B97" s="99"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="100"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="100"/>
+      <c r="H97" s="101"/>
       <c r="L97" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="106"/>
-      <c r="B98" s="106"/>
-      <c r="C98" s="106"/>
-      <c r="D98" s="111"/>
-      <c r="E98" s="115"/>
-      <c r="F98" s="106"/>
-      <c r="G98" s="111"/>
-      <c r="H98" s="113"/>
+      <c r="A98" s="99"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="100"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="100"/>
+      <c r="H98" s="101"/>
       <c r="L98" s="56" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="106"/>
-      <c r="B99" s="106"/>
-      <c r="C99" s="106"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="115"/>
-      <c r="F99" s="106"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="113"/>
+      <c r="A99" s="99"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="100"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="100"/>
+      <c r="H99" s="101"/>
       <c r="L99" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="106"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="106"/>
-      <c r="D100" s="111"/>
-      <c r="E100" s="115"/>
-      <c r="F100" s="106"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="113"/>
+      <c r="A100" s="99"/>
+      <c r="B100" s="99"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="100"/>
+      <c r="H100" s="101"/>
       <c r="L100" s="2" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A101" s="106"/>
-      <c r="B101" s="106"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="99"/>
       <c r="C101" s="58" t="s">
         <v>441</v>
       </c>
@@ -5288,46 +5383,46 @@
       </c>
     </row>
     <row r="102" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="106"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="107" t="s">
+      <c r="A102" s="99"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="D102" s="83">
+        <v>32</v>
+      </c>
+      <c r="E102" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="F102" s="83" t="s">
         <v>505</v>
       </c>
-      <c r="D102" s="107">
-        <v>32</v>
-      </c>
-      <c r="E102" s="107" t="s">
-        <v>506</v>
-      </c>
-      <c r="F102" s="107" t="s">
+      <c r="G102" s="83"/>
+      <c r="H102" s="85" t="s">
+        <v>531</v>
+      </c>
+      <c r="I102" s="77" t="s">
         <v>507</v>
       </c>
-      <c r="G102" s="107"/>
-      <c r="H102" s="112" t="s">
-        <v>509</v>
-      </c>
-      <c r="I102" s="77" t="s">
-        <v>510</v>
-      </c>
       <c r="J102" s="77" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K102" s="77" t="s">
         <v>191</v>
       </c>
       <c r="L102" s="77" t="s">
-        <v>220</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
-      <c r="B103" s="106"/>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="108"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="108"/>
-      <c r="H103" s="121"/>
+      <c r="A103" s="99"/>
+      <c r="B103" s="99"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="84"/>
+      <c r="G103" s="84"/>
+      <c r="H103" s="86"/>
       <c r="K103" s="77" t="s">
         <v>221</v>
       </c>
@@ -5336,23 +5431,23 @@
       </c>
     </row>
     <row r="104" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="106"/>
-      <c r="B104" s="106"/>
-      <c r="C104" s="107" t="s">
+      <c r="A104" s="99"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="107">
+      <c r="D104" s="83">
         <v>33</v>
       </c>
-      <c r="E104" s="107" t="s">
+      <c r="E104" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="F104" s="107" t="s">
+      <c r="F104" s="83" t="s">
         <v>427</v>
       </c>
-      <c r="G104" s="107"/>
-      <c r="H104" s="112" t="s">
-        <v>508</v>
+      <c r="G104" s="83"/>
+      <c r="H104" s="85" t="s">
+        <v>506</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>400</v>
@@ -5368,14 +5463,14 @@
       </c>
     </row>
     <row r="105" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="106"/>
-      <c r="B105" s="106"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="108"/>
-      <c r="H105" s="114"/>
+      <c r="A105" s="99"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="84"/>
+      <c r="F105" s="84"/>
+      <c r="G105" s="84"/>
+      <c r="H105" s="91"/>
       <c r="K105" s="2" t="s">
         <v>430</v>
       </c>
@@ -5384,23 +5479,23 @@
       </c>
     </row>
     <row r="106" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="106"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="107" t="s">
+      <c r="A106" s="99"/>
+      <c r="B106" s="99"/>
+      <c r="C106" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D106" s="107">
+      <c r="D106" s="83">
         <v>34</v>
       </c>
-      <c r="E106" s="107" t="s">
+      <c r="E106" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="107" t="s">
+      <c r="F106" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="G106" s="107"/>
-      <c r="H106" s="112" t="s">
-        <v>503</v>
+      <c r="G106" s="83"/>
+      <c r="H106" s="85" t="s">
+        <v>501</v>
       </c>
       <c r="I106" s="74" t="s">
         <v>400</v>
@@ -5416,14 +5511,14 @@
       </c>
     </row>
     <row r="107" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="106"/>
-      <c r="B107" s="106"/>
-      <c r="C107" s="108"/>
-      <c r="D107" s="108"/>
-      <c r="E107" s="108"/>
-      <c r="F107" s="108"/>
-      <c r="G107" s="108"/>
-      <c r="H107" s="114"/>
+      <c r="A107" s="99"/>
+      <c r="B107" s="99"/>
+      <c r="C107" s="84"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="84"/>
+      <c r="F107" s="84"/>
+      <c r="G107" s="84"/>
+      <c r="H107" s="91"/>
       <c r="I107" s="73"/>
       <c r="J107" s="73"/>
       <c r="K107" s="56" t="s">
@@ -5434,26 +5529,26 @@
       </c>
     </row>
     <row r="108" spans="1:12" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="104" t="s">
+      <c r="A108" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B108" s="104" t="s">
+      <c r="B108" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="105" t="s">
+      <c r="C108" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="119">
+      <c r="D108" s="92">
         <v>35</v>
       </c>
-      <c r="E108" s="104" t="s">
+      <c r="E108" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="F108" s="104" t="s">
+      <c r="F108" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="G108" s="83"/>
-      <c r="H108" s="81" t="s">
+      <c r="G108" s="87"/>
+      <c r="H108" s="123" t="s">
         <v>489</v>
       </c>
       <c r="I108" s="1" t="s">
@@ -5470,14 +5565,14 @@
       </c>
     </row>
     <row r="109" spans="1:12" s="65" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="104"/>
-      <c r="B109" s="104"/>
-      <c r="C109" s="105"/>
-      <c r="D109" s="120"/>
-      <c r="E109" s="104"/>
-      <c r="F109" s="104"/>
-      <c r="G109" s="84"/>
-      <c r="H109" s="86"/>
+      <c r="A109" s="93"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="106"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="93"/>
+      <c r="F109" s="93"/>
+      <c r="G109" s="124"/>
+      <c r="H109" s="125"/>
       <c r="I109" s="68" t="s">
         <v>491</v>
       </c>
@@ -5492,14 +5587,14 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="104"/>
-      <c r="B110" s="104"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="120"/>
-      <c r="E110" s="104"/>
-      <c r="F110" s="104"/>
-      <c r="G110" s="84"/>
-      <c r="H110" s="87"/>
+      <c r="A110" s="93"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="94"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="93"/>
+      <c r="G110" s="124"/>
+      <c r="H110" s="109"/>
       <c r="I110" s="68" t="s">
         <v>443</v>
       </c>
@@ -5514,165 +5609,165 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="104"/>
-      <c r="B111" s="104"/>
-      <c r="C111" s="105"/>
-      <c r="D111" s="120"/>
-      <c r="E111" s="104"/>
-      <c r="F111" s="104"/>
-      <c r="G111" s="84"/>
-      <c r="H111" s="87"/>
+      <c r="A111" s="93"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="93"/>
+      <c r="F111" s="93"/>
+      <c r="G111" s="124"/>
+      <c r="H111" s="109"/>
       <c r="L111" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="104"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="105"/>
-      <c r="D112" s="120"/>
-      <c r="E112" s="104"/>
-      <c r="F112" s="104"/>
-      <c r="G112" s="84"/>
-      <c r="H112" s="87"/>
+      <c r="A112" s="93"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="106"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="93"/>
+      <c r="F112" s="93"/>
+      <c r="G112" s="124"/>
+      <c r="H112" s="109"/>
       <c r="L112" s="3" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="104"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="105"/>
-      <c r="D113" s="120"/>
-      <c r="E113" s="104"/>
-      <c r="F113" s="104"/>
-      <c r="G113" s="84"/>
-      <c r="H113" s="87"/>
+      <c r="A113" s="93"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="124"/>
+      <c r="H113" s="109"/>
       <c r="L113" s="3" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="104"/>
-      <c r="B114" s="104"/>
-      <c r="C114" s="105"/>
-      <c r="D114" s="120"/>
-      <c r="E114" s="104"/>
-      <c r="F114" s="104"/>
-      <c r="G114" s="84"/>
-      <c r="H114" s="87"/>
+      <c r="A114" s="93"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="106"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="93"/>
+      <c r="F114" s="93"/>
+      <c r="G114" s="124"/>
+      <c r="H114" s="109"/>
       <c r="L114" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="104"/>
-      <c r="B115" s="104"/>
-      <c r="C115" s="105"/>
-      <c r="D115" s="120"/>
-      <c r="E115" s="104"/>
-      <c r="F115" s="104"/>
-      <c r="G115" s="84"/>
-      <c r="H115" s="87"/>
+      <c r="A115" s="93"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="106"/>
+      <c r="D115" s="94"/>
+      <c r="E115" s="93"/>
+      <c r="F115" s="93"/>
+      <c r="G115" s="124"/>
+      <c r="H115" s="109"/>
       <c r="L115" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="104"/>
-      <c r="B116" s="104"/>
-      <c r="C116" s="105"/>
-      <c r="D116" s="120"/>
-      <c r="E116" s="104"/>
-      <c r="F116" s="104"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="87"/>
+      <c r="A116" s="93"/>
+      <c r="B116" s="93"/>
+      <c r="C116" s="106"/>
+      <c r="D116" s="94"/>
+      <c r="E116" s="93"/>
+      <c r="F116" s="93"/>
+      <c r="G116" s="124"/>
+      <c r="H116" s="109"/>
       <c r="L116" s="3" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="104"/>
-      <c r="B117" s="104"/>
-      <c r="C117" s="105"/>
-      <c r="D117" s="120"/>
-      <c r="E117" s="104"/>
-      <c r="F117" s="104"/>
-      <c r="G117" s="84"/>
-      <c r="H117" s="87"/>
+      <c r="A117" s="93"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="106"/>
+      <c r="D117" s="94"/>
+      <c r="E117" s="93"/>
+      <c r="F117" s="93"/>
+      <c r="G117" s="124"/>
+      <c r="H117" s="109"/>
       <c r="L117" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="104"/>
-      <c r="B118" s="104"/>
-      <c r="C118" s="105"/>
-      <c r="D118" s="120"/>
-      <c r="E118" s="104"/>
-      <c r="F118" s="104"/>
-      <c r="G118" s="84"/>
-      <c r="H118" s="87"/>
+      <c r="A118" s="93"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="106"/>
+      <c r="D118" s="94"/>
+      <c r="E118" s="93"/>
+      <c r="F118" s="93"/>
+      <c r="G118" s="124"/>
+      <c r="H118" s="109"/>
       <c r="L118" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="104"/>
-      <c r="B119" s="104"/>
-      <c r="C119" s="105"/>
-      <c r="D119" s="120"/>
-      <c r="E119" s="104"/>
-      <c r="F119" s="104"/>
-      <c r="G119" s="84"/>
-      <c r="H119" s="87"/>
+      <c r="A119" s="93"/>
+      <c r="B119" s="93"/>
+      <c r="C119" s="106"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="93"/>
+      <c r="F119" s="93"/>
+      <c r="G119" s="124"/>
+      <c r="H119" s="109"/>
       <c r="L119" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="104"/>
-      <c r="B120" s="104"/>
-      <c r="C120" s="105"/>
-      <c r="D120" s="120"/>
-      <c r="E120" s="104"/>
-      <c r="F120" s="104"/>
-      <c r="G120" s="84"/>
-      <c r="H120" s="87"/>
+      <c r="A120" s="93"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="106"/>
+      <c r="D120" s="94"/>
+      <c r="E120" s="93"/>
+      <c r="F120" s="93"/>
+      <c r="G120" s="124"/>
+      <c r="H120" s="109"/>
       <c r="L120" s="68" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="104"/>
-      <c r="B121" s="104"/>
-      <c r="C121" s="105"/>
-      <c r="D121" s="118"/>
-      <c r="E121" s="104"/>
-      <c r="F121" s="104"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="82"/>
+      <c r="A121" s="93"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="106"/>
+      <c r="D121" s="90"/>
+      <c r="E121" s="93"/>
+      <c r="F121" s="93"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="110"/>
       <c r="L121" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="104"/>
-      <c r="B122" s="104"/>
-      <c r="C122" s="83" t="s">
+      <c r="A122" s="93"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D122" s="83">
+      <c r="D122" s="87">
         <v>36</v>
       </c>
-      <c r="E122" s="83" t="s">
+      <c r="E122" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F122" s="83" t="s">
+      <c r="F122" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="G122" s="83"/>
-      <c r="H122" s="117" t="s">
+      <c r="G122" s="87"/>
+      <c r="H122" s="89" t="s">
         <v>493</v>
       </c>
       <c r="I122" s="57" t="s">
@@ -5689,14 +5784,14 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="104"/>
-      <c r="B123" s="104"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="118"/>
+      <c r="A123" s="93"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="88"/>
+      <c r="D123" s="88"/>
+      <c r="E123" s="88"/>
+      <c r="F123" s="88"/>
+      <c r="G123" s="88"/>
+      <c r="H123" s="90"/>
       <c r="K123" s="55" t="s">
         <v>430</v>
       </c>
@@ -5705,23 +5800,23 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="104"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="104" t="s">
+      <c r="A124" s="93"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="83">
+      <c r="D124" s="87">
         <v>37</v>
       </c>
-      <c r="E124" s="104" t="s">
+      <c r="E124" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F124" s="104" t="s">
+      <c r="F124" s="93" t="s">
         <v>434</v>
       </c>
-      <c r="G124" s="83"/>
-      <c r="H124" s="117" t="s">
-        <v>494</v>
+      <c r="G124" s="87"/>
+      <c r="H124" s="89" t="s">
+        <v>532</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>401</v>
@@ -5737,14 +5832,14 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="104"/>
-      <c r="B125" s="104"/>
-      <c r="C125" s="104"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="104"/>
-      <c r="F125" s="104"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="118"/>
+      <c r="A125" s="93"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="88"/>
+      <c r="E125" s="93"/>
+      <c r="F125" s="93"/>
+      <c r="G125" s="88"/>
+      <c r="H125" s="90"/>
       <c r="K125" s="55" t="s">
         <v>430</v>
       </c>
@@ -5753,30 +5848,30 @@
       </c>
     </row>
     <row r="126" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="83" t="s">
+      <c r="A126" s="87" t="s">
         <v>391</v>
       </c>
-      <c r="B126" s="119" t="s">
+      <c r="B126" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="C126" s="83" t="s">
+      <c r="C126" s="87" t="s">
         <v>437</v>
       </c>
-      <c r="D126" s="83">
+      <c r="D126" s="87">
         <v>38</v>
       </c>
-      <c r="E126" s="83" t="s">
+      <c r="E126" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="F126" s="83" t="s">
+      <c r="F126" s="87" t="s">
         <v>394</v>
       </c>
-      <c r="G126" s="83"/>
-      <c r="H126" s="117" t="s">
-        <v>495</v>
+      <c r="G126" s="87"/>
+      <c r="H126" s="89" t="s">
+        <v>520</v>
       </c>
       <c r="I126" s="57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J126" s="57" t="s">
         <v>438</v>
@@ -5789,16 +5884,16 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="85"/>
-      <c r="B127" s="118"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="85"/>
-      <c r="E127" s="85"/>
-      <c r="F127" s="85"/>
-      <c r="G127" s="85"/>
-      <c r="H127" s="118"/>
+      <c r="A127" s="88"/>
+      <c r="B127" s="90"/>
+      <c r="C127" s="88"/>
+      <c r="D127" s="88"/>
+      <c r="E127" s="88"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="88"/>
+      <c r="H127" s="90"/>
       <c r="I127" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>439</v>
@@ -5810,8 +5905,280 @@
         <v>431</v>
       </c>
     </row>
+    <row r="128" spans="1:12" s="81" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C128" s="81" t="s">
+        <v>514</v>
+      </c>
+      <c r="D128" s="44">
+        <v>39</v>
+      </c>
+      <c r="E128" s="81" t="s">
+        <v>514</v>
+      </c>
+      <c r="F128" s="79" t="s">
+        <v>515</v>
+      </c>
+      <c r="G128" s="79"/>
+      <c r="H128" s="126" t="s">
+        <v>521</v>
+      </c>
+      <c r="I128" s="81" t="s">
+        <v>524</v>
+      </c>
+      <c r="J128" s="81" t="s">
+        <v>525</v>
+      </c>
+      <c r="K128" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="L128" s="80" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A129" s="82" t="s">
+        <v>511</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C129" s="81" t="s">
+        <v>514</v>
+      </c>
+      <c r="D129" s="44">
+        <v>40</v>
+      </c>
+      <c r="E129" s="81" t="s">
+        <v>514</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="H129" s="46" t="s">
+        <v>522</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="K129" s="80" t="s">
+        <v>527</v>
+      </c>
+      <c r="L129" s="80" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="82" t="s">
+        <v>511</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D130" s="3">
+        <v>41</v>
+      </c>
+      <c r="E130" s="81" t="s">
+        <v>519</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H130" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="L130" s="81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K131" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="182">
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="G108:G121"/>
+    <mergeCell ref="H108:H121"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="A3:A92"/>
+    <mergeCell ref="G86:G90"/>
+    <mergeCell ref="H86:H90"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="G48:G54"/>
+    <mergeCell ref="H48:H54"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F10:F19"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H73:H77"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="H10:H19"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="A108:A125"/>
+    <mergeCell ref="B108:B125"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="C108:C121"/>
+    <mergeCell ref="E108:E121"/>
+    <mergeCell ref="F108:F121"/>
+    <mergeCell ref="F86:F90"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E86:E90"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F93:F100"/>
+    <mergeCell ref="B93:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C54"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="G93:G100"/>
+    <mergeCell ref="H93:H100"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E93:E100"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D108:D121"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B36:B56"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="F48:F54"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="E48:E54"/>
     <mergeCell ref="F102:F103"/>
     <mergeCell ref="G102:G103"/>
     <mergeCell ref="H102:H103"/>
@@ -5836,164 +6203,6 @@
     <mergeCell ref="G122:G123"/>
     <mergeCell ref="C124:C125"/>
     <mergeCell ref="E124:E125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D108:D121"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B36:B56"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="G93:G100"/>
-    <mergeCell ref="H93:H100"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E93:E100"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="F48:F54"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C54"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="A108:A125"/>
-    <mergeCell ref="B108:B125"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="C108:C121"/>
-    <mergeCell ref="E108:E121"/>
-    <mergeCell ref="F108:F121"/>
-    <mergeCell ref="F86:F90"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E86:E90"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F93:F100"/>
-    <mergeCell ref="B93:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H73:H77"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="H10:H19"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F10:F19"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="G108:G121"/>
-    <mergeCell ref="H108:H121"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="A3:A92"/>
-    <mergeCell ref="G86:G90"/>
-    <mergeCell ref="H86:H90"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="H41:H47"/>
-    <mergeCell ref="G48:G54"/>
-    <mergeCell ref="H48:H54"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G27:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6034,9 +6243,12 @@
     <hyperlink ref="H80" r:id="rId35"/>
     <hyperlink ref="H91" r:id="rId36"/>
     <hyperlink ref="H102" r:id="rId37"/>
+    <hyperlink ref="H128" r:id="rId38"/>
+    <hyperlink ref="H129" r:id="rId39"/>
+    <hyperlink ref="H130" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -6359,10 +6571,10 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="95" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6378,8 +6590,8 @@
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
@@ -6393,8 +6605,8 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
@@ -6408,8 +6620,8 @@
       <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
@@ -6425,8 +6637,8 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
@@ -6439,8 +6651,8 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="80"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
@@ -6454,8 +6666,8 @@
       <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="96" t="s">
         <v>273</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -6471,8 +6683,8 @@
       <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
@@ -6486,8 +6698,8 @@
       <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="52" t="s">
         <v>12</v>
       </c>
@@ -6501,8 +6713,8 @@
       <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="52" t="s">
         <v>359</v>
       </c>
@@ -6516,8 +6728,8 @@
       <c r="O18" s="19"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="79" t="s">
+      <c r="A19" s="96"/>
+      <c r="B19" s="95" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -6532,8 +6744,8 @@
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="52" t="s">
         <v>368</v>
       </c>
@@ -6546,8 +6758,8 @@
       <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="52" t="s">
         <v>369</v>
       </c>
@@ -6560,8 +6772,8 @@
       <c r="S21" s="22"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="1" t="s">
         <v>348</v>
       </c>
@@ -6574,8 +6786,8 @@
       <c r="S22" s="22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="96"/>
+      <c r="B23" s="95" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -6591,8 +6803,8 @@
       <c r="L23" s="78"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="9" t="s">
         <v>181</v>
       </c>
@@ -6606,8 +6818,8 @@
       <c r="L24" s="78"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="9" t="s">
         <v>20</v>
       </c>
@@ -6621,8 +6833,8 @@
       <c r="L25" s="78"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
@@ -6636,8 +6848,8 @@
       <c r="L26" s="78"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="9" t="s">
         <v>21</v>
       </c>
@@ -6651,8 +6863,8 @@
       <c r="L27" s="78"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="24" t="s">
         <v>231</v>
       </c>
@@ -6666,8 +6878,8 @@
       <c r="L28" s="78"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="24" t="s">
         <v>232</v>
       </c>
@@ -6681,8 +6893,8 @@
       <c r="L29" s="78"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="9" t="s">
         <v>145</v>
       </c>
@@ -6696,8 +6908,8 @@
       <c r="L30" s="78"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="9" t="s">
         <v>23</v>
       </c>
@@ -6711,8 +6923,8 @@
       <c r="L31" s="78"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
-      <c r="B32" s="79" t="s">
+      <c r="A32" s="96"/>
+      <c r="B32" s="95" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -6723,8 +6935,8 @@
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="9" t="s">
         <v>67</v>
       </c>
@@ -6733,8 +6945,8 @@
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="9" t="s">
         <v>68</v>
       </c>
@@ -6743,8 +6955,8 @@
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="79" t="s">
+      <c r="A35" s="96"/>
+      <c r="B35" s="95" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6755,8 +6967,8 @@
       <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="9" t="s">
         <v>28</v>
       </c>
@@ -6772,7 +6984,7 @@
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="9" t="s">
         <v>46</v>
       </c>
@@ -6788,7 +7000,7 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="10" t="s">
         <v>148</v>
       </c>
@@ -6797,10 +7009,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="83" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="70" t="s">
@@ -6815,8 +7027,8 @@
       <c r="W39" s="22"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="7" t="s">
         <v>442</v>
       </c>
@@ -6829,8 +7041,8 @@
       <c r="W40" s="22"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="2" t="s">
         <v>35</v>
       </c>
@@ -6843,8 +7055,8 @@
       <c r="W41" s="22"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="111"/>
-      <c r="B42" s="108"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
@@ -6857,10 +7069,10 @@
       <c r="W42" s="22"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="87" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -6875,8 +7087,8 @@
       <c r="W43" s="22"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="124"/>
       <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
@@ -6889,8 +7101,8 @@
       <c r="W44" s="22"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="8" t="s">
         <v>51</v>
       </c>
@@ -6956,17 +7168,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A9:A38"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A9:A38"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7272,7 +7484,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">

--- a/project.xlsx
+++ b/project.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="554">
   <si>
     <t>流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2435,6 +2435,86 @@
   </si>
   <si>
     <t>回傳同13的內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧客登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Accounts/Logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Accounts/EmployeeLogout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Counter/BackToPrepare?Oid=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將cancel復原成prepare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將paid復原成done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Counter/BackToDone?Oid=15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2664,7 +2744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2680,9 +2760,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -2743,304 +2820,220 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3332,2695 +3325,3053 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J101" sqref="J101"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="11.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="44"/>
+    <col min="2" max="2" width="11.625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="37.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="29.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="44" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="44" customWidth="1"/>
+    <col min="10" max="10" width="37.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37" style="44" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107" t="s">
+      <c r="J1" s="82"/>
+      <c r="K1" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="107"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="83" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+    <row r="3" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="95">
+      <c r="D3" s="62">
         <v>1</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="111" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="47" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="113"/>
-      <c r="K4" s="1" t="s">
+    <row r="4" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="61"/>
+      <c r="K4" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="47" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98" t="s">
+    <row r="5" spans="1:12" s="47" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="95">
+      <c r="D5" s="62">
         <v>2</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="111" t="s">
+      <c r="G5" s="62"/>
+      <c r="H5" s="59" t="s">
         <v>497</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="47" t="s">
         <v>499</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="29" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="112"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="31" t="s">
+    <row r="6" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="60"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="47" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="1" t="s">
+    <row r="7" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="60"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="47" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="1" t="s">
+    <row r="8" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="60"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="47" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="1" t="s">
+    <row r="9" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="61"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="47" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98" t="s">
+    <row r="10" spans="1:12" s="47" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="62">
         <v>3</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="111" t="s">
+      <c r="G10" s="62"/>
+      <c r="H10" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="47" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="112"/>
-      <c r="L11" s="49" t="s">
+    <row r="11" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="60"/>
+      <c r="L11" s="47" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="112"/>
-      <c r="L12" s="49" t="s">
+    <row r="12" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="60"/>
+      <c r="L12" s="47" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="112"/>
-      <c r="L13" s="49" t="s">
+    <row r="13" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="60"/>
+      <c r="L13" s="47" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="112"/>
-      <c r="L14" s="49" t="s">
+    <row r="14" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="60"/>
+      <c r="L14" s="47" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="112"/>
-      <c r="L15" s="49" t="s">
+    <row r="15" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="60"/>
+      <c r="L15" s="47" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="112"/>
-      <c r="L16" s="49" t="s">
+    <row r="16" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="60"/>
+      <c r="L16" s="47" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="112"/>
-      <c r="L17" s="49" t="s">
+    <row r="17" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="60"/>
+      <c r="L17" s="47" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="112"/>
-      <c r="L18" s="49" t="s">
+    <row r="18" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="60"/>
+      <c r="L18" s="47" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="5"/>
-      <c r="L19" s="49" t="s">
+    <row r="19" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="84"/>
+      <c r="L19" s="47" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98" t="s">
+    <row r="20" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="62">
         <v>4</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="111" t="s">
+      <c r="G20" s="62"/>
+      <c r="H20" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="47" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="113"/>
-      <c r="K21" s="1" t="s">
+    <row r="21" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="61"/>
+      <c r="K21" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="47" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="1:12" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="47">
         <v>5</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="47" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="1:12" s="47" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="47">
         <v>6</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="L23" s="76" t="s">
+      <c r="L23" s="40" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="95" t="s">
+    <row r="24" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="95">
+      <c r="D24" s="62">
         <v>7</v>
       </c>
-      <c r="E24" s="121" t="s">
+      <c r="E24" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="F24" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="95"/>
-      <c r="H24" s="123" t="s">
+      <c r="G24" s="62"/>
+      <c r="H24" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="26" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="110"/>
-      <c r="K25" s="1" t="s">
+    <row r="25" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="K25" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="47" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="1" t="s">
+    <row r="26" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="47">
         <v>8</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="47" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="98" t="s">
+    <row r="27" spans="1:12" s="47" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="95">
+      <c r="D27" s="62">
         <v>9</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="98" t="s">
+      <c r="F27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="62" t="s">
         <v>339</v>
       </c>
-      <c r="H27" s="123" t="s">
+      <c r="H27" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="K27" s="49" t="s">
+      <c r="K27" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="L27" s="49" t="s">
+      <c r="L27" s="47" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="J28" s="49" t="s">
+    <row r="28" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="J28" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="47" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="96"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="J29" s="49" t="s">
+    <row r="29" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="J29" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="K29" s="49"/>
-    </row>
-    <row r="30" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="J30" s="49" t="s">
+    </row>
+    <row r="30" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="J30" s="47" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="J31" s="49" t="s">
+    <row r="31" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="J31" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="K31" s="49"/>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="95">
+    </row>
+    <row r="32" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="62">
         <v>10</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="F32" s="98" t="s">
+      <c r="F32" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="108" t="s">
+      <c r="G32" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="H32" s="108" t="s">
+      <c r="H32" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-    </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-    </row>
-    <row r="34" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95">
+    </row>
+    <row r="33" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62">
         <v>11</v>
       </c>
-      <c r="E34" s="95" t="s">
+      <c r="E34" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="95" t="s">
+      <c r="F34" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="G34" s="95"/>
-      <c r="H34" s="111" t="s">
+      <c r="G34" s="62"/>
+      <c r="H34" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="J34" s="49" t="s">
+      <c r="J34" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="K34" s="49" t="s">
+      <c r="K34" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="35" t="s">
+      <c r="L34" s="87" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="113"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49" t="s">
+    <row r="35" spans="1:12" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="61"/>
+      <c r="K35" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="L35" s="35" t="s">
+      <c r="L35" s="87" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="98" t="s">
+    <row r="36" spans="1:12" s="47" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="62">
         <v>12</v>
       </c>
-      <c r="E36" s="98" t="s">
+      <c r="E36" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="98" t="s">
+      <c r="F36" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="95"/>
-      <c r="H36" s="123" t="s">
+      <c r="G36" s="62"/>
+      <c r="H36" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="L36" s="54" t="s">
+      <c r="L36" s="47" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="109"/>
-      <c r="L37" s="1" t="s">
+    <row r="37" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="L37" s="47" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="53" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="109"/>
-      <c r="L38" s="54" t="s">
+    <row r="38" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="L38" s="47" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="109"/>
-      <c r="L39" s="1" t="s">
+    <row r="39" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="L39" s="47" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="96"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="110"/>
-      <c r="L40" s="1" t="s">
+    <row r="40" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="L40" s="47" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A41" s="96"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98" t="s">
+    <row r="41" spans="1:12" s="47" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="95">
+      <c r="D41" s="62">
         <v>13</v>
       </c>
-      <c r="E41" s="98" t="s">
+      <c r="E41" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="F41" s="98" t="s">
+      <c r="F41" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="95"/>
-      <c r="H41" s="123" t="s">
+      <c r="G41" s="62"/>
+      <c r="H41" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="L41" s="54" t="s">
+      <c r="L41" s="47" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="109"/>
-      <c r="L42" s="1" t="s">
+    <row r="42" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="L42" s="47" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="96"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="109"/>
-      <c r="L43" s="1" t="s">
+    <row r="43" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="L43" s="47" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="96"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="109"/>
-      <c r="L44" s="1" t="s">
+    <row r="44" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="57"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="L44" s="47" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="109"/>
-      <c r="L45" s="1" t="s">
+    <row r="45" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="57"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="L45" s="47" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="96"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="109"/>
-      <c r="L46" s="55" t="s">
+    <row r="46" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="L46" s="47" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="96"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="110"/>
-      <c r="L47" s="1" t="s">
+    <row r="47" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="57"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="L47" s="47" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="96"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="95">
+    <row r="48" spans="1:12" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="57"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="62">
         <v>14</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="F48" s="98" t="s">
+      <c r="F48" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="95"/>
-      <c r="H48" s="123" t="s">
+      <c r="G48" s="62"/>
+      <c r="H48" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="I48" s="53" t="s">
+      <c r="I48" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="J48" s="53" t="s">
+      <c r="J48" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="L48" s="54" t="s">
+      <c r="L48" s="47" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="96"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="109"/>
-      <c r="L49" s="54" t="s">
+    <row r="49" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="57"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="L49" s="47" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="96"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="109"/>
-      <c r="L50" s="61" t="s">
+    <row r="50" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="L50" s="38" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="96"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="109"/>
-      <c r="L51" s="61" t="s">
+    <row r="51" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="57"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="L51" s="38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="96"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="109"/>
-      <c r="L52" s="54" t="s">
+    <row r="52" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="57"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="L52" s="47" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="96"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="109"/>
-      <c r="L53" s="1" t="s">
+    <row r="53" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="57"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="L53" s="47" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="96"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="110"/>
-      <c r="L54" s="1" t="s">
+    <row r="54" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="57"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="L54" s="47" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="96"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="1" t="s">
+    <row r="55" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="57"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="33"/>
-    </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A56" s="96"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="1" t="s">
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A56" s="57"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="47">
         <v>15</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="H56" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="47" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="96"/>
-      <c r="B57" s="98" t="s">
+    <row r="57" spans="1:12" s="47" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="57"/>
+      <c r="B57" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D57" s="47">
         <v>16</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="G57" s="30"/>
-      <c r="H57" s="50" t="s">
+      <c r="G57" s="48"/>
+      <c r="H57" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="L57" s="33" t="s">
+      <c r="L57" s="25" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="96"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="31" t="s">
+    <row r="58" spans="1:12" s="47" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="57"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="47">
         <v>17</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="32"/>
-      <c r="H58" s="46" t="s">
+      <c r="G58" s="45"/>
+      <c r="H58" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="L58" s="37" t="s">
+      <c r="L58" s="26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="96"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98" t="s">
+    <row r="59" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="95">
+      <c r="D59" s="62">
         <v>18</v>
       </c>
-      <c r="E59" s="103" t="s">
+      <c r="E59" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="104" t="s">
+      <c r="F59" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="115" t="s">
+      <c r="G59" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="H59" s="111" t="s">
+      <c r="H59" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" s="47" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="96"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="1" t="s">
+    <row r="60" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="57"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" s="47" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="96"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="113"/>
-      <c r="K61" s="1" t="s">
+    <row r="61" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="57"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="61"/>
+      <c r="K61" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="L61" s="28" t="s">
+      <c r="L61" s="47" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="96"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="95" t="s">
+    <row r="62" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="57"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="95">
+      <c r="D62" s="62">
         <v>19</v>
       </c>
-      <c r="E62" s="115" t="s">
+      <c r="E62" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="118" t="s">
+      <c r="F62" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="G62" s="115"/>
-      <c r="H62" s="111" t="s">
+      <c r="G62" s="64"/>
+      <c r="H62" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="I62" s="65" t="s">
+      <c r="I62" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="J62" s="65" t="s">
+      <c r="J62" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" s="47" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="96"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="112"/>
-      <c r="K63" s="1" t="s">
+    <row r="63" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="57"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="60"/>
+      <c r="K63" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" s="47" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A64" s="96"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="113"/>
-      <c r="K64" s="1" t="s">
+    <row r="64" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A64" s="57"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="61"/>
+      <c r="K64" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="L64" s="28" t="s">
+      <c r="L64" s="47" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="96"/>
-      <c r="B65" s="98"/>
-      <c r="C65" s="98" t="s">
+    <row r="65" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="57"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="95">
+      <c r="D65" s="62">
         <v>20</v>
       </c>
-      <c r="E65" s="98" t="s">
+      <c r="E65" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="98" t="s">
+      <c r="F65" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="114" t="s">
+      <c r="G65" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="H65" s="111" t="s">
+      <c r="H65" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" s="47" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="96"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="1" t="s">
+    <row r="66" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="47" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="96"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="1" t="s">
+    <row r="67" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="57"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="K67" s="65" t="s">
+      <c r="K67" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="L67" s="65" t="s">
+      <c r="L67" s="47" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="96"/>
-      <c r="B68" s="98"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="112"/>
-      <c r="I68" s="1" t="s">
+    <row r="68" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="57"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="K68" s="65" t="s">
+      <c r="K68" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="L68" s="65" t="s">
+      <c r="L68" s="47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="96"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="98"/>
-      <c r="F69" s="98"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="112"/>
-      <c r="I69" s="1" t="s">
+    <row r="69" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="57"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="96"/>
-      <c r="B70" s="98"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="98"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="113"/>
-      <c r="I70" s="1" t="s">
+    <row r="70" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="57"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="47" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="96"/>
-      <c r="B71" s="98"/>
-      <c r="C71" s="98" t="s">
+    <row r="71" spans="1:12" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="57"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="43">
+      <c r="D71" s="47">
         <v>21</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="F71" s="98" t="s">
+      <c r="F71" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="G71" s="95"/>
-      <c r="H71" s="48" t="s">
+      <c r="G71" s="62"/>
+      <c r="H71" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="L71" s="29" t="s">
+      <c r="L71" s="47" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A72" s="96"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="43">
+    <row r="72" spans="1:12" s="47" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A72" s="57"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="47">
         <v>22</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E72" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="98"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="48" t="s">
+      <c r="F72" s="63"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" s="47" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="96"/>
-      <c r="B73" s="98"/>
-      <c r="C73" s="98" t="s">
+    <row r="73" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="57"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="95">
+      <c r="D73" s="62">
         <v>23</v>
       </c>
-      <c r="E73" s="98" t="s">
+      <c r="E73" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="98" t="s">
+      <c r="F73" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="95"/>
-      <c r="H73" s="111" t="s">
+      <c r="G73" s="62"/>
+      <c r="H73" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="I73" s="31" t="s">
+      <c r="I73" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="J73" s="31" t="s">
+      <c r="J73" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="K73" s="31" t="s">
+      <c r="K73" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" s="47" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="96"/>
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="112"/>
-      <c r="I74" s="31" t="s">
+    <row r="74" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="57"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J74" s="31" t="s">
+      <c r="J74" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="K74" s="31" t="s">
+      <c r="K74" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="L74" s="31" t="s">
+      <c r="L74" s="47" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="96"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="112"/>
-      <c r="I75" s="31" t="s">
+    <row r="75" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="57"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="J75" s="31" t="s">
+      <c r="J75" s="47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="96"/>
-      <c r="B76" s="98"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="112"/>
-      <c r="I76" s="31" t="s">
+    <row r="76" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="J76" s="31" t="s">
+      <c r="J76" s="47" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="96"/>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="1" t="s">
+    <row r="77" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="57"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="47" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="96"/>
-      <c r="B78" s="98" t="s">
+    <row r="78" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="57"/>
+      <c r="B78" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="65" t="s">
+      <c r="C78" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="62">
+      <c r="D78" s="45">
         <v>24</v>
       </c>
-      <c r="E78" s="67" t="s">
+      <c r="E78" s="84" t="s">
         <v>483</v>
       </c>
-      <c r="F78" s="65" t="s">
+      <c r="F78" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="G78" s="62"/>
-      <c r="H78" s="63" t="s">
+      <c r="G78" s="45"/>
+      <c r="H78" s="45" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="96"/>
-      <c r="B79" s="98"/>
-      <c r="C79" s="65" t="s">
+    <row r="79" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="57"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D79" s="62">
+      <c r="D79" s="45">
         <v>25</v>
       </c>
-      <c r="E79" s="67" t="s">
+      <c r="E79" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="F79" s="65" t="s">
+      <c r="F79" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="75"/>
-      <c r="H79" s="63" t="s">
+      <c r="G79" s="90"/>
+      <c r="H79" s="45" t="s">
         <v>468</v>
       </c>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="96"/>
-      <c r="B80" s="98"/>
-      <c r="C80" s="98" t="s">
+      <c r="I79" s="84"/>
+    </row>
+    <row r="80" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="57"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="95">
+      <c r="D80" s="62">
         <v>26</v>
       </c>
-      <c r="E80" s="98" t="s">
+      <c r="E80" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F80" s="98" t="s">
+      <c r="F80" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="G80" s="95"/>
-      <c r="H80" s="123" t="s">
+      <c r="G80" s="62"/>
+      <c r="H80" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K80" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="L80" s="47" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="96"/>
-      <c r="B81" s="98"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="98"/>
-      <c r="F81" s="98"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="110"/>
-      <c r="I81" s="1" t="s">
+    <row r="81" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="57"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="L81" s="47" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="96"/>
-      <c r="B82" s="98" t="s">
+    <row r="82" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="57"/>
+      <c r="B82" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="43"/>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="33"/>
-    </row>
-    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="96"/>
-      <c r="B83" s="98"/>
-      <c r="C83" s="98" t="s">
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="57"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="95">
+      <c r="D83" s="62">
         <v>27</v>
       </c>
-      <c r="E83" s="98" t="s">
+      <c r="E83" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="98" t="s">
+      <c r="F83" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="108" t="s">
+      <c r="G83" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="H83" s="111" t="s">
+      <c r="H83" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K83" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="L83" s="31" t="s">
+      <c r="L83" s="47" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="96"/>
-      <c r="B84" s="98"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="96"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="98"/>
-      <c r="G84" s="109"/>
-      <c r="H84" s="112"/>
-      <c r="I84" s="31" t="s">
+    <row r="84" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="57"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="J84" s="31" t="s">
+      <c r="J84" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="K84" s="31" t="s">
+      <c r="K84" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="L84" s="31" t="s">
+      <c r="L84" s="47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="96"/>
-      <c r="B85" s="98"/>
-      <c r="C85" s="98"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="98"/>
-      <c r="G85" s="110"/>
-      <c r="H85" s="113"/>
-      <c r="K85" s="1" t="s">
+    <row r="85" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="57"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="61"/>
+      <c r="K85" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="L85" s="31" t="s">
+      <c r="L85" s="47" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="96"/>
-      <c r="B86" s="98" t="s">
+    <row r="86" spans="1:12" s="47" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="57"/>
+      <c r="B86" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="98" t="s">
+      <c r="C86" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="95">
+      <c r="D86" s="62">
         <v>28</v>
       </c>
-      <c r="E86" s="98" t="s">
+      <c r="E86" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="98" t="s">
+      <c r="F86" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G86" s="95"/>
-      <c r="H86" s="123" t="s">
+      <c r="G86" s="62"/>
+      <c r="H86" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="I86" s="53" t="s">
+      <c r="I86" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K86" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="L86" s="54" t="s">
+      <c r="L86" s="47" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="96"/>
-      <c r="B87" s="98"/>
-      <c r="C87" s="98"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="98"/>
-      <c r="G87" s="96"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="53"/>
-      <c r="L87" s="1" t="s">
+    <row r="87" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="57"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="L87" s="47" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="96"/>
-      <c r="B88" s="98"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="96"/>
-      <c r="E88" s="98"/>
-      <c r="F88" s="98"/>
-      <c r="G88" s="96"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="53"/>
-      <c r="L88" s="1" t="s">
+    <row r="88" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="57"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="L88" s="47" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="96"/>
-      <c r="B89" s="98"/>
-      <c r="C89" s="98"/>
-      <c r="D89" s="96"/>
-      <c r="E89" s="98"/>
-      <c r="F89" s="98"/>
-      <c r="G89" s="96"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="53"/>
-      <c r="L89" s="59" t="s">
+    <row r="89" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="57"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="L89" s="38" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="96"/>
-      <c r="B90" s="98"/>
-      <c r="C90" s="98"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="98"/>
-      <c r="F90" s="98"/>
-      <c r="G90" s="96"/>
-      <c r="H90" s="109"/>
-      <c r="I90" s="53"/>
-      <c r="L90" s="1" t="s">
+    <row r="90" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="57"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
+      <c r="L90" s="47" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="96"/>
-      <c r="B91" s="105" t="s">
+    <row r="91" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="57"/>
+      <c r="B91" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="98" t="s">
+      <c r="C91" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="95">
+      <c r="D91" s="62">
         <v>29</v>
       </c>
-      <c r="E91" s="98" t="s">
+      <c r="E91" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="98" t="s">
+      <c r="F91" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="G91" s="95"/>
-      <c r="H91" s="123" t="s">
+      <c r="G91" s="62"/>
+      <c r="H91" s="52" t="s">
         <v>486</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="K91" s="47" t="s">
         <v>480</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="L91" s="47" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="97"/>
-      <c r="B92" s="105"/>
-      <c r="C92" s="98"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="98"/>
-      <c r="F92" s="98"/>
-      <c r="G92" s="97"/>
-      <c r="H92" s="110"/>
-      <c r="K92" s="1" t="s">
+    <row r="92" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="53"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="K92" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="L92" s="65" t="s">
+      <c r="L92" s="47" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A93" s="99" t="s">
+    <row r="93" spans="1:12" s="43" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A93" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="99" t="s">
+      <c r="B93" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="99" t="s">
+      <c r="C93" s="75" t="s">
         <v>420</v>
       </c>
-      <c r="D93" s="83">
+      <c r="D93" s="91">
         <v>30</v>
       </c>
-      <c r="E93" s="102" t="s">
+      <c r="E93" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="F93" s="99" t="s">
+      <c r="F93" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="G93" s="83"/>
-      <c r="H93" s="85" t="s">
+      <c r="G93" s="91"/>
+      <c r="H93" s="72" t="s">
         <v>502</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="L93" s="71" t="s">
+      <c r="L93" s="43" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A94" s="99"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="102"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="100"/>
-      <c r="H94" s="101"/>
-      <c r="I94" s="2" t="s">
+    <row r="94" spans="1:12" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A94" s="75"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="J94" s="71" t="s">
+      <c r="J94" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L94" s="43" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="99"/>
-      <c r="B95" s="99"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="100"/>
-      <c r="E95" s="102"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="100"/>
-      <c r="H95" s="101"/>
-      <c r="L95" s="2" t="s">
+    <row r="95" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="75"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+      <c r="L95" s="43" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="99"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="102"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="100"/>
-      <c r="H96" s="101"/>
-      <c r="L96" s="72" t="s">
+    <row r="96" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="75"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+      <c r="L96" s="92" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="99"/>
-      <c r="B97" s="99"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="100"/>
-      <c r="E97" s="102"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="100"/>
-      <c r="H97" s="101"/>
-      <c r="L97" s="2" t="s">
+    <row r="97" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="75"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="L97" s="43" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="99"/>
-      <c r="B98" s="99"/>
-      <c r="C98" s="99"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="102"/>
-      <c r="F98" s="99"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="101"/>
-      <c r="L98" s="56" t="s">
+    <row r="98" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="75"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="73"/>
+      <c r="L98" s="43" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="99"/>
-      <c r="B99" s="99"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="100"/>
-      <c r="E99" s="102"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="100"/>
-      <c r="H99" s="101"/>
-      <c r="L99" s="2" t="s">
+    <row r="99" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="L99" s="43" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="99"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="99"/>
-      <c r="G100" s="100"/>
-      <c r="H100" s="101"/>
-      <c r="L100" s="2" t="s">
+    <row r="100" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="75"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="L100" s="43" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A101" s="99"/>
-      <c r="B101" s="99"/>
-      <c r="C101" s="58" t="s">
+    <row r="101" spans="1:12" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A101" s="75"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="93" t="s">
         <v>441</v>
       </c>
-      <c r="D101" s="58">
+      <c r="D101" s="93">
         <v>31</v>
       </c>
-      <c r="E101" s="58" t="s">
+      <c r="E101" s="93" t="s">
         <v>432</v>
       </c>
-      <c r="F101" s="58" t="s">
+      <c r="F101" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="47" t="s">
+      <c r="H101" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="43" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="99"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="83" t="s">
+    <row r="102" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="75"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="91" t="s">
         <v>503</v>
       </c>
-      <c r="D102" s="83">
+      <c r="D102" s="91">
         <v>32</v>
       </c>
-      <c r="E102" s="83" t="s">
+      <c r="E102" s="91" t="s">
         <v>504</v>
       </c>
-      <c r="F102" s="83" t="s">
+      <c r="F102" s="91" t="s">
         <v>505</v>
       </c>
-      <c r="G102" s="83"/>
-      <c r="H102" s="85" t="s">
+      <c r="G102" s="91"/>
+      <c r="H102" s="72" t="s">
         <v>531</v>
       </c>
-      <c r="I102" s="77" t="s">
+      <c r="I102" s="43" t="s">
         <v>507</v>
       </c>
-      <c r="J102" s="77" t="s">
+      <c r="J102" s="43" t="s">
         <v>508</v>
       </c>
-      <c r="K102" s="77" t="s">
+      <c r="K102" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="L102" s="77" t="s">
+      <c r="L102" s="43" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="99"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="84"/>
-      <c r="G103" s="84"/>
-      <c r="H103" s="86"/>
-      <c r="K103" s="77" t="s">
+    <row r="103" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="75"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="79"/>
+      <c r="H103" s="79"/>
+      <c r="K103" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="L103" s="77" t="s">
+      <c r="L103" s="43" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="99"/>
-      <c r="B104" s="99"/>
-      <c r="C104" s="83" t="s">
+    <row r="104" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="75"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="83">
+      <c r="D104" s="91">
         <v>33</v>
       </c>
-      <c r="E104" s="83" t="s">
+      <c r="E104" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="F104" s="83" t="s">
+      <c r="F104" s="91" t="s">
         <v>427</v>
       </c>
-      <c r="G104" s="83"/>
-      <c r="H104" s="85" t="s">
+      <c r="G104" s="91"/>
+      <c r="H104" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="I104" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="J104" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="K104" s="56" t="s">
+      <c r="K104" s="43" t="s">
         <v>428</v>
       </c>
-      <c r="L104" s="56" t="s">
+      <c r="L104" s="43" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="99"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
-      <c r="F105" s="84"/>
-      <c r="G105" s="84"/>
-      <c r="H105" s="91"/>
-      <c r="K105" s="2" t="s">
+    <row r="105" spans="1:12" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="75"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="74"/>
+      <c r="K105" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="L105" s="43" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="99"/>
-      <c r="B106" s="99"/>
-      <c r="C106" s="83" t="s">
+    <row r="106" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="75"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D106" s="83">
+      <c r="D106" s="91">
         <v>34</v>
       </c>
-      <c r="E106" s="83" t="s">
+      <c r="E106" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="83" t="s">
+      <c r="F106" s="91" t="s">
         <v>433</v>
       </c>
-      <c r="G106" s="83"/>
-      <c r="H106" s="85" t="s">
+      <c r="G106" s="91"/>
+      <c r="H106" s="72" t="s">
         <v>501</v>
       </c>
-      <c r="I106" s="74" t="s">
+      <c r="I106" s="94" t="s">
         <v>400</v>
       </c>
-      <c r="J106" s="66" t="s">
+      <c r="J106" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="K106" s="56" t="s">
+      <c r="K106" s="43" t="s">
         <v>428</v>
       </c>
-      <c r="L106" s="56" t="s">
+      <c r="L106" s="43" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="99"/>
-      <c r="B107" s="99"/>
-      <c r="C107" s="84"/>
-      <c r="D107" s="84"/>
-      <c r="E107" s="84"/>
-      <c r="F107" s="84"/>
-      <c r="G107" s="84"/>
-      <c r="H107" s="91"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="73"/>
-      <c r="K107" s="56" t="s">
+    <row r="107" spans="1:12" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="75"/>
+      <c r="B107" s="75"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="95"/>
+      <c r="J107" s="95"/>
+      <c r="K107" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="L107" s="56" t="s">
+      <c r="L107" s="43" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="93" t="s">
+    <row r="108" spans="1:12" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B108" s="93" t="s">
+      <c r="B108" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="106" t="s">
+      <c r="C108" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="92">
+      <c r="D108" s="76">
         <v>35</v>
       </c>
-      <c r="E108" s="93" t="s">
+      <c r="E108" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="F108" s="93" t="s">
+      <c r="F108" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="G108" s="87"/>
-      <c r="H108" s="123" t="s">
+      <c r="G108" s="76"/>
+      <c r="H108" s="52" t="s">
         <v>489</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="I108" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="J108" s="64" t="s">
+      <c r="J108" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="K108" s="1" t="s">
+      <c r="K108" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="L108" s="1" t="s">
+      <c r="L108" s="47" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="65" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="93"/>
-      <c r="B109" s="93"/>
-      <c r="C109" s="106"/>
-      <c r="D109" s="94"/>
-      <c r="E109" s="93"/>
-      <c r="F109" s="93"/>
-      <c r="G109" s="124"/>
-      <c r="H109" s="125"/>
-      <c r="I109" s="68" t="s">
+    <row r="109" spans="1:12" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="67"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="J109" s="69" t="s">
+      <c r="J109" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="K109" s="65" t="s">
+      <c r="K109" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="L109" s="65" t="s">
+      <c r="L109" s="47" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="93"/>
-      <c r="B110" s="93"/>
-      <c r="C110" s="106"/>
-      <c r="D110" s="94"/>
-      <c r="E110" s="93"/>
-      <c r="F110" s="93"/>
-      <c r="G110" s="124"/>
-      <c r="H110" s="109"/>
-      <c r="I110" s="68" t="s">
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="J110" s="68" t="s">
+      <c r="J110" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="K110" s="3" t="s">
+      <c r="K110" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="L110" s="3" t="s">
+      <c r="L110" s="44" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="93"/>
-      <c r="B111" s="93"/>
-      <c r="C111" s="106"/>
-      <c r="D111" s="94"/>
-      <c r="E111" s="93"/>
-      <c r="F111" s="93"/>
-      <c r="G111" s="124"/>
-      <c r="H111" s="109"/>
-      <c r="L111" s="3" t="s">
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="57"/>
+      <c r="L111" s="44" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="93"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="106"/>
-      <c r="D112" s="94"/>
-      <c r="E112" s="93"/>
-      <c r="F112" s="93"/>
-      <c r="G112" s="124"/>
-      <c r="H112" s="109"/>
-      <c r="L112" s="3" t="s">
+      <c r="A112" s="67"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="57"/>
+      <c r="L112" s="44" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="93"/>
-      <c r="B113" s="93"/>
-      <c r="C113" s="106"/>
-      <c r="D113" s="94"/>
-      <c r="E113" s="93"/>
-      <c r="F113" s="93"/>
-      <c r="G113" s="124"/>
-      <c r="H113" s="109"/>
-      <c r="L113" s="3" t="s">
+      <c r="A113" s="67"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="57"/>
+      <c r="L113" s="44" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="93"/>
-      <c r="B114" s="93"/>
-      <c r="C114" s="106"/>
-      <c r="D114" s="94"/>
-      <c r="E114" s="93"/>
-      <c r="F114" s="93"/>
-      <c r="G114" s="124"/>
-      <c r="H114" s="109"/>
-      <c r="L114" s="3" t="s">
+      <c r="A114" s="67"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="57"/>
+      <c r="L114" s="44" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="93"/>
-      <c r="B115" s="93"/>
-      <c r="C115" s="106"/>
-      <c r="D115" s="94"/>
-      <c r="E115" s="93"/>
-      <c r="F115" s="93"/>
-      <c r="G115" s="124"/>
-      <c r="H115" s="109"/>
-      <c r="L115" s="3" t="s">
+      <c r="A115" s="67"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="57"/>
+      <c r="L115" s="44" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="93"/>
-      <c r="B116" s="93"/>
-      <c r="C116" s="106"/>
-      <c r="D116" s="94"/>
-      <c r="E116" s="93"/>
-      <c r="F116" s="93"/>
-      <c r="G116" s="124"/>
-      <c r="H116" s="109"/>
-      <c r="L116" s="3" t="s">
+      <c r="A116" s="67"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="57"/>
+      <c r="L116" s="44" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="93"/>
-      <c r="B117" s="93"/>
-      <c r="C117" s="106"/>
-      <c r="D117" s="94"/>
-      <c r="E117" s="93"/>
-      <c r="F117" s="93"/>
-      <c r="G117" s="124"/>
-      <c r="H117" s="109"/>
-      <c r="L117" s="3" t="s">
+      <c r="A117" s="67"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="57"/>
+      <c r="L117" s="44" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="93"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="106"/>
-      <c r="D118" s="94"/>
-      <c r="E118" s="93"/>
-      <c r="F118" s="93"/>
-      <c r="G118" s="124"/>
-      <c r="H118" s="109"/>
-      <c r="L118" s="3" t="s">
+      <c r="A118" s="67"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="57"/>
+      <c r="L118" s="44" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="93"/>
-      <c r="B119" s="93"/>
-      <c r="C119" s="106"/>
-      <c r="D119" s="94"/>
-      <c r="E119" s="93"/>
-      <c r="F119" s="93"/>
-      <c r="G119" s="124"/>
-      <c r="H119" s="109"/>
-      <c r="L119" s="3" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="67"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="77"/>
+      <c r="H119" s="57"/>
+      <c r="L119" s="44" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="93"/>
-      <c r="B120" s="93"/>
-      <c r="C120" s="106"/>
-      <c r="D120" s="94"/>
-      <c r="E120" s="93"/>
-      <c r="F120" s="93"/>
-      <c r="G120" s="124"/>
-      <c r="H120" s="109"/>
-      <c r="L120" s="68" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="67"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="57"/>
+      <c r="L120" s="44" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="93"/>
-      <c r="B121" s="93"/>
-      <c r="C121" s="106"/>
-      <c r="D121" s="90"/>
-      <c r="E121" s="93"/>
-      <c r="F121" s="93"/>
-      <c r="G121" s="88"/>
-      <c r="H121" s="110"/>
-      <c r="L121" s="3" t="s">
+      <c r="A121" s="67"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="78"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="53"/>
+      <c r="L121" s="44" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="93"/>
-      <c r="B122" s="93"/>
-      <c r="C122" s="87" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="67"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="D122" s="87">
+      <c r="D122" s="76">
         <v>36</v>
       </c>
-      <c r="E122" s="87" t="s">
+      <c r="E122" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="F122" s="87" t="s">
+      <c r="F122" s="76" t="s">
         <v>427</v>
       </c>
-      <c r="G122" s="87"/>
-      <c r="H122" s="89" t="s">
+      <c r="G122" s="76"/>
+      <c r="H122" s="80" t="s">
         <v>493</v>
       </c>
-      <c r="I122" s="57" t="s">
+      <c r="I122" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="J122" s="57" t="s">
+      <c r="J122" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="K122" s="55" t="s">
+      <c r="K122" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="L122" s="55" t="s">
+      <c r="L122" s="47" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="93"/>
-      <c r="B123" s="93"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="88"/>
-      <c r="E123" s="88"/>
-      <c r="F123" s="88"/>
-      <c r="G123" s="88"/>
-      <c r="H123" s="90"/>
-      <c r="K123" s="55" t="s">
+      <c r="A123" s="67"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="78"/>
+      <c r="E123" s="78"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="78"/>
+      <c r="H123" s="78"/>
+      <c r="K123" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="L123" s="55" t="s">
+      <c r="L123" s="47" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="93"/>
-      <c r="B124" s="93"/>
-      <c r="C124" s="93" t="s">
+      <c r="A124" s="67"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="87">
+      <c r="D124" s="76">
         <v>37</v>
       </c>
-      <c r="E124" s="93" t="s">
+      <c r="E124" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="F124" s="93" t="s">
+      <c r="F124" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="G124" s="87"/>
-      <c r="H124" s="89" t="s">
+      <c r="G124" s="76"/>
+      <c r="H124" s="80" t="s">
         <v>532</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="I124" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="J124" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="K124" s="55" t="s">
+      <c r="K124" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="L124" s="55" t="s">
+      <c r="L124" s="47" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="93"/>
-      <c r="B125" s="93"/>
-      <c r="C125" s="93"/>
-      <c r="D125" s="88"/>
-      <c r="E125" s="93"/>
-      <c r="F125" s="93"/>
-      <c r="G125" s="88"/>
-      <c r="H125" s="90"/>
-      <c r="K125" s="55" t="s">
+      <c r="A125" s="67"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="78"/>
+      <c r="H125" s="78"/>
+      <c r="K125" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="L125" s="55" t="s">
+      <c r="L125" s="47" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="87" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="76" t="s">
         <v>391</v>
       </c>
-      <c r="B126" s="92" t="s">
+      <c r="B126" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="C126" s="87" t="s">
+      <c r="C126" s="76" t="s">
         <v>437</v>
       </c>
-      <c r="D126" s="87">
+      <c r="D126" s="76">
         <v>38</v>
       </c>
-      <c r="E126" s="87" t="s">
+      <c r="E126" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="F126" s="87" t="s">
+      <c r="F126" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="G126" s="87"/>
-      <c r="H126" s="89" t="s">
+      <c r="G126" s="76"/>
+      <c r="H126" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="I126" s="57" t="s">
+      <c r="I126" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="J126" s="57" t="s">
+      <c r="J126" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="K126" s="55" t="s">
+      <c r="K126" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="L126" s="55" t="s">
+      <c r="L126" s="47" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="88"/>
-      <c r="B127" s="90"/>
-      <c r="C127" s="88"/>
-      <c r="D127" s="88"/>
-      <c r="E127" s="88"/>
-      <c r="F127" s="88"/>
-      <c r="G127" s="88"/>
-      <c r="H127" s="90"/>
-      <c r="I127" s="3" t="s">
+      <c r="A127" s="78"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="78"/>
+      <c r="H127" s="78"/>
+      <c r="I127" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J127" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="K127" s="55" t="s">
+      <c r="K127" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="L127" s="55" t="s">
+      <c r="L127" s="47" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="81" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="C128" s="81" t="s">
+      <c r="C128" s="44" t="s">
         <v>514</v>
       </c>
       <c r="D128" s="44">
         <v>39</v>
       </c>
-      <c r="E128" s="81" t="s">
+      <c r="E128" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="F128" s="79" t="s">
+      <c r="F128" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="G128" s="79"/>
-      <c r="H128" s="126" t="s">
+      <c r="G128" s="42"/>
+      <c r="H128" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="I128" s="81" t="s">
+      <c r="I128" s="44" t="s">
         <v>524</v>
       </c>
-      <c r="J128" s="81" t="s">
+      <c r="J128" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="K128" s="80" t="s">
+      <c r="K128" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="L128" s="80" t="s">
+      <c r="L128" s="47" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A129" s="82" t="s">
+      <c r="A129" s="43" t="s">
         <v>511</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="C129" s="81" t="s">
+      <c r="C129" s="44" t="s">
         <v>514</v>
       </c>
       <c r="D129" s="44">
         <v>40</v>
       </c>
-      <c r="E129" s="81" t="s">
+      <c r="E129" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="H129" s="46" t="s">
+      <c r="H129" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="I129" s="3" t="s">
+      <c r="I129" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="J129" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="K129" s="80" t="s">
+      <c r="K129" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="L129" s="80" t="s">
+      <c r="L129" s="47" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="82" t="s">
+      <c r="A130" s="91" t="s">
         <v>511</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="76" t="s">
         <v>518</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="76" t="s">
         <v>517</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="76">
         <v>41</v>
       </c>
-      <c r="E130" s="81" t="s">
+      <c r="E130" s="76" t="s">
         <v>519</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="76" t="s">
         <v>515</v>
       </c>
-      <c r="H130" s="46" t="s">
+      <c r="H130" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="I130" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="J130" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="K130" s="3" t="s">
+      <c r="K130" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="L130" s="81" t="s">
+      <c r="L130" s="44" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K131" s="3" t="s">
+    <row r="131" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A131" s="79"/>
+      <c r="B131" s="78"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="78"/>
+      <c r="E131" s="78"/>
+      <c r="F131" s="78"/>
+      <c r="H131" s="81" t="s">
+        <v>542</v>
+      </c>
+      <c r="I131" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="J131" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="K131" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="L131" s="3" t="s">
+      <c r="L131" s="44" t="s">
         <v>530</v>
       </c>
     </row>
+    <row r="132" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A132" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="B132" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="C132" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="D132" s="44">
+        <v>42</v>
+      </c>
+      <c r="E132" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="F132" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="H132" s="81" t="s">
+        <v>542</v>
+      </c>
+      <c r="I132" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="J132" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="K132" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="L132" s="44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="B133" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="C133" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="D133" s="44">
+        <v>43</v>
+      </c>
+      <c r="E133" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="F133" s="44" t="s">
+        <v>541</v>
+      </c>
+      <c r="H133" s="81" t="s">
+        <v>543</v>
+      </c>
+      <c r="I133" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="J133" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="K133" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="L133" s="44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="91" t="s">
+        <v>511</v>
+      </c>
+      <c r="B134" s="76" t="s">
+        <v>547</v>
+      </c>
+      <c r="C134" s="76" t="s">
+        <v>548</v>
+      </c>
+      <c r="D134" s="76">
+        <v>44</v>
+      </c>
+      <c r="E134" s="76" t="s">
+        <v>548</v>
+      </c>
+      <c r="F134" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="G134" s="76"/>
+      <c r="H134" s="96" t="s">
+        <v>546</v>
+      </c>
+      <c r="I134" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="J134" s="76" t="s">
+        <v>550</v>
+      </c>
+      <c r="K134" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="L134" s="44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="79"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="78"/>
+      <c r="D135" s="78"/>
+      <c r="E135" s="78"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="78"/>
+      <c r="H135" s="97"/>
+      <c r="I135" s="78"/>
+      <c r="J135" s="78"/>
+      <c r="K135" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="L135" s="44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="91" t="s">
+        <v>511</v>
+      </c>
+      <c r="B136" s="76" t="s">
+        <v>552</v>
+      </c>
+      <c r="C136" s="76" t="s">
+        <v>551</v>
+      </c>
+      <c r="D136" s="76">
+        <v>45</v>
+      </c>
+      <c r="E136" s="76" t="s">
+        <v>551</v>
+      </c>
+      <c r="F136" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="G136" s="76"/>
+      <c r="H136" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="I136" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="J136" s="76" t="s">
+        <v>550</v>
+      </c>
+      <c r="K136" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="L136" s="44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="79"/>
+      <c r="B137" s="78"/>
+      <c r="C137" s="78"/>
+      <c r="D137" s="78"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="78"/>
+      <c r="H137" s="97"/>
+      <c r="I137" s="78"/>
+      <c r="J137" s="78"/>
+      <c r="K137" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="L137" s="44" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="208">
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B36:B56"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="F48:F54"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G93:G100"/>
+    <mergeCell ref="H93:H100"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E93:E100"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C54"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="A108:A125"/>
+    <mergeCell ref="B108:B125"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="C108:C121"/>
+    <mergeCell ref="E108:E121"/>
+    <mergeCell ref="F108:F121"/>
+    <mergeCell ref="F86:F90"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E86:E90"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F93:F100"/>
+    <mergeCell ref="B93:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D108:D121"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H73:H77"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="H10:H19"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F10:F19"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="G91:G92"/>
     <mergeCell ref="H91:H92"/>
     <mergeCell ref="G108:G121"/>
@@ -6045,164 +6396,6 @@
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="G27:G31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F10:F19"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H73:H77"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="H10:H19"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="A108:A125"/>
-    <mergeCell ref="B108:B125"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="C108:C121"/>
-    <mergeCell ref="E108:E121"/>
-    <mergeCell ref="F108:F121"/>
-    <mergeCell ref="F86:F90"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E86:E90"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F93:F100"/>
-    <mergeCell ref="B93:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C54"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="G93:G100"/>
-    <mergeCell ref="H93:H100"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E93:E100"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D108:D121"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B36:B56"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="F48:F54"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E124:E125"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6246,9 +6439,13 @@
     <hyperlink ref="H128" r:id="rId38"/>
     <hyperlink ref="H129" r:id="rId39"/>
     <hyperlink ref="H130" r:id="rId40"/>
+    <hyperlink ref="H131" r:id="rId41"/>
+    <hyperlink ref="H132" r:id="rId42"/>
+    <hyperlink ref="H134" r:id="rId43"/>
+    <hyperlink ref="H136" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -6273,291 +6470,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="D1" s="6">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="D1" s="5">
         <v>43798</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="5">
         <v>43801</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>43802</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>43803</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>43804</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>43805</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>43806</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>43807</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>43808</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <v>43809</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="12">
         <v>43810</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="5">
         <v>43811</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="5">
         <v>43812</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="5">
         <v>43813</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="5">
         <v>43814</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="5">
         <v>43815</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="5">
         <v>43816</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="12">
         <v>43817</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="5">
         <v>43818</v>
       </c>
-      <c r="W1" s="23">
+      <c r="W1" s="22">
         <v>43819</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="5">
         <v>43820</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="5">
         <v>43821</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="5">
         <v>43822</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="5">
         <v>43823</v>
       </c>
-      <c r="AB1" s="13">
+      <c r="AB1" s="12">
         <v>43824</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="5">
         <v>43825</v>
       </c>
-      <c r="AD1" s="14">
+      <c r="AD1" s="13">
         <v>43826</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-    </row>
-    <row r="3" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+    </row>
+    <row r="3" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-    </row>
-    <row r="4" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+    </row>
+    <row r="4" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-    </row>
-    <row r="5" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+    </row>
+    <row r="5" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-    </row>
-    <row r="6" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+    </row>
+    <row r="6" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-    </row>
-    <row r="7" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+    </row>
+    <row r="7" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -6571,614 +6768,614 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="22"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="96" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="52" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="52" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="95" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="52" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="52" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="97"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="95" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="96"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="24" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="96"/>
-      <c r="B32" s="95" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="96"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="95" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="100"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="100"/>
-      <c r="B42" s="84"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="124"/>
-      <c r="B44" s="124"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="124"/>
-      <c r="B45" s="124"/>
-      <c r="C45" s="8" t="s">
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="Z48" s="21"/>
+      <c r="Z48" s="20"/>
     </row>
     <row r="49" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
     </row>
     <row r="50" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AB50" s="21"/>
+      <c r="AB50" s="20"/>
     </row>
     <row r="51" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="AD51" s="21"/>
+      <c r="AD51" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A9:A38"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A9:A38"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7197,263 +7394,263 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A1" s="41">
+      <c r="A1" s="30">
         <v>2</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="41">
+      <c r="C1" s="30">
         <v>299</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="41">
+      <c r="E1" s="30">
         <v>1</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="30">
         <v>4</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="30">
         <v>150</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="30">
         <v>1</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="30">
         <v>5</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="30">
         <v>499</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="30">
         <v>2</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="30">
         <v>6</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="30">
         <v>99</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="30">
         <v>2</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="30">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="30">
         <v>139</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="30">
         <v>4</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="30">
         <v>8</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="30">
         <v>55</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="30">
         <v>4</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="30">
         <v>9</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="30">
         <v>55</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="30">
         <v>2</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="30">
         <v>10</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="30">
         <v>69</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="30" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7474,48 +7671,48 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
+      <c r="A1" s="30"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="30"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="30"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="30" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="30"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="30"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="30"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="30"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="30"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="30"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="30"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="30"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="30"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7701,28 +7898,28 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>117</v>
       </c>
     </row>

--- a/project.xlsx
+++ b/project.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="561">
   <si>
     <t>流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2515,6 +2515,34 @@
   </si>
   <si>
     <t>https://lay-order.rocket-coding.com/Counter/BackToDone?Oid=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廚房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將單品ready復原成prepare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Kitchen/BackToPrepare?Pid=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單品編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2744,7 +2772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2895,149 +2923,152 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3325,13 +3356,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3351,14 +3382,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82" t="s">
+      <c r="J1" s="80"/>
+      <c r="K1" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="82"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -3385,40 +3416,40 @@
       <c r="H2" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="52" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="70">
         <v>1</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="73" t="s">
         <v>327</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="81" t="s">
         <v>325</v>
       </c>
       <c r="J3" s="47" t="s">
@@ -3432,14 +3463,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="61"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="83"/>
       <c r="K4" s="47" t="s">
         <v>278</v>
       </c>
@@ -3448,22 +3479,22 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="47" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="70">
         <v>2</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="59" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="81" t="s">
         <v>497</v>
       </c>
       <c r="I5" s="47" t="s">
@@ -3472,7 +3503,7 @@
       <c r="J5" s="47" t="s">
         <v>499</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="70" t="s">
         <v>509</v>
       </c>
       <c r="L5" s="29" t="s">
@@ -3480,78 +3511,78 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="60"/>
-      <c r="K6" s="57"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="82"/>
+      <c r="K6" s="71"/>
       <c r="L6" s="47" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="60"/>
-      <c r="K7" s="57"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="82"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="47" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="60"/>
-      <c r="K8" s="57"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="82"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="47" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="61"/>
-      <c r="K9" s="53"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="83"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="47" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="47" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="70">
         <v>3</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="59" t="s">
+      <c r="G10" s="70"/>
+      <c r="H10" s="81" t="s">
         <v>396</v>
       </c>
       <c r="I10" s="47" t="s">
@@ -3565,140 +3596,140 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="60"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="82"/>
       <c r="L11" s="47" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="60"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="82"/>
       <c r="L12" s="47" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="60"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="82"/>
       <c r="L13" s="47" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="60"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="82"/>
       <c r="L14" s="47" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="60"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="82"/>
       <c r="L15" s="47" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="60"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="82"/>
       <c r="L16" s="47" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="60"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="82"/>
       <c r="L17" s="47" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="60"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="82"/>
       <c r="L18" s="47" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="84"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="53"/>
       <c r="L19" s="47" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="70">
         <v>4</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="59" t="s">
+      <c r="G20" s="70"/>
+      <c r="H20" s="81" t="s">
         <v>326</v>
       </c>
       <c r="I20" s="47" t="s">
@@ -3715,14 +3746,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="61"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="83"/>
       <c r="K21" s="47" t="s">
         <v>263</v>
       </c>
@@ -3731,8 +3762,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="47" t="s">
         <v>64</v>
       </c>
@@ -3762,8 +3793,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="47" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="47" t="s">
         <v>41</v>
       </c>
@@ -3793,24 +3824,24 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="70">
         <v>7</v>
       </c>
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="52" t="s">
+      <c r="G24" s="70"/>
+      <c r="H24" s="89" t="s">
         <v>320</v>
       </c>
       <c r="I24" s="47" t="s">
@@ -3827,14 +3858,14 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
       <c r="K25" s="47" t="s">
         <v>284</v>
       </c>
@@ -3843,8 +3874,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="47" t="s">
         <v>45</v>
       </c>
@@ -3860,7 +3891,7 @@
       <c r="H26" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="I26" s="84" t="s">
+      <c r="I26" s="53" t="s">
         <v>257</v>
       </c>
       <c r="J26" s="47" t="s">
@@ -3874,24 +3905,24 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="47" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="63" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="70">
         <v>9</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="89" t="s">
         <v>397</v>
       </c>
       <c r="I27" s="47" t="s">
@@ -3908,14 +3939,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
       <c r="J28" s="47" t="s">
         <v>341</v>
       </c>
@@ -3927,89 +3958,89 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
       <c r="J29" s="47" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
       <c r="J30" s="47" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
       <c r="J31" s="47" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="62">
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="70">
         <v>10</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="73" t="s">
         <v>358</v>
       </c>
-      <c r="F32" s="63" t="s">
+      <c r="F32" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="70" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62">
+      <c r="A34" s="71"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70">
         <v>11</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="59" t="s">
+      <c r="G34" s="70"/>
+      <c r="H34" s="81" t="s">
         <v>376</v>
       </c>
       <c r="I34" s="47" t="s">
@@ -4021,45 +4052,45 @@
       <c r="K34" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="87" t="s">
+      <c r="L34" s="54" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="61"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="83"/>
       <c r="K35" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="L35" s="87" t="s">
+      <c r="L35" s="54" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="47" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="63" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="70">
         <v>12</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="52" t="s">
+      <c r="G36" s="70"/>
+      <c r="H36" s="89" t="s">
         <v>399</v>
       </c>
       <c r="I36" s="47" t="s">
@@ -4076,74 +4107,74 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
       <c r="L37" s="47" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
       <c r="L38" s="47" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
       <c r="L39" s="47" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
       <c r="L40" s="47" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="47" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="62">
+      <c r="D41" s="70">
         <v>13</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="73" t="s">
         <v>378</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="62"/>
-      <c r="H41" s="52" t="s">
+      <c r="G41" s="70"/>
+      <c r="H41" s="89" t="s">
         <v>402</v>
       </c>
       <c r="I41" s="47" t="s">
@@ -4160,98 +4191,98 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
       <c r="L42" s="47" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
       <c r="L43" s="47" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
       <c r="L44" s="47" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
       <c r="L45" s="47" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
       <c r="L46" s="47" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
       <c r="L47" s="47" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="62">
+      <c r="A48" s="71"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="70">
         <v>14</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="E48" s="73" t="s">
         <v>404</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="62"/>
-      <c r="H48" s="52" t="s">
+      <c r="G48" s="70"/>
+      <c r="H48" s="89" t="s">
         <v>403</v>
       </c>
       <c r="I48" s="47" t="s">
@@ -4265,86 +4296,86 @@
       </c>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
       <c r="L49" s="47" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
       <c r="L50" s="38" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
       <c r="L51" s="38" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="71"/>
       <c r="L52" s="47" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
       <c r="L53" s="47" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
       <c r="L54" s="47" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="47" t="s">
         <v>17</v>
       </c>
@@ -4354,8 +4385,8 @@
       <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="47" t="s">
         <v>18</v>
       </c>
@@ -4385,8 +4416,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="47" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="63" t="s">
+      <c r="A57" s="71"/>
+      <c r="B57" s="73" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="47" t="s">
@@ -4419,8 +4450,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="47" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="63"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="47" t="s">
         <v>20</v>
       </c>
@@ -4451,24 +4482,24 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63" t="s">
+      <c r="A59" s="71"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="62">
+      <c r="D59" s="70">
         <v>18</v>
       </c>
-      <c r="E59" s="88" t="s">
+      <c r="E59" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="89" t="s">
+      <c r="F59" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="64" t="s">
+      <c r="G59" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="H59" s="59" t="s">
+      <c r="H59" s="81" t="s">
         <v>330</v>
       </c>
       <c r="I59" s="47" t="s">
@@ -4485,14 +4516,14 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="60"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="82"/>
       <c r="I60" s="47" t="s">
         <v>464</v>
       </c>
@@ -4507,14 +4538,14 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="61"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="83"/>
       <c r="K61" s="47" t="s">
         <v>223</v>
       </c>
@@ -4523,22 +4554,22 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="62" t="s">
+      <c r="A62" s="71"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="62">
+      <c r="D62" s="70">
         <v>19</v>
       </c>
-      <c r="E62" s="64" t="s">
+      <c r="E62" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="64" t="s">
+      <c r="F62" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="59" t="s">
+      <c r="G62" s="84"/>
+      <c r="H62" s="81" t="s">
         <v>466</v>
       </c>
       <c r="I62" s="47" t="s">
@@ -4555,14 +4586,14 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="60"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="82"/>
       <c r="K63" s="47" t="s">
         <v>226</v>
       </c>
@@ -4571,14 +4602,14 @@
       </c>
     </row>
     <row r="64" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="61"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="83"/>
       <c r="K64" s="47" t="s">
         <v>228</v>
       </c>
@@ -4587,24 +4618,24 @@
       </c>
     </row>
     <row r="65" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="62">
+      <c r="D65" s="70">
         <v>20</v>
       </c>
-      <c r="E65" s="63" t="s">
+      <c r="E65" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="63" t="s">
+      <c r="F65" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="63" t="s">
+      <c r="G65" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="81" t="s">
         <v>331</v>
       </c>
       <c r="I65" s="47" t="s">
@@ -4621,14 +4652,14 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="60"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="82"/>
       <c r="I66" s="47" t="s">
         <v>201</v>
       </c>
@@ -4643,14 +4674,14 @@
       </c>
     </row>
     <row r="67" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="60"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="82"/>
       <c r="I67" s="47" t="s">
         <v>202</v>
       </c>
@@ -4665,14 +4696,14 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="60"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="82"/>
       <c r="I68" s="47" t="s">
         <v>203</v>
       </c>
@@ -4687,14 +4718,14 @@
       </c>
     </row>
     <row r="69" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="60"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="82"/>
       <c r="I69" s="47" t="s">
         <v>204</v>
       </c>
@@ -4703,14 +4734,14 @@
       </c>
     </row>
     <row r="70" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="61"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="83"/>
       <c r="I70" s="47" t="s">
         <v>80</v>
       </c>
@@ -4719,9 +4750,9 @@
       </c>
     </row>
     <row r="71" spans="1:12" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63" t="s">
+      <c r="A71" s="71"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73" t="s">
         <v>145</v>
       </c>
       <c r="D71" s="47">
@@ -4730,10 +4761,10 @@
       <c r="E71" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="F71" s="63" t="s">
+      <c r="F71" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="G71" s="62"/>
+      <c r="G71" s="70"/>
       <c r="H71" s="34" t="s">
         <v>321</v>
       </c>
@@ -4751,17 +4782,17 @@
       </c>
     </row>
     <row r="72" spans="1:12" s="47" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
       <c r="D72" s="47">
         <v>22</v>
       </c>
       <c r="E72" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="53"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="72"/>
       <c r="H72" s="34" t="s">
         <v>322</v>
       </c>
@@ -4779,22 +4810,22 @@
       </c>
     </row>
     <row r="73" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="63" t="s">
+      <c r="A73" s="71"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="62">
+      <c r="D73" s="70">
         <v>23</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="63" t="s">
+      <c r="F73" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="62"/>
-      <c r="H73" s="59" t="s">
+      <c r="G73" s="70"/>
+      <c r="H73" s="81" t="s">
         <v>332</v>
       </c>
       <c r="I73" s="47" t="s">
@@ -4811,14 +4842,14 @@
       </c>
     </row>
     <row r="74" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="60"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="82"/>
       <c r="I74" s="47" t="s">
         <v>81</v>
       </c>
@@ -4833,14 +4864,14 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="60"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="82"/>
       <c r="I75" s="47" t="s">
         <v>151</v>
       </c>
@@ -4849,14 +4880,14 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="60"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="82"/>
       <c r="I76" s="47" t="s">
         <v>80</v>
       </c>
@@ -4865,14 +4896,14 @@
       </c>
     </row>
     <row r="77" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="60"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="82"/>
       <c r="I77" s="47" t="s">
         <v>268</v>
       </c>
@@ -4881,8 +4912,8 @@
       </c>
     </row>
     <row r="78" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="63" t="s">
+      <c r="A78" s="71"/>
+      <c r="B78" s="73" t="s">
         <v>65</v>
       </c>
       <c r="C78" s="47" t="s">
@@ -4891,7 +4922,7 @@
       <c r="D78" s="45">
         <v>24</v>
       </c>
-      <c r="E78" s="84" t="s">
+      <c r="E78" s="53" t="s">
         <v>483</v>
       </c>
       <c r="F78" s="47" t="s">
@@ -4903,43 +4934,43 @@
       </c>
     </row>
     <row r="79" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="47" t="s">
         <v>67</v>
       </c>
       <c r="D79" s="45">
         <v>25</v>
       </c>
-      <c r="E79" s="84" t="s">
+      <c r="E79" s="53" t="s">
         <v>70</v>
       </c>
       <c r="F79" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="90"/>
+      <c r="G79" s="55"/>
       <c r="H79" s="45" t="s">
         <v>468</v>
       </c>
-      <c r="I79" s="84"/>
+      <c r="I79" s="53"/>
     </row>
     <row r="80" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="63" t="s">
+      <c r="A80" s="71"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="62">
+      <c r="D80" s="70">
         <v>26</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="E80" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F80" s="63" t="s">
+      <c r="F80" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="G80" s="62"/>
-      <c r="H80" s="52" t="s">
+      <c r="G80" s="70"/>
+      <c r="H80" s="89" t="s">
         <v>484</v>
       </c>
       <c r="I80" s="47" t="s">
@@ -4956,14 +4987,14 @@
       </c>
     </row>
     <row r="81" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
+      <c r="A81" s="71"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
       <c r="I81" s="47" t="s">
         <v>144</v>
       </c>
@@ -4978,8 +5009,8 @@
       </c>
     </row>
     <row r="82" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
-      <c r="B82" s="63" t="s">
+      <c r="A82" s="71"/>
+      <c r="B82" s="73" t="s">
         <v>233</v>
       </c>
       <c r="C82" s="47" t="s">
@@ -4991,24 +5022,24 @@
       <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63" t="s">
+      <c r="A83" s="71"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="62">
+      <c r="D83" s="70">
         <v>27</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="63" t="s">
+      <c r="F83" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="62" t="s">
+      <c r="G83" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="H83" s="59" t="s">
+      <c r="H83" s="81" t="s">
         <v>478</v>
       </c>
       <c r="I83" s="47" t="s">
@@ -5025,14 +5056,14 @@
       </c>
     </row>
     <row r="84" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="60"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="82"/>
       <c r="I84" s="47" t="s">
         <v>247</v>
       </c>
@@ -5047,14 +5078,14 @@
       </c>
     </row>
     <row r="85" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="61"/>
+      <c r="A85" s="71"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="83"/>
       <c r="K85" s="47" t="s">
         <v>253</v>
       </c>
@@ -5063,24 +5094,24 @@
       </c>
     </row>
     <row r="86" spans="1:12" s="47" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="63" t="s">
+      <c r="A86" s="71"/>
+      <c r="B86" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C86" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="62">
+      <c r="D86" s="70">
         <v>28</v>
       </c>
-      <c r="E86" s="63" t="s">
+      <c r="E86" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="63" t="s">
+      <c r="F86" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="G86" s="62"/>
-      <c r="H86" s="52" t="s">
+      <c r="G86" s="70"/>
+      <c r="H86" s="89" t="s">
         <v>461</v>
       </c>
       <c r="I86" s="47" t="s">
@@ -5097,76 +5128,76 @@
       </c>
     </row>
     <row r="87" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="57"/>
+      <c r="A87" s="71"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
       <c r="L87" s="47" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
+      <c r="A88" s="71"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
       <c r="L88" s="47" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="63"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
+      <c r="A89" s="71"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
       <c r="L89" s="38" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
       <c r="L90" s="47" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="70" t="s">
+      <c r="A91" s="71"/>
+      <c r="B91" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="62">
+      <c r="D91" s="70">
         <v>29</v>
       </c>
-      <c r="E91" s="63" t="s">
+      <c r="E91" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="63" t="s">
+      <c r="F91" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="G91" s="62"/>
-      <c r="H91" s="52" t="s">
+      <c r="G91" s="70"/>
+      <c r="H91" s="89" t="s">
         <v>486</v>
       </c>
       <c r="I91" s="47" t="s">
@@ -5183,14 +5214,14 @@
       </c>
     </row>
     <row r="92" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
+      <c r="A92" s="72"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
       <c r="K92" s="47" t="s">
         <v>482</v>
       </c>
@@ -5199,26 +5230,26 @@
       </c>
     </row>
     <row r="93" spans="1:12" s="43" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="s">
+      <c r="A93" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="75" t="s">
+      <c r="B93" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="75" t="s">
+      <c r="C93" s="74" t="s">
         <v>420</v>
       </c>
-      <c r="D93" s="91">
+      <c r="D93" s="64">
         <v>30</v>
       </c>
-      <c r="E93" s="75" t="s">
+      <c r="E93" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="F93" s="75" t="s">
+      <c r="F93" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="G93" s="91"/>
-      <c r="H93" s="72" t="s">
+      <c r="G93" s="64"/>
+      <c r="H93" s="67" t="s">
         <v>502</v>
       </c>
       <c r="I93" s="43" t="s">
@@ -5235,14 +5266,14 @@
       </c>
     </row>
     <row r="94" spans="1:12" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A94" s="75"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="75"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
       <c r="I94" s="43" t="s">
         <v>407</v>
       </c>
@@ -5254,96 +5285,96 @@
       </c>
     </row>
     <row r="95" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="75"/>
-      <c r="B95" s="75"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="73"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
       <c r="L95" s="43" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="75"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="L96" s="92" t="s">
+      <c r="A96" s="74"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="L96" s="56" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="75"/>
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="75"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="73"/>
+      <c r="A97" s="74"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
       <c r="L97" s="43" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="75"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="75"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
+      <c r="A98" s="74"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
       <c r="L98" s="43" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="73"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
       <c r="L99" s="43" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="75"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
+      <c r="A100" s="74"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
       <c r="L100" s="43" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:12" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A101" s="75"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="93" t="s">
+      <c r="A101" s="74"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="57" t="s">
         <v>441</v>
       </c>
-      <c r="D101" s="93">
+      <c r="D101" s="57">
         <v>31</v>
       </c>
-      <c r="E101" s="93" t="s">
+      <c r="E101" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="F101" s="93" t="s">
+      <c r="F101" s="57" t="s">
         <v>55</v>
       </c>
       <c r="H101" s="33" t="s">
@@ -5357,22 +5388,22 @@
       </c>
     </row>
     <row r="102" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="75"/>
-      <c r="B102" s="75"/>
-      <c r="C102" s="91" t="s">
+      <c r="A102" s="74"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="D102" s="91">
+      <c r="D102" s="64">
         <v>32</v>
       </c>
-      <c r="E102" s="91" t="s">
+      <c r="E102" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="F102" s="91" t="s">
+      <c r="F102" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="G102" s="91"/>
-      <c r="H102" s="72" t="s">
+      <c r="G102" s="64"/>
+      <c r="H102" s="67" t="s">
         <v>531</v>
       </c>
       <c r="I102" s="43" t="s">
@@ -5389,14 +5420,14 @@
       </c>
     </row>
     <row r="103" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="75"/>
-      <c r="B103" s="75"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="H103" s="79"/>
+      <c r="A103" s="74"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
       <c r="K103" s="43" t="s">
         <v>221</v>
       </c>
@@ -5405,22 +5436,22 @@
       </c>
     </row>
     <row r="104" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="75"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="91" t="s">
+      <c r="A104" s="74"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="91">
+      <c r="D104" s="64">
         <v>33</v>
       </c>
-      <c r="E104" s="91" t="s">
+      <c r="E104" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="F104" s="91" t="s">
+      <c r="F104" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="G104" s="91"/>
-      <c r="H104" s="72" t="s">
+      <c r="G104" s="64"/>
+      <c r="H104" s="67" t="s">
         <v>506</v>
       </c>
       <c r="I104" s="43" t="s">
@@ -5437,14 +5468,14 @@
       </c>
     </row>
     <row r="105" spans="1:12" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="75"/>
-      <c r="B105" s="75"/>
-      <c r="C105" s="79"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
-      <c r="G105" s="79"/>
-      <c r="H105" s="74"/>
+      <c r="A105" s="74"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="68"/>
       <c r="K105" s="43" t="s">
         <v>430</v>
       </c>
@@ -5453,25 +5484,25 @@
       </c>
     </row>
     <row r="106" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="75"/>
-      <c r="B106" s="75"/>
-      <c r="C106" s="91" t="s">
+      <c r="A106" s="74"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D106" s="91">
+      <c r="D106" s="64">
         <v>34</v>
       </c>
-      <c r="E106" s="91" t="s">
+      <c r="E106" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="91" t="s">
+      <c r="F106" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="G106" s="91"/>
-      <c r="H106" s="72" t="s">
+      <c r="G106" s="64"/>
+      <c r="H106" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="I106" s="94" t="s">
+      <c r="I106" s="58" t="s">
         <v>400</v>
       </c>
       <c r="J106" s="43" t="s">
@@ -5485,16 +5516,16 @@
       </c>
     </row>
     <row r="107" spans="1:12" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="75"/>
-      <c r="B107" s="75"/>
-      <c r="C107" s="79"/>
-      <c r="D107" s="79"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="79"/>
-      <c r="G107" s="79"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="95"/>
-      <c r="J107" s="95"/>
+      <c r="A107" s="74"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="68"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
       <c r="K107" s="43" t="s">
         <v>430</v>
       </c>
@@ -5503,26 +5534,26 @@
       </c>
     </row>
     <row r="108" spans="1:12" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="67" t="s">
+      <c r="A108" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B108" s="67" t="s">
+      <c r="B108" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="76">
+      <c r="D108" s="60">
         <v>35</v>
       </c>
-      <c r="E108" s="67" t="s">
+      <c r="E108" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="F108" s="67" t="s">
+      <c r="F108" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="G108" s="76"/>
-      <c r="H108" s="52" t="s">
+      <c r="G108" s="60"/>
+      <c r="H108" s="89" t="s">
         <v>489</v>
       </c>
       <c r="I108" s="47" t="s">
@@ -5539,14 +5570,14 @@
       </c>
     </row>
     <row r="109" spans="1:12" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="56"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="90"/>
       <c r="I109" s="44" t="s">
         <v>491</v>
       </c>
@@ -5561,14 +5592,14 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="57"/>
+      <c r="A110" s="69"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="71"/>
       <c r="I110" s="44" t="s">
         <v>443</v>
       </c>
@@ -5583,165 +5614,165 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="57"/>
+      <c r="A111" s="69"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="71"/>
       <c r="L111" s="44" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="57"/>
+      <c r="A112" s="69"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="79"/>
+      <c r="H112" s="71"/>
       <c r="L112" s="44" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="57"/>
+      <c r="A113" s="69"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="69"/>
+      <c r="D113" s="79"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="79"/>
+      <c r="H113" s="71"/>
       <c r="L113" s="44" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="67"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="57"/>
+      <c r="A114" s="69"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="71"/>
       <c r="L114" s="44" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="77"/>
-      <c r="H115" s="57"/>
+      <c r="A115" s="69"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="71"/>
       <c r="L115" s="44" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="77"/>
-      <c r="H116" s="57"/>
+      <c r="A116" s="69"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="71"/>
       <c r="L116" s="44" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="57"/>
+      <c r="A117" s="69"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="79"/>
+      <c r="H117" s="71"/>
       <c r="L117" s="44" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="77"/>
-      <c r="H118" s="57"/>
+      <c r="A118" s="69"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="79"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="79"/>
+      <c r="H118" s="71"/>
       <c r="L118" s="44" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="77"/>
-      <c r="H119" s="57"/>
+      <c r="A119" s="69"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="79"/>
+      <c r="H119" s="71"/>
       <c r="L119" s="44" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="77"/>
-      <c r="H120" s="57"/>
+      <c r="A120" s="69"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="79"/>
+      <c r="H120" s="71"/>
       <c r="L120" s="44" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="78"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="78"/>
-      <c r="H121" s="53"/>
+      <c r="A121" s="69"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="69"/>
+      <c r="F121" s="69"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="72"/>
       <c r="L121" s="44" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
-      <c r="B122" s="67"/>
-      <c r="C122" s="76" t="s">
+      <c r="A122" s="69"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D122" s="76">
+      <c r="D122" s="60">
         <v>36</v>
       </c>
-      <c r="E122" s="76" t="s">
+      <c r="E122" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F122" s="76" t="s">
+      <c r="F122" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="G122" s="76"/>
-      <c r="H122" s="80" t="s">
+      <c r="G122" s="60"/>
+      <c r="H122" s="66" t="s">
         <v>493</v>
       </c>
       <c r="I122" s="44" t="s">
@@ -5758,14 +5789,14 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
-      <c r="B123" s="67"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="78"/>
+      <c r="A123" s="69"/>
+      <c r="B123" s="69"/>
+      <c r="C123" s="61"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
       <c r="K123" s="47" t="s">
         <v>430</v>
       </c>
@@ -5774,22 +5805,22 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
-      <c r="B124" s="67"/>
-      <c r="C124" s="67" t="s">
+      <c r="A124" s="69"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="76">
+      <c r="D124" s="60">
         <v>37</v>
       </c>
-      <c r="E124" s="67" t="s">
+      <c r="E124" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="F124" s="67" t="s">
+      <c r="F124" s="69" t="s">
         <v>434</v>
       </c>
-      <c r="G124" s="76"/>
-      <c r="H124" s="80" t="s">
+      <c r="G124" s="60"/>
+      <c r="H124" s="66" t="s">
         <v>532</v>
       </c>
       <c r="I124" s="44" t="s">
@@ -5806,14 +5837,14 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
-      <c r="B125" s="67"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="78"/>
-      <c r="H125" s="78"/>
+      <c r="A125" s="69"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="69"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="69"/>
+      <c r="F125" s="69"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
       <c r="K125" s="47" t="s">
         <v>430</v>
       </c>
@@ -5822,26 +5853,26 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="76" t="s">
+      <c r="A126" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="B126" s="76" t="s">
+      <c r="B126" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="C126" s="76" t="s">
+      <c r="C126" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="D126" s="76">
+      <c r="D126" s="60">
         <v>38</v>
       </c>
-      <c r="E126" s="76" t="s">
+      <c r="E126" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="F126" s="76" t="s">
+      <c r="F126" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="G126" s="76"/>
-      <c r="H126" s="80" t="s">
+      <c r="G126" s="60"/>
+      <c r="H126" s="66" t="s">
         <v>520</v>
       </c>
       <c r="I126" s="44" t="s">
@@ -5858,14 +5889,14 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="78"/>
-      <c r="B127" s="78"/>
-      <c r="C127" s="78"/>
-      <c r="D127" s="78"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="78"/>
-      <c r="H127" s="78"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
       <c r="I127" s="44" t="s">
         <v>495</v>
       </c>
@@ -5951,22 +5982,22 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="91" t="s">
+      <c r="A130" s="64" t="s">
         <v>511</v>
       </c>
-      <c r="B130" s="76" t="s">
+      <c r="B130" s="60" t="s">
         <v>518</v>
       </c>
-      <c r="C130" s="76" t="s">
+      <c r="C130" s="60" t="s">
         <v>517</v>
       </c>
-      <c r="D130" s="76">
+      <c r="D130" s="60">
         <v>41</v>
       </c>
-      <c r="E130" s="76" t="s">
+      <c r="E130" s="60" t="s">
         <v>519</v>
       </c>
-      <c r="F130" s="76" t="s">
+      <c r="F130" s="60" t="s">
         <v>515</v>
       </c>
       <c r="H130" s="32" t="s">
@@ -5986,13 +6017,13 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A131" s="79"/>
-      <c r="B131" s="78"/>
-      <c r="C131" s="78"/>
-      <c r="D131" s="78"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="78"/>
-      <c r="H131" s="81" t="s">
+      <c r="A131" s="65"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="H131" s="51" t="s">
         <v>542</v>
       </c>
       <c r="I131" s="44" t="s">
@@ -6027,7 +6058,7 @@
       <c r="F132" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="H132" s="81" t="s">
+      <c r="H132" s="51" t="s">
         <v>542</v>
       </c>
       <c r="I132" s="44" t="s">
@@ -6062,7 +6093,7 @@
       <c r="F133" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="H133" s="81" t="s">
+      <c r="H133" s="51" t="s">
         <v>543</v>
       </c>
       <c r="I133" s="44" t="s">
@@ -6079,32 +6110,32 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="91" t="s">
+      <c r="A134" s="64" t="s">
         <v>511</v>
       </c>
-      <c r="B134" s="76" t="s">
+      <c r="B134" s="60" t="s">
         <v>547</v>
       </c>
-      <c r="C134" s="76" t="s">
+      <c r="C134" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="D134" s="76">
+      <c r="D134" s="60">
         <v>44</v>
       </c>
-      <c r="E134" s="76" t="s">
+      <c r="E134" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="F134" s="76" t="s">
+      <c r="F134" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="G134" s="76"/>
-      <c r="H134" s="96" t="s">
+      <c r="G134" s="60"/>
+      <c r="H134" s="62" t="s">
         <v>546</v>
       </c>
-      <c r="I134" s="76" t="s">
+      <c r="I134" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="J134" s="76" t="s">
+      <c r="J134" s="60" t="s">
         <v>550</v>
       </c>
       <c r="K134" s="44" t="s">
@@ -6115,16 +6146,16 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="79"/>
-      <c r="B135" s="78"/>
-      <c r="C135" s="78"/>
-      <c r="D135" s="78"/>
-      <c r="E135" s="78"/>
-      <c r="F135" s="78"/>
-      <c r="G135" s="78"/>
-      <c r="H135" s="97"/>
-      <c r="I135" s="78"/>
-      <c r="J135" s="78"/>
+      <c r="A135" s="65"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="61"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="63"/>
+      <c r="I135" s="61"/>
+      <c r="J135" s="61"/>
       <c r="K135" s="44" t="s">
         <v>221</v>
       </c>
@@ -6133,32 +6164,32 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="91" t="s">
+      <c r="A136" s="64" t="s">
         <v>511</v>
       </c>
-      <c r="B136" s="76" t="s">
+      <c r="B136" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="C136" s="76" t="s">
+      <c r="C136" s="60" t="s">
         <v>551</v>
       </c>
-      <c r="D136" s="76">
+      <c r="D136" s="60">
         <v>45</v>
       </c>
-      <c r="E136" s="76" t="s">
+      <c r="E136" s="60" t="s">
         <v>551</v>
       </c>
-      <c r="F136" s="76" t="s">
+      <c r="F136" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="G136" s="76"/>
-      <c r="H136" s="96" t="s">
+      <c r="G136" s="60"/>
+      <c r="H136" s="62" t="s">
         <v>553</v>
       </c>
-      <c r="I136" s="76" t="s">
+      <c r="I136" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="J136" s="76" t="s">
+      <c r="J136" s="60" t="s">
         <v>550</v>
       </c>
       <c r="K136" s="44" t="s">
@@ -6169,16 +6200,16 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="79"/>
-      <c r="B137" s="78"/>
-      <c r="C137" s="78"/>
-      <c r="D137" s="78"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="78"/>
-      <c r="G137" s="78"/>
-      <c r="H137" s="97"/>
-      <c r="I137" s="78"/>
-      <c r="J137" s="78"/>
+      <c r="A137" s="65"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="61"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="61"/>
+      <c r="H137" s="63"/>
+      <c r="I137" s="61"/>
+      <c r="J137" s="61"/>
       <c r="K137" s="44" t="s">
         <v>221</v>
       </c>
@@ -6186,85 +6217,173 @@
         <v>195</v>
       </c>
     </row>
+    <row r="138" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="60" t="s">
+        <v>554</v>
+      </c>
+      <c r="B138" s="60" t="s">
+        <v>555</v>
+      </c>
+      <c r="C138" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="D138" s="60">
+        <v>46</v>
+      </c>
+      <c r="E138" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="F138" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="G138" s="60"/>
+      <c r="H138" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="I138" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="J138" s="60" t="s">
+        <v>560</v>
+      </c>
+      <c r="K138" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="L138" s="50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="61"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="61"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="61"/>
+      <c r="G139" s="61"/>
+      <c r="I139" s="61"/>
+      <c r="J139" s="61"/>
+      <c r="K139" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="L139" s="50" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="208">
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B36:B56"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="F48:F54"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G93:G100"/>
-    <mergeCell ref="H93:H100"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E93:E100"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
+  <mergeCells count="217">
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="G108:G121"/>
+    <mergeCell ref="H108:H121"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="A3:A92"/>
+    <mergeCell ref="G86:G90"/>
+    <mergeCell ref="H86:H90"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="G48:G54"/>
+    <mergeCell ref="H48:H54"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="H73:H77"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="H10:H19"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F10:F19"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D108:D121"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C108:C121"/>
+    <mergeCell ref="E108:E121"/>
+    <mergeCell ref="F108:F121"/>
+    <mergeCell ref="F86:F90"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E86:E90"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F93:F100"/>
+    <mergeCell ref="B93:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
     <mergeCell ref="C27:C33"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="C34:C35"/>
@@ -6289,113 +6408,87 @@
     <mergeCell ref="C41:C54"/>
     <mergeCell ref="D41:D47"/>
     <mergeCell ref="D48:D54"/>
+    <mergeCell ref="H93:H100"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E93:E100"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="F48:F54"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G93:G100"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B36:B56"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
     <mergeCell ref="A108:A125"/>
     <mergeCell ref="B108:B125"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="C108:C121"/>
-    <mergeCell ref="E108:E121"/>
-    <mergeCell ref="F108:F121"/>
-    <mergeCell ref="F86:F90"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E86:E90"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F93:F100"/>
-    <mergeCell ref="B93:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D108:D121"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H73:H77"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="H10:H19"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F10:F19"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="G108:G121"/>
-    <mergeCell ref="H108:H121"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="A3:A92"/>
-    <mergeCell ref="G86:G90"/>
-    <mergeCell ref="H86:H90"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="H41:H47"/>
-    <mergeCell ref="G48:G54"/>
-    <mergeCell ref="H48:H54"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6443,9 +6536,10 @@
     <hyperlink ref="H132" r:id="rId42"/>
     <hyperlink ref="H134" r:id="rId43"/>
     <hyperlink ref="H136" r:id="rId44"/>
+    <hyperlink ref="H138" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -6768,10 +6862,10 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="96" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6787,8 +6881,8 @@
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
@@ -6802,8 +6896,8 @@
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -6817,8 +6911,8 @@
       <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
@@ -6834,8 +6928,8 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
@@ -6848,8 +6942,8 @@
       <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
@@ -6863,8 +6957,8 @@
       <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="97" t="s">
         <v>273</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -6880,8 +6974,8 @@
       <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
@@ -6895,8 +6989,8 @@
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="35" t="s">
         <v>12</v>
       </c>
@@ -6910,8 +7004,8 @@
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="35" t="s">
         <v>359</v>
       </c>
@@ -6925,8 +7019,8 @@
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="97"/>
+      <c r="B19" s="96" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -6941,8 +7035,8 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="35" t="s">
         <v>368</v>
       </c>
@@ -6955,8 +7049,8 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="35" t="s">
         <v>369</v>
       </c>
@@ -6969,8 +7063,8 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="1" t="s">
         <v>348</v>
       </c>
@@ -6983,8 +7077,8 @@
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="97"/>
+      <c r="B23" s="96" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -7000,8 +7094,8 @@
       <c r="L23" s="41"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="8" t="s">
         <v>181</v>
       </c>
@@ -7015,8 +7109,8 @@
       <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="8" t="s">
         <v>20</v>
       </c>
@@ -7030,8 +7124,8 @@
       <c r="L25" s="41"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
@@ -7045,8 +7139,8 @@
       <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="8" t="s">
         <v>21</v>
       </c>
@@ -7060,8 +7154,8 @@
       <c r="L27" s="41"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="23" t="s">
         <v>231</v>
       </c>
@@ -7075,8 +7169,8 @@
       <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="23" t="s">
         <v>232</v>
       </c>
@@ -7090,8 +7184,8 @@
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="8" t="s">
         <v>145</v>
       </c>
@@ -7105,8 +7199,8 @@
       <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
@@ -7120,8 +7214,8 @@
       <c r="L31" s="41"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="97"/>
+      <c r="B32" s="96" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -7132,8 +7226,8 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="8" t="s">
         <v>67</v>
       </c>
@@ -7142,8 +7236,8 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="8" t="s">
         <v>68</v>
       </c>
@@ -7152,8 +7246,8 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="97"/>
+      <c r="B35" s="96" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -7164,8 +7258,8 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="8" t="s">
         <v>28</v>
       </c>
@@ -7181,7 +7275,7 @@
       <c r="S36" s="11"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="97"/>
       <c r="B37" s="8" t="s">
         <v>46</v>
       </c>
@@ -7197,7 +7291,7 @@
       <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="97"/>
       <c r="B38" s="9" t="s">
         <v>148</v>
       </c>
@@ -7206,10 +7300,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="93" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="39" t="s">
@@ -7224,8 +7318,8 @@
       <c r="W39" s="21"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="6" t="s">
         <v>442</v>
       </c>
@@ -7238,8 +7332,8 @@
       <c r="W40" s="21"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="2" t="s">
         <v>35</v>
       </c>
@@ -7252,8 +7346,8 @@
       <c r="W41" s="21"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="69"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="95"/>
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
@@ -7266,10 +7360,10 @@
       <c r="W42" s="21"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="91" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -7284,8 +7378,8 @@
       <c r="W43" s="21"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
@@ -7298,8 +7392,8 @@
       <c r="W44" s="21"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="7" t="s">
         <v>51</v>
       </c>
@@ -7365,17 +7459,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A9:A38"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A9:A38"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="570">
   <si>
     <t>流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2543,6 +2543,42 @@
   </si>
   <si>
     <t>單品編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點餐頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得營業時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得營業時間陣列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lay-order.rocket-coding.com/Company/BusinessHours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["09:30","21:00"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2772,7 +2808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2953,98 +2989,110 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3059,15 +3107,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3356,13 +3395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H142" sqref="H142"/>
+      <selection pane="bottomRight" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3382,14 +3421,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="80"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -3430,26 +3469,26 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="68">
         <v>1</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="81" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="69" t="s">
         <v>325</v>
       </c>
       <c r="J3" s="47" t="s">
@@ -3463,14 +3502,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="83"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="71"/>
       <c r="K4" s="47" t="s">
         <v>278</v>
       </c>
@@ -3479,22 +3518,22 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="47" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="68">
         <v>2</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="81" t="s">
+      <c r="G5" s="68"/>
+      <c r="H5" s="69" t="s">
         <v>497</v>
       </c>
       <c r="I5" s="47" t="s">
@@ -3503,7 +3542,7 @@
       <c r="J5" s="47" t="s">
         <v>499</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="68" t="s">
         <v>509</v>
       </c>
       <c r="L5" s="29" t="s">
@@ -3511,78 +3550,78 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="82"/>
-      <c r="K6" s="71"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="70"/>
+      <c r="K6" s="67"/>
       <c r="L6" s="47" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="82"/>
-      <c r="K7" s="71"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="70"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="47" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="82"/>
-      <c r="K8" s="71"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="70"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="47" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="83"/>
-      <c r="K9" s="72"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="71"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="47" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="47" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="68">
         <v>3</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="81" t="s">
+      <c r="G10" s="68"/>
+      <c r="H10" s="69" t="s">
         <v>396</v>
       </c>
       <c r="I10" s="47" t="s">
@@ -3596,140 +3635,140 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="82"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="70"/>
       <c r="L11" s="47" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="82"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="70"/>
       <c r="L12" s="47" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="82"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="70"/>
       <c r="L13" s="47" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="70"/>
       <c r="L14" s="47" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="70"/>
       <c r="L15" s="47" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="82"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="70"/>
       <c r="L16" s="47" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="82"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="70"/>
       <c r="L17" s="47" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="82"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="70"/>
       <c r="L18" s="47" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="83"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="71"/>
       <c r="I19" s="53"/>
       <c r="L19" s="47" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="68">
         <v>4</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="81" t="s">
+      <c r="G20" s="68"/>
+      <c r="H20" s="69" t="s">
         <v>326</v>
       </c>
       <c r="I20" s="47" t="s">
@@ -3746,14 +3785,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="83"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="71"/>
       <c r="K21" s="47" t="s">
         <v>263</v>
       </c>
@@ -3762,8 +3801,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="47" t="s">
         <v>64</v>
       </c>
@@ -3793,8 +3832,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="47" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="47" t="s">
         <v>41</v>
       </c>
@@ -3824,24 +3863,24 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="70" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="68">
         <v>7</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="89" t="s">
+      <c r="G24" s="68"/>
+      <c r="H24" s="63" t="s">
         <v>320</v>
       </c>
       <c r="I24" s="47" t="s">
@@ -3858,14 +3897,14 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
       <c r="K25" s="47" t="s">
         <v>284</v>
       </c>
@@ -3874,8 +3913,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="47" t="s">
         <v>45</v>
       </c>
@@ -3905,24 +3944,24 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="47" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="73" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="68">
         <v>9</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="H27" s="89" t="s">
+      <c r="H27" s="63" t="s">
         <v>397</v>
       </c>
       <c r="I27" s="47" t="s">
@@ -3939,14 +3978,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
       <c r="J28" s="47" t="s">
         <v>341</v>
       </c>
@@ -3958,89 +3997,89 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
       <c r="J29" s="47" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
       <c r="J30" s="47" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
       <c r="J31" s="47" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="70">
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="68">
         <v>10</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="F32" s="73" t="s">
+      <c r="F32" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="H32" s="70" t="s">
+      <c r="H32" s="68" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70">
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68">
         <v>11</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="70" t="s">
+      <c r="F34" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="81" t="s">
+      <c r="G34" s="68"/>
+      <c r="H34" s="69" t="s">
         <v>376</v>
       </c>
       <c r="I34" s="47" t="s">
@@ -4057,14 +4096,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="83"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="71"/>
       <c r="K35" s="47" t="s">
         <v>259</v>
       </c>
@@ -4073,24 +4112,24 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="47" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="73" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="68">
         <v>12</v>
       </c>
-      <c r="E36" s="73" t="s">
+      <c r="E36" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F36" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="89" t="s">
+      <c r="G36" s="68"/>
+      <c r="H36" s="63" t="s">
         <v>399</v>
       </c>
       <c r="I36" s="47" t="s">
@@ -4107,74 +4146,74 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
       <c r="L37" s="47" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
       <c r="L38" s="47" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
       <c r="L39" s="47" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
       <c r="L40" s="47" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="47" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="68">
         <v>13</v>
       </c>
-      <c r="E41" s="73" t="s">
+      <c r="E41" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="89" t="s">
+      <c r="G41" s="68"/>
+      <c r="H41" s="63" t="s">
         <v>402</v>
       </c>
       <c r="I41" s="47" t="s">
@@ -4191,98 +4230,98 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
       <c r="L42" s="47" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
       <c r="L43" s="47" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
       <c r="L44" s="47" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
       <c r="L45" s="47" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
       <c r="L46" s="47" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
       <c r="L47" s="47" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="70">
+      <c r="A48" s="67"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="68">
         <v>14</v>
       </c>
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="F48" s="73" t="s">
+      <c r="F48" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="70"/>
-      <c r="H48" s="89" t="s">
+      <c r="G48" s="68"/>
+      <c r="H48" s="63" t="s">
         <v>403</v>
       </c>
       <c r="I48" s="47" t="s">
@@ -4296,86 +4335,86 @@
       </c>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
       <c r="L49" s="47" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
       <c r="L50" s="38" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
       <c r="L51" s="38" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
       <c r="L52" s="47" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
       <c r="L53" s="47" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
       <c r="L54" s="47" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="73"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="47" t="s">
         <v>17</v>
       </c>
@@ -4385,8 +4424,8 @@
       <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="73"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="47" t="s">
         <v>18</v>
       </c>
@@ -4416,8 +4455,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="47" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="73" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="72" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="47" t="s">
@@ -4450,8 +4489,8 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="47" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="73"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="47" t="s">
         <v>20</v>
       </c>
@@ -4482,24 +4521,24 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="73"/>
-      <c r="C59" s="73" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="70">
+      <c r="D59" s="68">
         <v>18</v>
       </c>
-      <c r="E59" s="76" t="s">
+      <c r="E59" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="77" t="s">
+      <c r="F59" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="84" t="s">
+      <c r="G59" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="H59" s="81" t="s">
+      <c r="H59" s="69" t="s">
         <v>330</v>
       </c>
       <c r="I59" s="47" t="s">
@@ -4516,14 +4555,14 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="82"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="70"/>
       <c r="I60" s="47" t="s">
         <v>464</v>
       </c>
@@ -4538,14 +4577,14 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="83"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="71"/>
       <c r="K61" s="47" t="s">
         <v>223</v>
       </c>
@@ -4554,22 +4593,22 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="70" t="s">
+      <c r="A62" s="67"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="70">
+      <c r="D62" s="68">
         <v>19</v>
       </c>
-      <c r="E62" s="84" t="s">
+      <c r="E62" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="84" t="s">
+      <c r="F62" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="G62" s="84"/>
-      <c r="H62" s="81" t="s">
+      <c r="G62" s="76"/>
+      <c r="H62" s="69" t="s">
         <v>466</v>
       </c>
       <c r="I62" s="47" t="s">
@@ -4586,14 +4625,14 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="73"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="82"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="70"/>
       <c r="K63" s="47" t="s">
         <v>226</v>
       </c>
@@ -4602,14 +4641,14 @@
       </c>
     </row>
     <row r="64" spans="1:12" s="47" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="83"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="71"/>
       <c r="K64" s="47" t="s">
         <v>228</v>
       </c>
@@ -4618,24 +4657,24 @@
       </c>
     </row>
     <row r="65" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="73"/>
-      <c r="C65" s="73" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="70">
+      <c r="D65" s="68">
         <v>20</v>
       </c>
-      <c r="E65" s="73" t="s">
+      <c r="E65" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="73" t="s">
+      <c r="F65" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="73" t="s">
+      <c r="G65" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="H65" s="81" t="s">
+      <c r="H65" s="69" t="s">
         <v>331</v>
       </c>
       <c r="I65" s="47" t="s">
@@ -4652,14 +4691,14 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="82"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="70"/>
       <c r="I66" s="47" t="s">
         <v>201</v>
       </c>
@@ -4674,14 +4713,14 @@
       </c>
     </row>
     <row r="67" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="82"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="70"/>
       <c r="I67" s="47" t="s">
         <v>202</v>
       </c>
@@ -4696,14 +4735,14 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="82"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="70"/>
       <c r="I68" s="47" t="s">
         <v>203</v>
       </c>
@@ -4718,14 +4757,14 @@
       </c>
     </row>
     <row r="69" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="82"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="70"/>
       <c r="I69" s="47" t="s">
         <v>204</v>
       </c>
@@ -4734,14 +4773,14 @@
       </c>
     </row>
     <row r="70" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="73"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="83"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="71"/>
       <c r="I70" s="47" t="s">
         <v>80</v>
       </c>
@@ -4750,9 +4789,9 @@
       </c>
     </row>
     <row r="71" spans="1:12" s="47" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72" t="s">
         <v>145</v>
       </c>
       <c r="D71" s="47">
@@ -4761,10 +4800,10 @@
       <c r="E71" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="F71" s="73" t="s">
+      <c r="F71" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="G71" s="70"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="34" t="s">
         <v>321</v>
       </c>
@@ -4782,17 +4821,17 @@
       </c>
     </row>
     <row r="72" spans="1:12" s="47" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
       <c r="D72" s="47">
         <v>22</v>
       </c>
       <c r="E72" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="73"/>
-      <c r="G72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="64"/>
       <c r="H72" s="34" t="s">
         <v>322</v>
       </c>
@@ -4810,22 +4849,22 @@
       </c>
     </row>
     <row r="73" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="73" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="70">
+      <c r="D73" s="68">
         <v>23</v>
       </c>
-      <c r="E73" s="73" t="s">
+      <c r="E73" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="73" t="s">
+      <c r="F73" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="70"/>
-      <c r="H73" s="81" t="s">
+      <c r="G73" s="68"/>
+      <c r="H73" s="69" t="s">
         <v>332</v>
       </c>
       <c r="I73" s="47" t="s">
@@ -4842,14 +4881,14 @@
       </c>
     </row>
     <row r="74" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="82"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="70"/>
       <c r="I74" s="47" t="s">
         <v>81</v>
       </c>
@@ -4864,14 +4903,14 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="82"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="70"/>
       <c r="I75" s="47" t="s">
         <v>151</v>
       </c>
@@ -4880,14 +4919,14 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="82"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="70"/>
       <c r="I76" s="47" t="s">
         <v>80</v>
       </c>
@@ -4896,14 +4935,14 @@
       </c>
     </row>
     <row r="77" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="82"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="70"/>
       <c r="I77" s="47" t="s">
         <v>268</v>
       </c>
@@ -4912,8 +4951,8 @@
       </c>
     </row>
     <row r="78" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="73" t="s">
+      <c r="A78" s="67"/>
+      <c r="B78" s="72" t="s">
         <v>65</v>
       </c>
       <c r="C78" s="47" t="s">
@@ -4934,8 +4973,8 @@
       </c>
     </row>
     <row r="79" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="73"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="72"/>
       <c r="C79" s="47" t="s">
         <v>67</v>
       </c>
@@ -4955,22 +4994,22 @@
       <c r="I79" s="53"/>
     </row>
     <row r="80" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73" t="s">
+      <c r="A80" s="67"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="70">
+      <c r="D80" s="68">
         <v>26</v>
       </c>
-      <c r="E80" s="73" t="s">
+      <c r="E80" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F80" s="73" t="s">
+      <c r="F80" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="G80" s="70"/>
-      <c r="H80" s="89" t="s">
+      <c r="G80" s="68"/>
+      <c r="H80" s="63" t="s">
         <v>484</v>
       </c>
       <c r="I80" s="47" t="s">
@@ -4987,14 +5026,14 @@
       </c>
     </row>
     <row r="81" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
       <c r="I81" s="47" t="s">
         <v>144</v>
       </c>
@@ -5009,8 +5048,8 @@
       </c>
     </row>
     <row r="82" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="73" t="s">
+      <c r="A82" s="67"/>
+      <c r="B82" s="72" t="s">
         <v>233</v>
       </c>
       <c r="C82" s="47" t="s">
@@ -5022,24 +5061,24 @@
       <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73" t="s">
+      <c r="A83" s="67"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="70">
+      <c r="D83" s="68">
         <v>27</v>
       </c>
-      <c r="E83" s="73" t="s">
+      <c r="E83" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="73" t="s">
+      <c r="F83" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="70" t="s">
+      <c r="G83" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="H83" s="81" t="s">
+      <c r="H83" s="69" t="s">
         <v>478</v>
       </c>
       <c r="I83" s="47" t="s">
@@ -5056,14 +5095,14 @@
       </c>
     </row>
     <row r="84" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="82"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="70"/>
       <c r="I84" s="47" t="s">
         <v>247</v>
       </c>
@@ -5078,14 +5117,14 @@
       </c>
     </row>
     <row r="85" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="83"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="71"/>
       <c r="K85" s="47" t="s">
         <v>253</v>
       </c>
@@ -5094,24 +5133,24 @@
       </c>
     </row>
     <row r="86" spans="1:12" s="47" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
-      <c r="B86" s="73" t="s">
+      <c r="A86" s="67"/>
+      <c r="B86" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="73" t="s">
+      <c r="C86" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="70">
+      <c r="D86" s="68">
         <v>28</v>
       </c>
-      <c r="E86" s="73" t="s">
+      <c r="E86" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="73" t="s">
+      <c r="F86" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G86" s="70"/>
-      <c r="H86" s="89" t="s">
+      <c r="G86" s="68"/>
+      <c r="H86" s="63" t="s">
         <v>461</v>
       </c>
       <c r="I86" s="47" t="s">
@@ -5128,76 +5167,76 @@
       </c>
     </row>
     <row r="87" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
       <c r="L87" s="47" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="71"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
       <c r="L88" s="47" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
       <c r="L89" s="38" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="73"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
       <c r="L90" s="47" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
-      <c r="B91" s="78" t="s">
+      <c r="A91" s="67"/>
+      <c r="B91" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="73" t="s">
+      <c r="C91" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="70">
+      <c r="D91" s="68">
         <v>29</v>
       </c>
-      <c r="E91" s="73" t="s">
+      <c r="E91" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="73" t="s">
+      <c r="F91" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G91" s="70"/>
-      <c r="H91" s="89" t="s">
+      <c r="G91" s="68"/>
+      <c r="H91" s="63" t="s">
         <v>486</v>
       </c>
       <c r="I91" s="47" t="s">
@@ -5214,14 +5253,14 @@
       </c>
     </row>
     <row r="92" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="72"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
       <c r="K92" s="47" t="s">
         <v>482</v>
       </c>
@@ -5230,26 +5269,26 @@
       </c>
     </row>
     <row r="93" spans="1:12" s="43" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A93" s="74" t="s">
+      <c r="A93" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="74" t="s">
+      <c r="B93" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="D93" s="64">
+      <c r="D93" s="81">
         <v>30</v>
       </c>
-      <c r="E93" s="74" t="s">
+      <c r="E93" s="80" t="s">
         <v>419</v>
       </c>
-      <c r="F93" s="74" t="s">
+      <c r="F93" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G93" s="64"/>
-      <c r="H93" s="67" t="s">
+      <c r="G93" s="81"/>
+      <c r="H93" s="85" t="s">
         <v>502</v>
       </c>
       <c r="I93" s="43" t="s">
@@ -5266,14 +5305,14 @@
       </c>
     </row>
     <row r="94" spans="1:12" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="75"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="75"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="86"/>
       <c r="I94" s="43" t="s">
         <v>407</v>
       </c>
@@ -5285,86 +5324,86 @@
       </c>
     </row>
     <row r="95" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="74"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="75"/>
+      <c r="A95" s="80"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="86"/>
       <c r="L95" s="43" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="96" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="74"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="75"/>
+      <c r="A96" s="80"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="86"/>
+      <c r="H96" s="86"/>
       <c r="L96" s="56" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="74"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="75"/>
+      <c r="A97" s="80"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="86"/>
+      <c r="H97" s="86"/>
       <c r="L97" s="43" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="75"/>
-      <c r="H98" s="75"/>
+      <c r="A98" s="80"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="86"/>
+      <c r="H98" s="86"/>
       <c r="L98" s="43" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="74"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75"/>
+      <c r="A99" s="80"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="86"/>
+      <c r="H99" s="86"/>
       <c r="L99" s="43" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="74"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="75"/>
-      <c r="H100" s="75"/>
+      <c r="A100" s="80"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="86"/>
+      <c r="H100" s="86"/>
       <c r="L100" s="43" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:12" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A101" s="74"/>
-      <c r="B101" s="74"/>
+      <c r="A101" s="80"/>
+      <c r="B101" s="80"/>
       <c r="C101" s="57" t="s">
         <v>441</v>
       </c>
@@ -5388,22 +5427,22 @@
       </c>
     </row>
     <row r="102" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="74"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="64" t="s">
+      <c r="A102" s="80"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="81" t="s">
         <v>503</v>
       </c>
-      <c r="D102" s="64">
+      <c r="D102" s="81">
         <v>32</v>
       </c>
-      <c r="E102" s="64" t="s">
+      <c r="E102" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="F102" s="64" t="s">
+      <c r="F102" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="G102" s="64"/>
-      <c r="H102" s="67" t="s">
+      <c r="G102" s="81"/>
+      <c r="H102" s="85" t="s">
         <v>531</v>
       </c>
       <c r="I102" s="43" t="s">
@@ -5420,14 +5459,14 @@
       </c>
     </row>
     <row r="103" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="74"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
+      <c r="A103" s="80"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="82"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="82"/>
       <c r="K103" s="43" t="s">
         <v>221</v>
       </c>
@@ -5436,22 +5475,22 @@
       </c>
     </row>
     <row r="104" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="74"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="64" t="s">
+      <c r="A104" s="80"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="64">
+      <c r="D104" s="81">
         <v>33</v>
       </c>
-      <c r="E104" s="64" t="s">
+      <c r="E104" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="F104" s="64" t="s">
+      <c r="F104" s="81" t="s">
         <v>427</v>
       </c>
-      <c r="G104" s="64"/>
-      <c r="H104" s="67" t="s">
+      <c r="G104" s="81"/>
+      <c r="H104" s="85" t="s">
         <v>506</v>
       </c>
       <c r="I104" s="43" t="s">
@@ -5468,14 +5507,14 @@
       </c>
     </row>
     <row r="105" spans="1:12" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="74"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="68"/>
+      <c r="A105" s="80"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="87"/>
       <c r="K105" s="43" t="s">
         <v>430</v>
       </c>
@@ -5484,22 +5523,22 @@
       </c>
     </row>
     <row r="106" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="74"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="64" t="s">
+      <c r="A106" s="80"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D106" s="64">
+      <c r="D106" s="81">
         <v>34</v>
       </c>
-      <c r="E106" s="64" t="s">
+      <c r="E106" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="64" t="s">
+      <c r="F106" s="81" t="s">
         <v>433</v>
       </c>
-      <c r="G106" s="64"/>
-      <c r="H106" s="67" t="s">
+      <c r="G106" s="81"/>
+      <c r="H106" s="85" t="s">
         <v>501</v>
       </c>
       <c r="I106" s="58" t="s">
@@ -5516,14 +5555,14 @@
       </c>
     </row>
     <row r="107" spans="1:12" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="74"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="68"/>
+      <c r="A107" s="80"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="87"/>
       <c r="I107" s="59"/>
       <c r="J107" s="59"/>
       <c r="K107" s="43" t="s">
@@ -5534,26 +5573,26 @@
       </c>
     </row>
     <row r="108" spans="1:12" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="69" t="s">
+      <c r="A108" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B108" s="69" t="s">
+      <c r="B108" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="69" t="s">
+      <c r="C108" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="60">
+      <c r="D108" s="61">
         <v>35</v>
       </c>
-      <c r="E108" s="69" t="s">
+      <c r="E108" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="F108" s="69" t="s">
+      <c r="F108" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="G108" s="60"/>
-      <c r="H108" s="89" t="s">
+      <c r="G108" s="61"/>
+      <c r="H108" s="63" t="s">
         <v>489</v>
       </c>
       <c r="I108" s="47" t="s">
@@ -5570,14 +5609,14 @@
       </c>
     </row>
     <row r="109" spans="1:12" s="47" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="69"/>
-      <c r="B109" s="69"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="79"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="79"/>
-      <c r="H109" s="90"/>
+      <c r="A109" s="79"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="66"/>
       <c r="I109" s="44" t="s">
         <v>491</v>
       </c>
@@ -5592,14 +5631,14 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="79"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="79"/>
-      <c r="H110" s="71"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="67"/>
       <c r="I110" s="44" t="s">
         <v>443</v>
       </c>
@@ -5614,165 +5653,165 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="69"/>
-      <c r="B111" s="69"/>
-      <c r="C111" s="69"/>
-      <c r="D111" s="79"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="79"/>
-      <c r="H111" s="71"/>
+      <c r="A111" s="79"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="67"/>
       <c r="L111" s="44" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="69"/>
-      <c r="B112" s="69"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="79"/>
-      <c r="H112" s="71"/>
+      <c r="A112" s="79"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="67"/>
       <c r="L112" s="44" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="69"/>
-      <c r="B113" s="69"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="79"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="79"/>
-      <c r="H113" s="71"/>
+      <c r="A113" s="79"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="67"/>
       <c r="L113" s="44" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="69"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="71"/>
+      <c r="A114" s="79"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="79"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="67"/>
       <c r="L114" s="44" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="69"/>
-      <c r="B115" s="69"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="79"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="79"/>
-      <c r="H115" s="71"/>
+      <c r="A115" s="79"/>
+      <c r="B115" s="79"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="67"/>
       <c r="L115" s="44" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="69"/>
-      <c r="B116" s="69"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="79"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="71"/>
+      <c r="A116" s="79"/>
+      <c r="B116" s="79"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="67"/>
       <c r="L116" s="44" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="69"/>
-      <c r="B117" s="69"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="79"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="79"/>
-      <c r="H117" s="71"/>
+      <c r="A117" s="79"/>
+      <c r="B117" s="79"/>
+      <c r="C117" s="79"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="79"/>
+      <c r="G117" s="65"/>
+      <c r="H117" s="67"/>
       <c r="L117" s="44" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="69"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="79"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="79"/>
-      <c r="H118" s="71"/>
+      <c r="A118" s="79"/>
+      <c r="B118" s="79"/>
+      <c r="C118" s="79"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="79"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="67"/>
       <c r="L118" s="44" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="69"/>
-      <c r="B119" s="69"/>
-      <c r="C119" s="69"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="79"/>
-      <c r="H119" s="71"/>
+      <c r="A119" s="79"/>
+      <c r="B119" s="79"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="67"/>
       <c r="L119" s="44" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="69"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="79"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="79"/>
-      <c r="H120" s="71"/>
+      <c r="A120" s="79"/>
+      <c r="B120" s="79"/>
+      <c r="C120" s="79"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="79"/>
+      <c r="F120" s="79"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="67"/>
       <c r="L120" s="44" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="69"/>
-      <c r="B121" s="69"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="61"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="72"/>
+      <c r="A121" s="79"/>
+      <c r="B121" s="79"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="62"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="64"/>
       <c r="L121" s="44" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="69"/>
-      <c r="B122" s="69"/>
-      <c r="C122" s="60" t="s">
+      <c r="A122" s="79"/>
+      <c r="B122" s="79"/>
+      <c r="C122" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D122" s="60">
+      <c r="D122" s="61">
         <v>36</v>
       </c>
-      <c r="E122" s="60" t="s">
+      <c r="E122" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F122" s="60" t="s">
+      <c r="F122" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="G122" s="60"/>
-      <c r="H122" s="66" t="s">
+      <c r="G122" s="61"/>
+      <c r="H122" s="89" t="s">
         <v>493</v>
       </c>
       <c r="I122" s="44" t="s">
@@ -5789,14 +5828,14 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="69"/>
-      <c r="B123" s="69"/>
-      <c r="C123" s="61"/>
-      <c r="D123" s="61"/>
-      <c r="E123" s="61"/>
-      <c r="F123" s="61"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
+      <c r="A123" s="79"/>
+      <c r="B123" s="79"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="62"/>
+      <c r="E123" s="62"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="62"/>
       <c r="K123" s="47" t="s">
         <v>430</v>
       </c>
@@ -5805,22 +5844,22 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="69"/>
-      <c r="B124" s="69"/>
-      <c r="C124" s="69" t="s">
+      <c r="A124" s="79"/>
+      <c r="B124" s="79"/>
+      <c r="C124" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="60">
+      <c r="D124" s="61">
         <v>37</v>
       </c>
-      <c r="E124" s="69" t="s">
+      <c r="E124" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="F124" s="69" t="s">
+      <c r="F124" s="79" t="s">
         <v>434</v>
       </c>
-      <c r="G124" s="60"/>
-      <c r="H124" s="66" t="s">
+      <c r="G124" s="61"/>
+      <c r="H124" s="89" t="s">
         <v>532</v>
       </c>
       <c r="I124" s="44" t="s">
@@ -5837,14 +5876,14 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="69"/>
-      <c r="B125" s="69"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="61"/>
-      <c r="E125" s="69"/>
-      <c r="F125" s="69"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
+      <c r="A125" s="79"/>
+      <c r="B125" s="79"/>
+      <c r="C125" s="79"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="62"/>
       <c r="K125" s="47" t="s">
         <v>430</v>
       </c>
@@ -5853,26 +5892,26 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="60" t="s">
+      <c r="A126" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="B126" s="60" t="s">
+      <c r="B126" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="C126" s="60" t="s">
+      <c r="C126" s="61" t="s">
         <v>437</v>
       </c>
-      <c r="D126" s="60">
+      <c r="D126" s="61">
         <v>38</v>
       </c>
-      <c r="E126" s="60" t="s">
+      <c r="E126" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="F126" s="60" t="s">
+      <c r="F126" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="G126" s="60"/>
-      <c r="H126" s="66" t="s">
+      <c r="G126" s="61"/>
+      <c r="H126" s="89" t="s">
         <v>520</v>
       </c>
       <c r="I126" s="44" t="s">
@@ -5889,14 +5928,14 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="61"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
-      <c r="H127" s="61"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="62"/>
+      <c r="F127" s="62"/>
+      <c r="G127" s="62"/>
+      <c r="H127" s="62"/>
       <c r="I127" s="44" t="s">
         <v>495</v>
       </c>
@@ -5982,22 +6021,22 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="64" t="s">
+      <c r="A130" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="B130" s="60" t="s">
+      <c r="B130" s="61" t="s">
         <v>518</v>
       </c>
-      <c r="C130" s="60" t="s">
+      <c r="C130" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D130" s="60">
+      <c r="D130" s="61">
         <v>41</v>
       </c>
-      <c r="E130" s="60" t="s">
+      <c r="E130" s="61" t="s">
         <v>519</v>
       </c>
-      <c r="F130" s="60" t="s">
+      <c r="F130" s="61" t="s">
         <v>515</v>
       </c>
       <c r="H130" s="32" t="s">
@@ -6017,12 +6056,12 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A131" s="65"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="61"/>
-      <c r="D131" s="61"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="61"/>
+      <c r="A131" s="82"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="62"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="62"/>
       <c r="H131" s="51" t="s">
         <v>542</v>
       </c>
@@ -6110,32 +6149,32 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="64" t="s">
+      <c r="A134" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="B134" s="60" t="s">
+      <c r="B134" s="61" t="s">
         <v>547</v>
       </c>
-      <c r="C134" s="60" t="s">
+      <c r="C134" s="61" t="s">
         <v>548</v>
       </c>
-      <c r="D134" s="60">
+      <c r="D134" s="61">
         <v>44</v>
       </c>
-      <c r="E134" s="60" t="s">
+      <c r="E134" s="61" t="s">
         <v>548</v>
       </c>
-      <c r="F134" s="60" t="s">
+      <c r="F134" s="61" t="s">
         <v>540</v>
       </c>
-      <c r="G134" s="60"/>
-      <c r="H134" s="62" t="s">
+      <c r="G134" s="61"/>
+      <c r="H134" s="90" t="s">
         <v>546</v>
       </c>
-      <c r="I134" s="60" t="s">
+      <c r="I134" s="61" t="s">
         <v>549</v>
       </c>
-      <c r="J134" s="60" t="s">
+      <c r="J134" s="61" t="s">
         <v>550</v>
       </c>
       <c r="K134" s="44" t="s">
@@ -6146,16 +6185,16 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="65"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="61"/>
-      <c r="D135" s="61"/>
-      <c r="E135" s="61"/>
-      <c r="F135" s="61"/>
-      <c r="G135" s="61"/>
-      <c r="H135" s="63"/>
-      <c r="I135" s="61"/>
-      <c r="J135" s="61"/>
+      <c r="A135" s="82"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="62"/>
+      <c r="G135" s="62"/>
+      <c r="H135" s="91"/>
+      <c r="I135" s="62"/>
+      <c r="J135" s="62"/>
       <c r="K135" s="44" t="s">
         <v>221</v>
       </c>
@@ -6164,32 +6203,32 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="64" t="s">
+      <c r="A136" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="B136" s="60" t="s">
+      <c r="B136" s="61" t="s">
         <v>552</v>
       </c>
-      <c r="C136" s="60" t="s">
+      <c r="C136" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="D136" s="60">
+      <c r="D136" s="61">
         <v>45</v>
       </c>
-      <c r="E136" s="60" t="s">
+      <c r="E136" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="F136" s="60" t="s">
+      <c r="F136" s="61" t="s">
         <v>540</v>
       </c>
-      <c r="G136" s="60"/>
-      <c r="H136" s="62" t="s">
+      <c r="G136" s="61"/>
+      <c r="H136" s="90" t="s">
         <v>553</v>
       </c>
-      <c r="I136" s="60" t="s">
+      <c r="I136" s="61" t="s">
         <v>549</v>
       </c>
-      <c r="J136" s="60" t="s">
+      <c r="J136" s="61" t="s">
         <v>550</v>
       </c>
       <c r="K136" s="44" t="s">
@@ -6200,16 +6239,16 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="65"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="61"/>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="61"/>
-      <c r="G137" s="61"/>
-      <c r="H137" s="63"/>
-      <c r="I137" s="61"/>
-      <c r="J137" s="61"/>
+      <c r="A137" s="82"/>
+      <c r="B137" s="62"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
+      <c r="G137" s="62"/>
+      <c r="H137" s="91"/>
+      <c r="I137" s="62"/>
+      <c r="J137" s="62"/>
       <c r="K137" s="44" t="s">
         <v>221</v>
       </c>
@@ -6218,32 +6257,32 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="60" t="s">
+      <c r="A138" s="61" t="s">
         <v>554</v>
       </c>
-      <c r="B138" s="60" t="s">
+      <c r="B138" s="61" t="s">
         <v>555</v>
       </c>
-      <c r="C138" s="60" t="s">
+      <c r="C138" s="61" t="s">
         <v>556</v>
       </c>
-      <c r="D138" s="60">
+      <c r="D138" s="61">
         <v>46</v>
       </c>
-      <c r="E138" s="60" t="s">
+      <c r="E138" s="61" t="s">
         <v>556</v>
       </c>
-      <c r="F138" s="60" t="s">
+      <c r="F138" s="61" t="s">
         <v>557</v>
       </c>
-      <c r="G138" s="60"/>
+      <c r="G138" s="61"/>
       <c r="H138" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="I138" s="60" t="s">
+      <c r="I138" s="61" t="s">
         <v>559</v>
       </c>
-      <c r="J138" s="60" t="s">
+      <c r="J138" s="61" t="s">
         <v>560</v>
       </c>
       <c r="K138" s="50" t="s">
@@ -6254,15 +6293,15 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="61"/>
-      <c r="B139" s="61"/>
-      <c r="C139" s="61"/>
-      <c r="D139" s="61"/>
-      <c r="E139" s="61"/>
-      <c r="F139" s="61"/>
-      <c r="G139" s="61"/>
-      <c r="I139" s="61"/>
-      <c r="J139" s="61"/>
+      <c r="A139" s="62"/>
+      <c r="B139" s="62"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="62"/>
+      <c r="E139" s="62"/>
+      <c r="F139" s="62"/>
+      <c r="G139" s="62"/>
+      <c r="I139" s="62"/>
+      <c r="J139" s="62"/>
       <c r="K139" s="50" t="s">
         <v>221</v>
       </c>
@@ -6270,17 +6309,227 @@
         <v>195</v>
       </c>
     </row>
+    <row r="140" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="B140" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="C140" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="D140" s="44">
+        <v>47</v>
+      </c>
+      <c r="E140" s="60" t="s">
+        <v>564</v>
+      </c>
+      <c r="F140" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="H140" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="I140" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="J140" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="K140" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="L140" s="44" t="s">
+        <v>569</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="217">
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="A108:A125"/>
+    <mergeCell ref="B108:B125"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B36:B56"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="H93:H100"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E93:E100"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G93:G100"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="C108:C121"/>
+    <mergeCell ref="E108:E121"/>
+    <mergeCell ref="F108:F121"/>
+    <mergeCell ref="F86:F90"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E86:E90"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F93:F100"/>
+    <mergeCell ref="B93:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D108:D121"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B57:B77"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C54"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="F48:F54"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="H10:H19"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F10:F19"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F36:F40"/>
     <mergeCell ref="H91:H92"/>
     <mergeCell ref="G108:G121"/>
     <mergeCell ref="H108:H121"/>
@@ -6305,190 +6554,15 @@
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="G27:G31"/>
     <mergeCell ref="H73:H77"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="H10:H19"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F10:F19"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D108:D121"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B57:B77"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C108:C121"/>
-    <mergeCell ref="E108:E121"/>
-    <mergeCell ref="F108:F121"/>
-    <mergeCell ref="F86:F90"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E86:E90"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F93:F100"/>
-    <mergeCell ref="B93:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C54"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="H93:H100"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E93:E100"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="F48:F54"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G93:G100"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B36:B56"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="A108:A125"/>
-    <mergeCell ref="B108:B125"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6537,9 +6611,10 @@
     <hyperlink ref="H134" r:id="rId43"/>
     <hyperlink ref="H136" r:id="rId44"/>
     <hyperlink ref="H138" r:id="rId45"/>
+    <hyperlink ref="H140" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -6862,10 +6937,10 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="92" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -6881,8 +6956,8 @@
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
@@ -6896,8 +6971,8 @@
       <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
@@ -6911,8 +6986,8 @@
       <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
@@ -6928,8 +7003,8 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
@@ -6942,8 +7017,8 @@
       <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
@@ -6957,8 +7032,8 @@
       <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="93"/>
+      <c r="B15" s="93" t="s">
         <v>273</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -6974,8 +7049,8 @@
       <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="97"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
@@ -6989,8 +7064,8 @@
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="35" t="s">
         <v>12</v>
       </c>
@@ -7004,8 +7079,8 @@
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="35" t="s">
         <v>359</v>
       </c>
@@ -7019,8 +7094,8 @@
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="96" t="s">
+      <c r="A19" s="93"/>
+      <c r="B19" s="92" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -7035,8 +7110,8 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="97"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="35" t="s">
         <v>368</v>
       </c>
@@ -7049,8 +7124,8 @@
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="97"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="35" t="s">
         <v>369</v>
       </c>
@@ -7063,8 +7138,8 @@
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="1" t="s">
         <v>348</v>
       </c>
@@ -7077,8 +7152,8 @@
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="92" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -7094,8 +7169,8 @@
       <c r="L23" s="41"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="8" t="s">
         <v>181</v>
       </c>
@@ -7109,8 +7184,8 @@
       <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="97"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="8" t="s">
         <v>20</v>
       </c>
@@ -7124,8 +7199,8 @@
       <c r="L25" s="41"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
@@ -7139,8 +7214,8 @@
       <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="8" t="s">
         <v>21</v>
       </c>
@@ -7154,8 +7229,8 @@
       <c r="L27" s="41"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="97"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="23" t="s">
         <v>231</v>
       </c>
@@ -7169,8 +7244,8 @@
       <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="97"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="23" t="s">
         <v>232</v>
       </c>
@@ -7184,8 +7259,8 @@
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="8" t="s">
         <v>145</v>
       </c>
@@ -7199,8 +7274,8 @@
       <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="97"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="8" t="s">
         <v>23</v>
       </c>
@@ -7214,8 +7289,8 @@
       <c r="L31" s="41"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="96" t="s">
+      <c r="A32" s="93"/>
+      <c r="B32" s="92" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -7226,8 +7301,8 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="8" t="s">
         <v>67</v>
       </c>
@@ -7236,8 +7311,8 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
-      <c r="B34" s="97"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="8" t="s">
         <v>68</v>
       </c>
@@ -7246,8 +7321,8 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
-      <c r="B35" s="96" t="s">
+      <c r="A35" s="93"/>
+      <c r="B35" s="92" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -7258,8 +7333,8 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
-      <c r="B36" s="97"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="8" t="s">
         <v>28</v>
       </c>
@@ -7275,7 +7350,7 @@
       <c r="S36" s="11"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="8" t="s">
         <v>46</v>
       </c>
@@ -7291,7 +7366,7 @@
       <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="9" t="s">
         <v>148</v>
       </c>
@@ -7300,10 +7375,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="97" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="39" t="s">
@@ -7318,8 +7393,8 @@
       <c r="W39" s="21"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="6" t="s">
         <v>442</v>
       </c>
@@ -7332,8 +7407,8 @@
       <c r="W40" s="21"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="2" t="s">
         <v>35</v>
       </c>
@@ -7346,8 +7421,8 @@
       <c r="W41" s="21"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="95"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="2" t="s">
         <v>36</v>
       </c>
@@ -7360,10 +7435,10 @@
       <c r="W42" s="21"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="95" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -7378,8 +7453,8 @@
       <c r="W43" s="21"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
@@ -7392,8 +7467,8 @@
       <c r="W44" s="21"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="7" t="s">
         <v>51</v>
       </c>
@@ -7459,17 +7534,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A9:A38"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A9:A38"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
